--- a/EulerBenchmark.xlsx
+++ b/EulerBenchmark.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="752">
   <si>
     <t>Problem</t>
   </si>
@@ -23,278 +23,271 @@
     <t>C++ Times (ms)</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.029705</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0,028625</t>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.002701</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>0.244119</t>
+    <t>0,002052</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>289.248526</t>
+    <t>0,229753</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>0.00216</t>
+    <t>25,448487</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>0.003241</t>
+    <t>0,000756</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>14.176154</t>
+    <t>0,001728</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>3.133034</t>
+    <t>9,362051</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>26.508458</t>
+    <t>0,567845</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>27.969388</t>
+    <t>7,148459</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>0.092354</t>
+    <t>12,617793</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>517.431247</t>
+    <t>0,086954</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>0.097755</t>
+    <t>469,296269</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>31.829376</t>
+    <t>0,048500</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>0.462853</t>
+    <t>15,903130</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>0.406684</t>
+    <t>0,042883</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>1.213571</t>
+    <t>0,225000</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>0.011342</t>
+    <t>0,374495</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>1.156863</t>
+    <t>0,827626</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>1.250837</t>
+    <t>0,498390</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>12.705502</t>
+    <t>0,173583</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>7.025427</t>
+    <t>6,462010</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>95.822441</t>
+    <t>2,618549</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>271.231286</t>
+    <t>49,004515</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>174.261164</t>
+    <t>241,876256</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>25.643242</t>
+    <t>91,202553</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>52.187345</t>
+    <t>18,633801</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>0.050768</t>
+    <t>39,684374</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>24.530126</t>
+    <t>0,036510</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>387.076843</t>
+    <t>15,200804</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>10.577567</t>
+    <t>55,930351</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>737.536996</t>
+    <t>7,730670</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>0.981335</t>
+    <t>671,536542</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>74.436151</t>
+    <t>0,628659</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>170.249411</t>
+    <t>69,492968</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>2.463329</t>
+    <t>131,553609</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>28.734689</t>
+    <t>0,653287</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>146.895051</t>
+    <t>5,714317</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>206.778608</t>
+    <t>121,261423</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>7.251722</t>
+    <t>201,038584</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>3.425219</t>
+    <t>2,516148</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>5.793493</t>
+    <t>2,782411</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>757.274406</t>
+    <t>3,172784</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>76.757977</t>
+    <t>677,520037</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t xml:space="preserve">/-</t>
+    <t>63,285770</t>
   </si>
   <si>
     <t>45</t>
@@ -363,12 +356,12 @@
     <t>66</t>
   </si>
   <si>
-    <t>0.237638</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
+    <t>0,223703</t>
+  </si>
+  <si>
     <t>68</t>
   </si>
   <si>
@@ -393,12 +386,12 @@
     <t>75</t>
   </si>
   <si>
-    <t>0.090734</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
+    <t>0,088790</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
@@ -468,9 +461,6 @@
     <t>99</t>
   </si>
   <si>
-    <t>0.00108</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -789,12 +779,12 @@
     <t>205</t>
   </si>
   <si>
-    <t>1515.104</t>
-  </si>
-  <si>
     <t>206</t>
   </si>
   <si>
+    <t>1462,891608</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
@@ -2232,12 +2222,12 @@
     <t>685</t>
   </si>
   <si>
-    <t>216.428309</t>
-  </si>
-  <si>
     <t>686</t>
   </si>
   <si>
+    <t>211,265635</t>
+  </si>
+  <si>
     <t>687</t>
   </si>
   <si>
@@ -2272,6 +2262,12 @@
   </si>
   <si>
     <t>698</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>700</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C700"/>
+  <dimension ref="A1:C701"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2822,7 +2818,7 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2830,10 +2826,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2841,10 +2837,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2852,10 +2848,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2863,10 +2859,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2874,10 +2870,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2885,10 +2881,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2896,10 +2892,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2907,10 +2903,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2918,10 +2914,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2929,10 +2925,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2940,10 +2936,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2951,10 +2947,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2962,10 +2958,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2973,10 +2969,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2984,10 +2980,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2995,10 +2991,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3006,10 +3002,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3017,10 +3013,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3028,10 +3024,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3039,10 +3035,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3050,10 +3046,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3061,10 +3057,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" t="s">
         <v>115</v>
-      </c>
-      <c r="B68" t="s">
-        <v>116</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3072,10 +3068,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3083,10 +3079,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3094,10 +3090,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3105,10 +3101,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3116,10 +3112,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3127,10 +3123,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3138,10 +3134,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3149,10 +3145,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3160,10 +3156,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
         <v>125</v>
-      </c>
-      <c r="B77" t="s">
-        <v>126</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3171,10 +3167,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3182,10 +3178,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3193,10 +3189,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3204,10 +3200,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3215,10 +3211,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3226,10 +3222,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3237,10 +3233,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3248,10 +3244,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3259,10 +3255,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3270,10 +3266,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3281,10 +3277,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3292,10 +3288,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3303,10 +3299,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3314,10 +3310,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3325,10 +3321,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3336,10 +3332,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3347,10 +3343,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3358,10 +3354,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3369,10 +3365,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3380,10 +3376,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3391,10 +3387,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3402,10 +3398,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3413,10 +3409,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3424,10 +3420,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3435,10 +3431,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3446,10 +3442,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3457,10 +3453,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3468,10 +3464,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3479,10 +3475,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3490,10 +3486,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3501,10 +3497,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3512,10 +3508,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3523,10 +3519,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3534,10 +3530,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3545,10 +3541,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3556,10 +3552,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3567,10 +3563,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3578,10 +3574,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B115" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3589,10 +3585,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3600,10 +3596,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3611,10 +3607,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3622,10 +3618,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3633,10 +3629,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3644,10 +3640,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3655,10 +3651,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3666,10 +3662,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3677,10 +3673,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3688,10 +3684,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3699,10 +3695,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3710,10 +3706,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3721,10 +3717,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3732,10 +3728,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3743,10 +3739,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B130" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3754,10 +3750,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3765,10 +3761,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3776,10 +3772,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3787,10 +3783,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3798,10 +3794,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B135" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3809,10 +3805,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3820,10 +3816,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3831,10 +3827,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B138" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3842,10 +3838,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B139" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3853,10 +3849,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3864,10 +3860,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3875,10 +3871,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3886,10 +3882,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3897,10 +3893,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B144" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3908,10 +3904,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B145" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3919,10 +3915,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3930,10 +3926,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3941,10 +3937,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B148" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3952,10 +3948,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B149" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3963,10 +3959,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B150" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3974,10 +3970,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B151" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3985,10 +3981,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B152" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3996,10 +3992,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4007,10 +4003,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B154" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4018,10 +4014,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B155" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4029,10 +4025,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B156" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4040,10 +4036,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B157" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4051,10 +4047,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4062,10 +4058,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4073,10 +4069,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B160" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4084,10 +4080,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B161" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4095,10 +4091,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B162" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4106,10 +4102,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B163" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4117,10 +4113,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B164" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4128,10 +4124,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B165" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4139,10 +4135,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B166" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4150,10 +4146,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B167" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4161,10 +4157,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B168" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4172,10 +4168,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B169" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4183,10 +4179,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B170" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4194,10 +4190,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B171" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4205,10 +4201,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B172" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4216,10 +4212,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4227,10 +4223,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B174" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4238,10 +4234,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B175" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4249,10 +4245,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B176" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4260,10 +4256,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B177" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4271,10 +4267,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B178" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4282,10 +4278,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B179" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4293,10 +4289,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B180" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4304,10 +4300,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B181" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4315,10 +4311,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B182" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4326,10 +4322,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B183" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4337,10 +4333,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B184" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4348,10 +4344,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4359,10 +4355,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B186" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4370,10 +4366,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B187" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4381,10 +4377,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4392,10 +4388,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B189" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4403,10 +4399,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4414,10 +4410,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B191" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4425,10 +4421,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B192" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4436,10 +4432,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B193" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4447,10 +4443,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B194" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4458,10 +4454,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B195" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4469,10 +4465,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B196" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4480,10 +4476,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B197" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4491,10 +4487,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B198" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4502,10 +4498,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B199" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4513,10 +4509,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B200" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4524,10 +4520,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B201" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4535,10 +4531,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4546,10 +4542,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B203" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4557,10 +4553,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B204" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4568,10 +4564,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B205" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4579,10 +4575,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B206" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4590,10 +4586,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B207" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4601,10 +4597,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4612,10 +4608,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B209" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4623,10 +4619,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B210" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4634,10 +4630,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B211" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4645,10 +4641,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B212" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4656,10 +4652,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B213" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4667,10 +4663,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B214" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4678,10 +4674,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B215" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4689,10 +4685,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B216" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4700,10 +4696,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B217" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4711,10 +4707,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B218" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4722,10 +4718,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B219" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4733,10 +4729,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B220" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4744,10 +4740,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B221" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4755,10 +4751,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4766,10 +4762,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4777,10 +4773,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B224" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4788,10 +4784,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B225" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4799,10 +4795,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4810,10 +4806,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B227" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4821,10 +4817,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B228" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4832,10 +4828,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B229" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4843,10 +4839,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B230" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4854,10 +4850,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B231" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4865,10 +4861,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B232" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4876,10 +4872,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B233" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4887,10 +4883,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B234" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4898,10 +4894,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B235" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4909,10 +4905,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B236" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4920,10 +4916,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4931,10 +4927,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B238" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4942,10 +4938,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B239" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4953,10 +4949,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B240" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4964,10 +4960,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B241" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4975,10 +4971,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B242" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4986,10 +4982,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B243" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4997,10 +4993,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B244" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5008,10 +5004,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B245" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5019,10 +5015,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B246" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5030,10 +5026,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B247" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5041,10 +5037,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B248" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5052,10 +5048,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B249" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5063,10 +5059,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B250" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5074,10 +5070,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B251" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5085,10 +5081,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B252" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5096,10 +5092,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B253" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5107,10 +5103,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B254" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5118,10 +5114,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B255" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5129,10 +5125,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B256" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5140,10 +5136,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B257" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5151,10 +5147,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B258" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5162,10 +5158,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B259" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5173,10 +5169,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B260" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5184,10 +5180,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B261" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5195,10 +5191,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B262" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5206,10 +5202,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B263" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5217,10 +5213,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B264" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5228,10 +5224,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B265" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5239,10 +5235,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B266" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5250,10 +5246,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B267" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5261,10 +5257,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B268" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5272,10 +5268,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B269" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5283,10 +5279,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B270" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5294,10 +5290,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B271" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5305,10 +5301,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B272" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5316,10 +5312,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B273" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5327,10 +5323,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B274" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5338,10 +5334,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B275" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5349,10 +5345,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B276" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5360,10 +5356,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B277" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5371,10 +5367,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B278" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5382,10 +5378,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B279" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5393,10 +5389,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B280" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5404,10 +5400,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B281" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5415,10 +5411,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B282" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5426,10 +5422,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B283" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5437,10 +5433,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B284" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5448,10 +5444,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B285" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5459,10 +5455,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B286" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5470,10 +5466,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B287" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5481,10 +5477,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B288" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5492,10 +5488,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B289" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5503,10 +5499,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B290" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5514,10 +5510,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B291" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5525,10 +5521,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B292" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5536,10 +5532,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B293" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5547,10 +5543,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B294" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5558,10 +5554,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B295" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5569,10 +5565,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B296" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5580,10 +5576,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B297" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5591,10 +5587,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B298" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5602,10 +5598,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B299" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5613,10 +5609,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B300" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5624,10 +5620,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B301" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5635,10 +5631,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B302" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5646,10 +5642,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B303" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5657,10 +5653,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5668,10 +5664,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B305" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5679,10 +5675,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B306" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5690,10 +5686,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B307" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5701,10 +5697,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B308" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5712,10 +5708,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B309" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5723,10 +5719,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B310" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5734,10 +5730,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B311" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5745,10 +5741,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B312" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5756,10 +5752,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B313" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5767,10 +5763,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B314" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5778,10 +5774,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B315" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5789,10 +5785,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B316" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5800,10 +5796,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B317" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5811,10 +5807,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B318" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5822,10 +5818,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B319" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5833,10 +5829,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B320" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5844,10 +5840,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B321" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5855,10 +5851,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B322" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5866,10 +5862,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B323" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5877,10 +5873,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B324" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5888,10 +5884,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B325" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5899,10 +5895,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B326" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5910,10 +5906,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B327" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5921,10 +5917,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B328" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5932,10 +5928,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B329" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5943,10 +5939,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B330" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5954,10 +5950,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B331" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5965,10 +5961,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B332" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5976,10 +5972,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B333" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5987,10 +5983,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B334" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5998,10 +5994,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B335" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6009,10 +6005,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B336" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6020,10 +6016,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B337" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6031,10 +6027,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B338" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6042,10 +6038,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B339" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6053,10 +6049,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B340" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6064,10 +6060,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B341" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6075,10 +6071,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B342" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6086,10 +6082,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B343" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6097,10 +6093,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B344" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6108,10 +6104,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B345" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6119,10 +6115,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B346" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6130,10 +6126,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B347" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6141,10 +6137,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B348" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6152,10 +6148,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B349" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6163,10 +6159,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B350" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6174,10 +6170,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B351" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6185,10 +6181,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B352" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6196,10 +6192,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B353" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6207,10 +6203,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B354" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6218,10 +6214,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B355" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6229,10 +6225,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B356" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6240,10 +6236,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B357" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6251,10 +6247,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B358" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6262,10 +6258,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B359" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6273,10 +6269,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B360" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6284,10 +6280,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B361" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6295,10 +6291,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B362" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6306,10 +6302,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B363" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6317,10 +6313,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B364" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6328,10 +6324,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B365" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6339,10 +6335,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B366" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6350,10 +6346,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B367" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6361,10 +6357,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B368" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6372,10 +6368,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B369" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6383,10 +6379,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B370" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6394,10 +6390,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B371" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6405,10 +6401,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B372" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6416,10 +6412,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B373" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6427,10 +6423,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B374" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6438,10 +6434,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B375" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6449,10 +6445,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B376" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6460,10 +6456,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B377" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6471,10 +6467,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B378" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6482,10 +6478,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B379" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6493,10 +6489,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B380" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6504,10 +6500,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B381" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6515,10 +6511,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B382" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6526,10 +6522,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B383" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6537,10 +6533,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B384" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6548,10 +6544,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B385" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6559,10 +6555,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B386" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6570,10 +6566,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B387" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6581,10 +6577,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B388" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6592,10 +6588,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B389" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6603,10 +6599,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B390" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6614,10 +6610,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B391" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6625,10 +6621,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B392" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6636,10 +6632,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B393" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6647,10 +6643,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B394" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6658,10 +6654,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B395" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6669,10 +6665,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B396" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6680,10 +6676,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B397" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6691,10 +6687,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B398" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6702,10 +6698,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B399" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6713,10 +6709,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B400" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6724,10 +6720,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B401" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6735,10 +6731,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B402" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6746,10 +6742,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B403" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6757,10 +6753,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B404" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6768,10 +6764,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B405" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6779,10 +6775,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B406" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6790,10 +6786,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B407" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6801,10 +6797,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B408" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6812,10 +6808,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B409" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6823,10 +6819,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B410" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6834,10 +6830,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B411" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6845,10 +6841,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B412" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6856,10 +6852,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B413" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6867,10 +6863,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B414" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6878,10 +6874,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B415" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6889,10 +6885,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B416" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6900,10 +6896,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B417" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6911,10 +6907,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B418" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6922,10 +6918,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B419" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6933,10 +6929,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B420" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6944,10 +6940,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B421" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6955,10 +6951,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B422" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6966,10 +6962,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B423" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6977,10 +6973,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B424" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6988,10 +6984,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B425" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6999,10 +6995,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B426" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7010,10 +7006,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B427" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7021,10 +7017,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B428" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7032,10 +7028,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B429" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7043,10 +7039,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B430" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7054,10 +7050,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B431" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7065,10 +7061,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B432" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7076,10 +7072,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B433" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7087,10 +7083,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B434" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7098,10 +7094,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B435" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7109,10 +7105,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B436" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7120,10 +7116,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B437" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7131,10 +7127,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B438" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7142,10 +7138,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B439" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7153,10 +7149,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B440" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7164,10 +7160,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B441" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7175,10 +7171,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B442" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7186,10 +7182,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B443" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7197,10 +7193,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B444" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7208,10 +7204,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B445" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7219,10 +7215,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B446" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7230,10 +7226,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B447" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7241,10 +7237,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B448" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7252,10 +7248,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B449" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7263,10 +7259,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B450" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7274,10 +7270,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B451" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7285,10 +7281,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B452" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7296,10 +7292,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B453" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7307,10 +7303,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B454" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7318,10 +7314,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B455" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7329,10 +7325,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B456" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7340,10 +7336,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B457" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7351,10 +7347,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B458" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7362,10 +7358,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B459" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7373,10 +7369,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B460" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7384,10 +7380,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B461" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7395,10 +7391,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B462" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7406,10 +7402,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B463" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7417,10 +7413,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B464" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7428,10 +7424,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B465" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7439,10 +7435,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B466" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7450,10 +7446,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B467" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7461,10 +7457,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B468" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7472,10 +7468,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B469" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7483,10 +7479,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B470" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7494,10 +7490,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B471" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7505,10 +7501,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B472" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7516,10 +7512,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B473" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7527,10 +7523,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B474" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7538,10 +7534,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B475" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7549,10 +7545,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B476" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7560,10 +7556,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B477" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7571,10 +7567,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B478" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7582,10 +7578,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B479" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7593,10 +7589,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B480" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7604,10 +7600,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B481" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7615,10 +7611,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B482" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7626,10 +7622,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B483" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7637,10 +7633,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B484" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7648,10 +7644,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B485" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7659,10 +7655,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B486" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7670,10 +7666,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B487" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7681,10 +7677,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B488" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7692,10 +7688,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B489" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7703,10 +7699,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B490" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7714,10 +7710,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B491" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7725,10 +7721,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B492" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7736,10 +7732,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B493" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7747,10 +7743,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B494" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7758,10 +7754,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B495" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7769,10 +7765,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B496" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7780,10 +7776,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B497" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7791,10 +7787,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B498" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7802,10 +7798,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B499" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7813,10 +7809,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B500" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7824,10 +7820,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B501" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7835,10 +7831,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B502" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7846,10 +7842,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B503" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7857,10 +7853,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B504" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7868,10 +7864,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B505" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -7879,10 +7875,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B506" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -7890,10 +7886,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B507" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -7901,10 +7897,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B508" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -7912,10 +7908,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B509" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -7923,10 +7919,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B510" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -7934,10 +7930,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B511" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -7945,10 +7941,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B512" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -7956,10 +7952,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B513" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -7967,10 +7963,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B514" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -7978,10 +7974,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B515" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -7989,10 +7985,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8000,10 +7996,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B517" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8011,10 +8007,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B518" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8022,10 +8018,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B519" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8033,10 +8029,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B520" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8044,10 +8040,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B521" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8055,10 +8051,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B522" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8066,10 +8062,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B523" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8077,10 +8073,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B524" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8088,10 +8084,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B525" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8099,10 +8095,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B526" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8110,10 +8106,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B527" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8121,10 +8117,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B528" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8132,10 +8128,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B529" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8143,10 +8139,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B530" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8154,10 +8150,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B531" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8165,10 +8161,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B532" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8176,10 +8172,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B533" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8187,10 +8183,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B534" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8198,10 +8194,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B535" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8209,10 +8205,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B536" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8220,10 +8216,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B537" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8231,10 +8227,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B538" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8242,10 +8238,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B539" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8253,10 +8249,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B540" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8264,10 +8260,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B541" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8275,10 +8271,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B542" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8286,10 +8282,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B543" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8297,10 +8293,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B544" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8308,10 +8304,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B545" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8319,10 +8315,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B546" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8330,10 +8326,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B547" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8341,10 +8337,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B548" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8352,10 +8348,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B549" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8363,10 +8359,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B550" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8374,10 +8370,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B551" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8385,10 +8381,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B552" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8396,10 +8392,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B553" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8407,10 +8403,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B554" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8418,10 +8414,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B555" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8429,10 +8425,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B556" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8440,10 +8436,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B557" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8451,10 +8447,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B558" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8462,10 +8458,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B559" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8473,10 +8469,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B560" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8484,10 +8480,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B561" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8495,10 +8491,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B562" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8506,10 +8502,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B563" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8517,10 +8513,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B564" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8528,10 +8524,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B565" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -8539,10 +8535,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B566" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -8550,10 +8546,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B567" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -8561,10 +8557,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B568" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -8572,10 +8568,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B569" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -8583,10 +8579,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B570" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -8594,10 +8590,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B571" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -8605,10 +8601,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B572" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -8616,10 +8612,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B573" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -8627,10 +8623,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B574" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -8638,10 +8634,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B575" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -8649,10 +8645,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B576" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -8660,10 +8656,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B577" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -8671,10 +8667,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B578" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -8682,10 +8678,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B579" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -8693,10 +8689,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B580" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -8704,10 +8700,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B581" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -8715,10 +8711,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B582" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -8726,10 +8722,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B583" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -8737,10 +8733,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B584" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -8748,10 +8744,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B585" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -8759,10 +8755,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B586" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -8770,10 +8766,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B587" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -8781,10 +8777,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B588" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -8792,10 +8788,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B589" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -8803,10 +8799,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B590" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -8814,10 +8810,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B591" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -8825,10 +8821,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B592" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -8836,10 +8832,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B593" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -8847,10 +8843,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B594" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -8858,10 +8854,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B595" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -8869,10 +8865,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B596" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -8880,10 +8876,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B597" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -8891,10 +8887,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B598" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -8902,10 +8898,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B599" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -8913,10 +8909,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B600" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -8924,10 +8920,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B601" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -8935,10 +8931,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B602" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -8946,10 +8942,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B603" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -8957,10 +8953,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B604" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -8968,10 +8964,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B605" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -8979,10 +8975,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B606" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -8990,10 +8986,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B607" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9001,10 +8997,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B608" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9012,10 +9008,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B609" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9023,10 +9019,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B610" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9034,10 +9030,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B611" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9045,10 +9041,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B612" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9056,10 +9052,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B613" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9067,10 +9063,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B614" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9078,10 +9074,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B615" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9089,10 +9085,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B616" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9100,10 +9096,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B617" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9111,10 +9107,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B618" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9122,10 +9118,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B619" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9133,10 +9129,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B620" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9144,10 +9140,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B621" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9155,10 +9151,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B622" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9166,10 +9162,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B623" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9177,10 +9173,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B624" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9188,10 +9184,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B625" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -9199,10 +9195,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B626" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -9210,10 +9206,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B627" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9221,10 +9217,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B628" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9232,10 +9228,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B629" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -9243,10 +9239,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B630" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -9254,10 +9250,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B631" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -9265,10 +9261,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B632" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -9276,10 +9272,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B633" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -9287,10 +9283,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B634" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -9298,10 +9294,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B635" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -9309,10 +9305,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B636" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -9320,10 +9316,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B637" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -9331,10 +9327,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B638" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -9342,10 +9338,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B639" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -9353,10 +9349,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B640" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -9364,10 +9360,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B641" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -9375,10 +9371,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B642" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -9386,10 +9382,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B643" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -9397,10 +9393,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B644" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -9408,10 +9404,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B645" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -9419,10 +9415,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B646" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -9430,10 +9426,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B647" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -9441,10 +9437,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B648" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -9452,10 +9448,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B649" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -9463,10 +9459,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B650" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -9474,10 +9470,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B651" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -9485,10 +9481,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B652" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -9496,10 +9492,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B653" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -9507,10 +9503,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B654" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -9518,10 +9514,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B655" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -9529,10 +9525,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B656" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -9540,10 +9536,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B657" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -9551,10 +9547,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B658" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -9562,10 +9558,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B659" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -9573,10 +9569,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B660" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -9584,10 +9580,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B661" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -9595,10 +9591,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B662" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -9606,10 +9602,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B663" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -9617,10 +9613,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B664" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -9628,10 +9624,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B665" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -9639,10 +9635,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B666" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -9650,10 +9646,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B667" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -9661,10 +9657,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B668" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -9672,10 +9668,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B669" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -9683,10 +9679,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B670" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -9694,10 +9690,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B671" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -9705,10 +9701,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B672" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -9716,10 +9712,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B673" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -9727,10 +9723,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B674" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -9738,10 +9734,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B675" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -9749,10 +9745,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B676" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -9760,10 +9756,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B677" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -9771,10 +9767,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B678" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -9782,10 +9778,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B679" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -9793,10 +9789,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B680" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -9804,10 +9800,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B681" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -9815,10 +9811,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B682" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -9826,10 +9822,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B683" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -9837,10 +9833,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B684" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -9848,10 +9844,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B685" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -9859,10 +9855,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B686" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -9870,10 +9866,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B687" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -9881,10 +9877,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B688" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -9892,10 +9888,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B689" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -9903,10 +9899,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B690" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -9914,10 +9910,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B691" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -9925,10 +9921,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B692" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -9936,10 +9932,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B693" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -9947,10 +9943,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B694" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -9958,10 +9954,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B695" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -9969,10 +9965,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B696" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -9980,10 +9976,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B697" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -9991,10 +9987,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B698" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10002,10 +9998,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B699" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -10013,12 +10009,23 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B700" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C700" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>751</v>
+      </c>
+      <c r="B701" t="s">
+        <v>5</v>
+      </c>
+      <c r="C701" t="s">
         <v>5</v>
       </c>
     </row>

--- a/EulerBenchmark.xlsx
+++ b/EulerBenchmark.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="758">
   <si>
     <t>Problem</t>
   </si>
@@ -26,16 +26,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>0,03409</t>
-  </si>
-  <si>
-    <t>0,003</t>
+    <t>0,025362</t>
+  </si>
+  <si>
+    <t>0,00312</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0,001447</t>
+    <t>0,001469</t>
   </si>
   <si>
     <t>/</t>
@@ -44,261 +44,264 @@
     <t>3</t>
   </si>
   <si>
-    <t>0,137333</t>
+    <t>0,140962</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>16,669619</t>
+    <t>17,10132</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>0,000907</t>
+    <t>0,00095</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>0,001771</t>
+    <t>0,001944</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>8,951738</t>
+    <t>9,134814</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>0,369008</t>
+    <t>0,371944</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>6,467195</t>
+    <t>6,993579</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>10,839854</t>
+    <t>11,37752</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>0,083346</t>
+    <t>0,24833</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>467,699734</t>
+    <t>535,229003</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>0,021063</t>
+    <t>0,026874</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>16,793817</t>
+    <t>25,732604</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>0,03692</t>
+    <t>0,121281</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>0,120547</t>
+    <t>0,309532</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>0,382424</t>
+    <t>0,490892</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>0,005401</t>
+    <t>0,01361</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>0,3266</t>
+    <t>0,563112</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>0,084491</t>
+    <t>0,18715</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>6,343905</t>
+    <t>9,457136</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>2,408801</t>
+    <t>3,446897</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>40,429044</t>
+    <t>46,777719</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>203,431182</t>
+    <t>271,361976</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>101,567457</t>
+    <t>131,006936</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>12,428374</t>
+    <t>17,291213</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>39,220225</t>
+    <t>48,551935</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>0,033053</t>
+    <t>0,040182</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>5,676878</t>
+    <t>9,237624</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>54,577545</t>
+    <t>72,816441</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>7,5834</t>
+    <t>9,778463</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>636,621379</t>
+    <t>861,772045</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>0,644883</t>
+    <t>0,758428</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>66,938906</t>
+    <t>87,046637</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>130,980276</t>
+    <t>156,277963</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>0,44557</t>
+    <t>0,805502</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>6,085161</t>
+    <t>8,78134</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>114,27499</t>
+    <t>187,401158</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>201,336063</t>
+    <t>215,995079</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>2,385772</t>
+    <t>2,523419</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>2,495539</t>
+    <t>3,10241</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>0,609302</t>
+    <t>0,791848</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>693,463501</t>
+    <t>912,521639</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>63,508177</t>
-  </si>
-  <si>
-    <t>7783,912</t>
+    <t>75,962965</t>
+  </si>
+  <si>
+    <t>8701,788</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>1,248996</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
@@ -365,7 +368,7 @@
     <t>67</t>
   </si>
   <si>
-    <t>0,147443</t>
+    <t>0,216163</t>
   </si>
   <si>
     <t>68</t>
@@ -374,6 +377,9 @@
     <t>69</t>
   </si>
   <si>
+    <t>770,559834</t>
+  </si>
+  <si>
     <t>70</t>
   </si>
   <si>
@@ -395,7 +401,7 @@
     <t>76</t>
   </si>
   <si>
-    <t>0,060684</t>
+    <t>0,063989</t>
   </si>
   <si>
     <t>77</t>
@@ -470,7 +476,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>0,000691</t>
+    <t>0,000778</t>
   </si>
   <si>
     <t>101</t>
@@ -791,10 +797,10 @@
     <t>206</t>
   </si>
   <si>
-    <t>1403,519121</t>
-  </si>
-  <si>
-    <t>10737,92</t>
+    <t>1760,504014</t>
+  </si>
+  <si>
+    <t>12477,84</t>
   </si>
   <si>
     <t>207</t>
@@ -2237,7 +2243,7 @@
     <t>686</t>
   </si>
   <si>
-    <t>218,641664</t>
+    <t>243,458822</t>
   </si>
   <si>
     <t>687</t>
@@ -2830,7 +2836,7 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2849,7 +2855,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2882,7 +2888,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2893,7 +2899,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2904,7 +2910,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2915,7 +2921,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2926,7 +2932,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2937,7 +2943,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2948,7 +2954,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2959,7 +2965,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2981,7 +2987,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2992,7 +2998,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -3003,7 +3009,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -3014,7 +3020,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -3025,7 +3031,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -3047,7 +3053,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -3058,7 +3064,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -3069,10 +3075,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -3080,7 +3086,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -3091,10 +3097,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -3102,7 +3108,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3113,7 +3119,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -3124,7 +3130,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -3135,7 +3141,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3146,7 +3152,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -3157,7 +3163,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -3168,10 +3174,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -3179,7 +3185,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -3190,7 +3196,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -3201,7 +3207,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -3212,7 +3218,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -3223,7 +3229,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -3245,7 +3251,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -3256,7 +3262,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -3267,7 +3273,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -3278,7 +3284,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -3289,7 +3295,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -3300,7 +3306,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -3311,7 +3317,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -3322,7 +3328,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -3333,7 +3339,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -3355,7 +3361,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -3377,7 +3383,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -3388,7 +3394,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -3399,7 +3405,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -3410,7 +3416,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3421,7 +3427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3432,10 +3438,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -3443,7 +3449,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -3465,7 +3471,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -3476,7 +3482,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -3487,7 +3493,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -3498,7 +3504,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -3509,7 +3515,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -3531,7 +3537,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -3542,7 +3548,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -3564,7 +3570,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -3575,7 +3581,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -3586,7 +3592,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -3597,7 +3603,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -3608,7 +3614,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -3619,7 +3625,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -3630,7 +3636,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -3641,7 +3647,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -3652,7 +3658,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -3663,7 +3669,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -3674,7 +3680,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -3685,7 +3691,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -3696,7 +3702,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -3707,7 +3713,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -3718,7 +3724,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -3729,7 +3735,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -3751,7 +3757,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -3762,7 +3768,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -3773,7 +3779,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -3784,7 +3790,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -3795,7 +3801,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -3806,7 +3812,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -3817,7 +3823,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -3828,7 +3834,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -3839,7 +3845,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -3850,7 +3856,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -3861,7 +3867,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -3872,7 +3878,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -3883,7 +3889,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -3894,7 +3900,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -3905,7 +3911,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -3916,7 +3922,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -3927,7 +3933,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -3938,7 +3944,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -3949,7 +3955,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -3960,7 +3966,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -3971,7 +3977,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -3982,7 +3988,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -3993,7 +3999,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -4004,7 +4010,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -4015,7 +4021,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -4026,7 +4032,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -4037,7 +4043,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
@@ -4048,7 +4054,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -4059,7 +4065,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
@@ -4070,7 +4076,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -4081,7 +4087,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -4092,7 +4098,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
@@ -4103,7 +4109,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
@@ -4114,7 +4120,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -4125,7 +4131,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
@@ -4136,7 +4142,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
@@ -4147,7 +4153,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -4158,7 +4164,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
@@ -4169,7 +4175,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -4180,7 +4186,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -4191,7 +4197,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -4202,7 +4208,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
@@ -4213,7 +4219,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
@@ -4235,7 +4241,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -4246,7 +4252,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -4257,7 +4263,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -4268,7 +4274,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -4279,7 +4285,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -4290,7 +4296,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
@@ -4301,7 +4307,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
@@ -4312,7 +4318,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
@@ -4323,7 +4329,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -4334,7 +4340,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -4356,7 +4362,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -4367,7 +4373,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -4378,7 +4384,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -4389,7 +4395,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -4400,7 +4406,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -4411,7 +4417,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -4422,7 +4428,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -4433,7 +4439,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -4444,7 +4450,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -4455,7 +4461,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -4466,7 +4472,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -4477,7 +4483,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -4488,7 +4494,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
@@ -4499,7 +4505,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
@@ -4510,7 +4516,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
@@ -4521,7 +4527,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
@@ -4532,7 +4538,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
@@ -4543,7 +4549,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
@@ -4554,7 +4560,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
@@ -4565,7 +4571,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
@@ -4576,7 +4582,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -4587,7 +4593,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -4598,18 +4604,18 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B207" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C207" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
@@ -4620,7 +4626,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
@@ -4631,7 +4637,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
@@ -4642,7 +4648,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
@@ -4653,7 +4659,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
@@ -4664,7 +4670,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
@@ -4675,7 +4681,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
@@ -4686,7 +4692,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
@@ -4697,7 +4703,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -4708,7 +4714,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -4719,7 +4725,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
@@ -4730,7 +4736,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -4741,7 +4747,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -4752,7 +4758,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
@@ -4763,7 +4769,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
@@ -4774,7 +4780,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
@@ -4785,7 +4791,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
@@ -4796,7 +4802,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
@@ -4807,7 +4813,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
@@ -4818,7 +4824,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
@@ -4829,7 +4835,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
@@ -4840,7 +4846,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
@@ -4851,7 +4857,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
@@ -4862,7 +4868,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
@@ -4873,7 +4879,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
@@ -4895,7 +4901,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
@@ -4906,7 +4912,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
@@ -4917,7 +4923,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
@@ -4928,7 +4934,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
@@ -4939,7 +4945,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
@@ -4950,7 +4956,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -4961,7 +4967,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
@@ -4972,7 +4978,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
@@ -4994,7 +5000,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
@@ -5005,7 +5011,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
@@ -5016,7 +5022,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B245" t="s">
         <v>8</v>
@@ -5027,7 +5033,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
@@ -5038,7 +5044,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
@@ -5060,7 +5066,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
@@ -5071,7 +5077,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B250" t="s">
         <v>8</v>
@@ -5082,7 +5088,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
@@ -5093,7 +5099,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
@@ -5104,7 +5110,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B253" t="s">
         <v>8</v>
@@ -5115,7 +5121,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B254" t="s">
         <v>8</v>
@@ -5126,7 +5132,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B255" t="s">
         <v>8</v>
@@ -5137,7 +5143,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
@@ -5148,7 +5154,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
@@ -5159,7 +5165,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
@@ -5170,7 +5176,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
@@ -5181,7 +5187,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B260" t="s">
         <v>8</v>
@@ -5192,7 +5198,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B261" t="s">
         <v>8</v>
@@ -5203,7 +5209,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B262" t="s">
         <v>8</v>
@@ -5214,7 +5220,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B263" t="s">
         <v>8</v>
@@ -5225,7 +5231,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B264" t="s">
         <v>8</v>
@@ -5236,7 +5242,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B265" t="s">
         <v>8</v>
@@ -5247,7 +5253,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B266" t="s">
         <v>8</v>
@@ -5258,7 +5264,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B267" t="s">
         <v>8</v>
@@ -5269,7 +5275,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
@@ -5280,7 +5286,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B269" t="s">
         <v>8</v>
@@ -5291,7 +5297,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B270" t="s">
         <v>8</v>
@@ -5302,7 +5308,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
@@ -5313,7 +5319,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
@@ -5324,7 +5330,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
@@ -5335,7 +5341,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
@@ -5346,7 +5352,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B275" t="s">
         <v>8</v>
@@ -5357,7 +5363,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B276" t="s">
         <v>8</v>
@@ -5368,7 +5374,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B277" t="s">
         <v>8</v>
@@ -5379,7 +5385,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
@@ -5390,7 +5396,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
@@ -5401,7 +5407,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
@@ -5412,7 +5418,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
@@ -5423,7 +5429,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
@@ -5445,7 +5451,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
@@ -5456,7 +5462,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
@@ -5467,7 +5473,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
@@ -5478,7 +5484,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
@@ -5489,7 +5495,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
@@ -5500,7 +5506,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
@@ -5511,7 +5517,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B290" t="s">
         <v>8</v>
@@ -5522,7 +5528,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
@@ -5555,7 +5561,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
@@ -5566,7 +5572,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
@@ -5577,7 +5583,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B296" t="s">
         <v>8</v>
@@ -5588,7 +5594,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
@@ -5599,7 +5605,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
@@ -5610,7 +5616,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
@@ -5621,7 +5627,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
@@ -5632,7 +5638,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B301" t="s">
         <v>8</v>
@@ -5643,7 +5649,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
@@ -5654,7 +5660,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B303" t="s">
         <v>8</v>
@@ -5665,7 +5671,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B304" t="s">
         <v>8</v>
@@ -5676,7 +5682,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B305" t="s">
         <v>8</v>
@@ -5687,7 +5693,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B306" t="s">
         <v>8</v>
@@ -5698,7 +5704,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B307" t="s">
         <v>8</v>
@@ -5709,7 +5715,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B308" t="s">
         <v>8</v>
@@ -5720,7 +5726,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
@@ -5731,7 +5737,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B310" t="s">
         <v>8</v>
@@ -5742,7 +5748,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B311" t="s">
         <v>8</v>
@@ -5753,7 +5759,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B312" t="s">
         <v>8</v>
@@ -5764,7 +5770,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B313" t="s">
         <v>8</v>
@@ -5775,7 +5781,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B314" t="s">
         <v>8</v>
@@ -5786,7 +5792,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B315" t="s">
         <v>8</v>
@@ -5797,7 +5803,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B316" t="s">
         <v>8</v>
@@ -5808,7 +5814,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B317" t="s">
         <v>8</v>
@@ -5819,7 +5825,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B318" t="s">
         <v>8</v>
@@ -5830,7 +5836,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B319" t="s">
         <v>8</v>
@@ -5841,7 +5847,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B320" t="s">
         <v>8</v>
@@ -5852,7 +5858,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B321" t="s">
         <v>8</v>
@@ -5863,7 +5869,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B322" t="s">
         <v>8</v>
@@ -5874,7 +5880,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B323" t="s">
         <v>8</v>
@@ -5885,7 +5891,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B324" t="s">
         <v>8</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B325" t="s">
         <v>8</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B326" t="s">
         <v>8</v>
@@ -5918,7 +5924,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
@@ -5929,7 +5935,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B328" t="s">
         <v>8</v>
@@ -5940,7 +5946,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B329" t="s">
         <v>8</v>
@@ -5951,7 +5957,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B330" t="s">
         <v>8</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
@@ -5973,7 +5979,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B332" t="s">
         <v>8</v>
@@ -5984,7 +5990,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B333" t="s">
         <v>8</v>
@@ -5995,7 +6001,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B334" t="s">
         <v>8</v>
@@ -6006,7 +6012,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B335" t="s">
         <v>8</v>
@@ -6017,7 +6023,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B336" t="s">
         <v>8</v>
@@ -6028,7 +6034,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B337" t="s">
         <v>8</v>
@@ -6039,7 +6045,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B338" t="s">
         <v>8</v>
@@ -6050,7 +6056,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B339" t="s">
         <v>8</v>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B340" t="s">
         <v>8</v>
@@ -6072,7 +6078,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B341" t="s">
         <v>8</v>
@@ -6083,7 +6089,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B342" t="s">
         <v>8</v>
@@ -6094,7 +6100,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B343" t="s">
         <v>8</v>
@@ -6105,7 +6111,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B344" t="s">
         <v>8</v>
@@ -6116,7 +6122,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B345" t="s">
         <v>8</v>
@@ -6127,7 +6133,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B346" t="s">
         <v>8</v>
@@ -6138,7 +6144,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B347" t="s">
         <v>8</v>
@@ -6149,7 +6155,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B348" t="s">
         <v>8</v>
@@ -6160,7 +6166,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
@@ -6171,7 +6177,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B350" t="s">
         <v>8</v>
@@ -6182,7 +6188,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B351" t="s">
         <v>8</v>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B352" t="s">
         <v>8</v>
@@ -6204,7 +6210,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B353" t="s">
         <v>8</v>
@@ -6215,7 +6221,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B354" t="s">
         <v>8</v>
@@ -6226,7 +6232,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B355" t="s">
         <v>8</v>
@@ -6237,7 +6243,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B356" t="s">
         <v>8</v>
@@ -6248,7 +6254,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B357" t="s">
         <v>8</v>
@@ -6259,7 +6265,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B358" t="s">
         <v>8</v>
@@ -6270,7 +6276,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B359" t="s">
         <v>8</v>
@@ -6281,7 +6287,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B360" t="s">
         <v>8</v>
@@ -6292,7 +6298,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B361" t="s">
         <v>8</v>
@@ -6303,7 +6309,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B362" t="s">
         <v>8</v>
@@ -6314,7 +6320,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B363" t="s">
         <v>8</v>
@@ -6325,7 +6331,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B364" t="s">
         <v>8</v>
@@ -6336,7 +6342,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B365" t="s">
         <v>8</v>
@@ -6347,7 +6353,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B366" t="s">
         <v>8</v>
@@ -6358,7 +6364,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B367" t="s">
         <v>8</v>
@@ -6369,7 +6375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
@@ -6380,7 +6386,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B369" t="s">
         <v>8</v>
@@ -6391,7 +6397,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B370" t="s">
         <v>8</v>
@@ -6402,7 +6408,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B371" t="s">
         <v>8</v>
@@ -6413,7 +6419,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B372" t="s">
         <v>8</v>
@@ -6424,7 +6430,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B373" t="s">
         <v>8</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B374" t="s">
         <v>8</v>
@@ -6446,7 +6452,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B375" t="s">
         <v>8</v>
@@ -6457,7 +6463,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B376" t="s">
         <v>8</v>
@@ -6468,7 +6474,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B377" t="s">
         <v>8</v>
@@ -6479,7 +6485,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B378" t="s">
         <v>8</v>
@@ -6490,7 +6496,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B379" t="s">
         <v>8</v>
@@ -6501,7 +6507,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B380" t="s">
         <v>8</v>
@@ -6512,7 +6518,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B381" t="s">
         <v>8</v>
@@ -6523,7 +6529,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B382" t="s">
         <v>8</v>
@@ -6534,7 +6540,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B383" t="s">
         <v>8</v>
@@ -6545,7 +6551,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B384" t="s">
         <v>8</v>
@@ -6556,7 +6562,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B385" t="s">
         <v>8</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B386" t="s">
         <v>8</v>
@@ -6578,7 +6584,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B387" t="s">
         <v>8</v>
@@ -6589,7 +6595,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B388" t="s">
         <v>8</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B389" t="s">
         <v>8</v>
@@ -6611,7 +6617,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B390" t="s">
         <v>8</v>
@@ -6622,7 +6628,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B391" t="s">
         <v>8</v>
@@ -6633,7 +6639,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B392" t="s">
         <v>8</v>
@@ -6644,7 +6650,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B393" t="s">
         <v>8</v>
@@ -6655,7 +6661,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B394" t="s">
         <v>8</v>
@@ -6666,7 +6672,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B395" t="s">
         <v>8</v>
@@ -6677,7 +6683,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B396" t="s">
         <v>8</v>
@@ -6688,7 +6694,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B397" t="s">
         <v>8</v>
@@ -6699,7 +6705,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B398" t="s">
         <v>8</v>
@@ -6710,7 +6716,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B399" t="s">
         <v>8</v>
@@ -6721,7 +6727,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B400" t="s">
         <v>8</v>
@@ -6732,7 +6738,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B401" t="s">
         <v>8</v>
@@ -6743,7 +6749,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B402" t="s">
         <v>8</v>
@@ -6754,7 +6760,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B403" t="s">
         <v>8</v>
@@ -6765,7 +6771,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B404" t="s">
         <v>8</v>
@@ -6776,7 +6782,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B405" t="s">
         <v>8</v>
@@ -6787,7 +6793,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B406" t="s">
         <v>8</v>
@@ -6798,7 +6804,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B407" t="s">
         <v>8</v>
@@ -6809,7 +6815,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B408" t="s">
         <v>8</v>
@@ -6820,7 +6826,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B409" t="s">
         <v>8</v>
@@ -6831,7 +6837,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B410" t="s">
         <v>8</v>
@@ -6842,7 +6848,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B411" t="s">
         <v>8</v>
@@ -6853,7 +6859,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B412" t="s">
         <v>8</v>
@@ -6864,7 +6870,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B413" t="s">
         <v>8</v>
@@ -6875,7 +6881,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B414" t="s">
         <v>8</v>
@@ -6886,7 +6892,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B415" t="s">
         <v>8</v>
@@ -6897,7 +6903,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B416" t="s">
         <v>8</v>
@@ -6908,7 +6914,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B417" t="s">
         <v>8</v>
@@ -6919,7 +6925,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B418" t="s">
         <v>8</v>
@@ -6930,7 +6936,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B419" t="s">
         <v>8</v>
@@ -6941,7 +6947,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B420" t="s">
         <v>8</v>
@@ -6952,7 +6958,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B421" t="s">
         <v>8</v>
@@ -6963,7 +6969,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B422" t="s">
         <v>8</v>
@@ -6974,7 +6980,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B423" t="s">
         <v>8</v>
@@ -6985,7 +6991,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B424" t="s">
         <v>8</v>
@@ -6996,7 +7002,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B425" t="s">
         <v>8</v>
@@ -7007,7 +7013,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B426" t="s">
         <v>8</v>
@@ -7018,7 +7024,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B427" t="s">
         <v>8</v>
@@ -7029,7 +7035,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B428" t="s">
         <v>8</v>
@@ -7040,7 +7046,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B429" t="s">
         <v>8</v>
@@ -7051,7 +7057,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B430" t="s">
         <v>8</v>
@@ -7062,7 +7068,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B431" t="s">
         <v>8</v>
@@ -7073,7 +7079,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B432" t="s">
         <v>8</v>
@@ -7084,7 +7090,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B433" t="s">
         <v>8</v>
@@ -7095,7 +7101,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B434" t="s">
         <v>8</v>
@@ -7106,7 +7112,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B435" t="s">
         <v>8</v>
@@ -7117,7 +7123,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B436" t="s">
         <v>8</v>
@@ -7128,7 +7134,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B437" t="s">
         <v>8</v>
@@ -7139,7 +7145,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B438" t="s">
         <v>8</v>
@@ -7150,7 +7156,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B439" t="s">
         <v>8</v>
@@ -7161,7 +7167,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B440" t="s">
         <v>8</v>
@@ -7172,7 +7178,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B441" t="s">
         <v>8</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B442" t="s">
         <v>8</v>
@@ -7194,7 +7200,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B443" t="s">
         <v>8</v>
@@ -7205,7 +7211,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B444" t="s">
         <v>8</v>
@@ -7216,7 +7222,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
@@ -7227,7 +7233,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B446" t="s">
         <v>8</v>
@@ -7238,7 +7244,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B447" t="s">
         <v>8</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B448" t="s">
         <v>8</v>
@@ -7260,7 +7266,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B449" t="s">
         <v>8</v>
@@ -7271,7 +7277,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B450" t="s">
         <v>8</v>
@@ -7282,7 +7288,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B451" t="s">
         <v>8</v>
@@ -7293,7 +7299,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B452" t="s">
         <v>8</v>
@@ -7304,7 +7310,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B453" t="s">
         <v>8</v>
@@ -7315,7 +7321,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B454" t="s">
         <v>8</v>
@@ -7326,7 +7332,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B455" t="s">
         <v>8</v>
@@ -7337,7 +7343,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B456" t="s">
         <v>8</v>
@@ -7348,7 +7354,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B457" t="s">
         <v>8</v>
@@ -7359,7 +7365,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B458" t="s">
         <v>8</v>
@@ -7370,7 +7376,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B459" t="s">
         <v>8</v>
@@ -7381,7 +7387,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B460" t="s">
         <v>8</v>
@@ -7392,7 +7398,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B461" t="s">
         <v>8</v>
@@ -7403,7 +7409,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B462" t="s">
         <v>8</v>
@@ -7414,7 +7420,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B463" t="s">
         <v>8</v>
@@ -7425,7 +7431,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B464" t="s">
         <v>8</v>
@@ -7436,7 +7442,7 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B465" t="s">
         <v>8</v>
@@ -7447,7 +7453,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B466" t="s">
         <v>8</v>
@@ -7458,7 +7464,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B467" t="s">
         <v>8</v>
@@ -7469,7 +7475,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B468" t="s">
         <v>8</v>
@@ -7480,7 +7486,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B469" t="s">
         <v>8</v>
@@ -7491,7 +7497,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B470" t="s">
         <v>8</v>
@@ -7502,7 +7508,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B471" t="s">
         <v>8</v>
@@ -7513,7 +7519,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B472" t="s">
         <v>8</v>
@@ -7524,7 +7530,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B473" t="s">
         <v>8</v>
@@ -7535,7 +7541,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B474" t="s">
         <v>8</v>
@@ -7546,7 +7552,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B475" t="s">
         <v>8</v>
@@ -7557,7 +7563,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
@@ -7568,7 +7574,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B477" t="s">
         <v>8</v>
@@ -7579,7 +7585,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B478" t="s">
         <v>8</v>
@@ -7590,7 +7596,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
@@ -7601,7 +7607,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B480" t="s">
         <v>8</v>
@@ -7612,7 +7618,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B481" t="s">
         <v>8</v>
@@ -7623,7 +7629,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B482" t="s">
         <v>8</v>
@@ -7634,7 +7640,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B483" t="s">
         <v>8</v>
@@ -7645,7 +7651,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B484" t="s">
         <v>8</v>
@@ -7656,7 +7662,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B485" t="s">
         <v>8</v>
@@ -7667,7 +7673,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
@@ -7678,7 +7684,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B487" t="s">
         <v>8</v>
@@ -7689,7 +7695,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B488" t="s">
         <v>8</v>
@@ -7700,7 +7706,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B489" t="s">
         <v>8</v>
@@ -7711,7 +7717,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B490" t="s">
         <v>8</v>
@@ -7722,7 +7728,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B491" t="s">
         <v>8</v>
@@ -7733,7 +7739,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
@@ -7744,7 +7750,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B493" t="s">
         <v>8</v>
@@ -7755,7 +7761,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B494" t="s">
         <v>8</v>
@@ -7766,7 +7772,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B495" t="s">
         <v>8</v>
@@ -7777,7 +7783,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B496" t="s">
         <v>8</v>
@@ -7788,7 +7794,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B497" t="s">
         <v>8</v>
@@ -7799,7 +7805,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B498" t="s">
         <v>8</v>
@@ -7810,7 +7816,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B499" t="s">
         <v>8</v>
@@ -7821,7 +7827,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B500" t="s">
         <v>8</v>
@@ -7832,7 +7838,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B501" t="s">
         <v>8</v>
@@ -7843,7 +7849,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B502" t="s">
         <v>8</v>
@@ -7854,7 +7860,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B503" t="s">
         <v>8</v>
@@ -7865,7 +7871,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B504" t="s">
         <v>8</v>
@@ -7876,7 +7882,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B505" t="s">
         <v>8</v>
@@ -7887,7 +7893,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B506" t="s">
         <v>8</v>
@@ -7898,7 +7904,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B507" t="s">
         <v>8</v>
@@ -7909,7 +7915,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B508" t="s">
         <v>8</v>
@@ -7920,7 +7926,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B509" t="s">
         <v>8</v>
@@ -7931,7 +7937,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B510" t="s">
         <v>8</v>
@@ -7942,7 +7948,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B511" t="s">
         <v>8</v>
@@ -7953,7 +7959,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B512" t="s">
         <v>8</v>
@@ -7964,7 +7970,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B513" t="s">
         <v>8</v>
@@ -7975,7 +7981,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B514" t="s">
         <v>8</v>
@@ -7986,7 +7992,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B515" t="s">
         <v>8</v>
@@ -7997,7 +8003,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B516" t="s">
         <v>8</v>
@@ -8008,7 +8014,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B517" t="s">
         <v>8</v>
@@ -8019,7 +8025,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B518" t="s">
         <v>8</v>
@@ -8030,7 +8036,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B519" t="s">
         <v>8</v>
@@ -8041,7 +8047,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B520" t="s">
         <v>8</v>
@@ -8052,7 +8058,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B521" t="s">
         <v>8</v>
@@ -8063,7 +8069,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B522" t="s">
         <v>8</v>
@@ -8074,7 +8080,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B523" t="s">
         <v>8</v>
@@ -8085,7 +8091,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B524" t="s">
         <v>8</v>
@@ -8096,7 +8102,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B525" t="s">
         <v>8</v>
@@ -8107,7 +8113,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B526" t="s">
         <v>8</v>
@@ -8118,7 +8124,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B527" t="s">
         <v>8</v>
@@ -8129,7 +8135,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B528" t="s">
         <v>8</v>
@@ -8140,7 +8146,7 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B529" t="s">
         <v>8</v>
@@ -8151,7 +8157,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B530" t="s">
         <v>8</v>
@@ -8162,7 +8168,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B531" t="s">
         <v>8</v>
@@ -8173,7 +8179,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B532" t="s">
         <v>8</v>
@@ -8184,7 +8190,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B533" t="s">
         <v>8</v>
@@ -8195,7 +8201,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B534" t="s">
         <v>8</v>
@@ -8206,7 +8212,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B535" t="s">
         <v>8</v>
@@ -8217,7 +8223,7 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B536" t="s">
         <v>8</v>
@@ -8228,7 +8234,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B537" t="s">
         <v>8</v>
@@ -8239,7 +8245,7 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B538" t="s">
         <v>8</v>
@@ -8250,7 +8256,7 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B539" t="s">
         <v>8</v>
@@ -8261,7 +8267,7 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B540" t="s">
         <v>8</v>
@@ -8272,7 +8278,7 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B541" t="s">
         <v>8</v>
@@ -8283,7 +8289,7 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B542" t="s">
         <v>8</v>
@@ -8294,7 +8300,7 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B543" t="s">
         <v>8</v>
@@ -8305,7 +8311,7 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B544" t="s">
         <v>8</v>
@@ -8316,7 +8322,7 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B545" t="s">
         <v>8</v>
@@ -8327,7 +8333,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B546" t="s">
         <v>8</v>
@@ -8338,7 +8344,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B547" t="s">
         <v>8</v>
@@ -8349,7 +8355,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B548" t="s">
         <v>8</v>
@@ -8360,7 +8366,7 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B549" t="s">
         <v>8</v>
@@ -8371,7 +8377,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B550" t="s">
         <v>8</v>
@@ -8382,7 +8388,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B551" t="s">
         <v>8</v>
@@ -8393,7 +8399,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B552" t="s">
         <v>8</v>
@@ -8404,7 +8410,7 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B553" t="s">
         <v>8</v>
@@ -8415,7 +8421,7 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B554" t="s">
         <v>8</v>
@@ -8426,7 +8432,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B555" t="s">
         <v>8</v>
@@ -8437,7 +8443,7 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B556" t="s">
         <v>8</v>
@@ -8448,7 +8454,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B557" t="s">
         <v>8</v>
@@ -8459,7 +8465,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B558" t="s">
         <v>8</v>
@@ -8470,7 +8476,7 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B559" t="s">
         <v>8</v>
@@ -8481,7 +8487,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B560" t="s">
         <v>8</v>
@@ -8492,7 +8498,7 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B561" t="s">
         <v>8</v>
@@ -8503,7 +8509,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B562" t="s">
         <v>8</v>
@@ -8514,7 +8520,7 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B563" t="s">
         <v>8</v>
@@ -8525,7 +8531,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B564" t="s">
         <v>8</v>
@@ -8536,7 +8542,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B565" t="s">
         <v>8</v>
@@ -8547,7 +8553,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B566" t="s">
         <v>8</v>
@@ -8558,7 +8564,7 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B567" t="s">
         <v>8</v>
@@ -8569,7 +8575,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B568" t="s">
         <v>8</v>
@@ -8580,7 +8586,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B569" t="s">
         <v>8</v>
@@ -8591,7 +8597,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B570" t="s">
         <v>8</v>
@@ -8602,7 +8608,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B571" t="s">
         <v>8</v>
@@ -8613,7 +8619,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B572" t="s">
         <v>8</v>
@@ -8624,7 +8630,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B573" t="s">
         <v>8</v>
@@ -8635,7 +8641,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B574" t="s">
         <v>8</v>
@@ -8646,7 +8652,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B575" t="s">
         <v>8</v>
@@ -8657,7 +8663,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B576" t="s">
         <v>8</v>
@@ -8668,7 +8674,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B577" t="s">
         <v>8</v>
@@ -8679,7 +8685,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B578" t="s">
         <v>8</v>
@@ -8690,7 +8696,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B579" t="s">
         <v>8</v>
@@ -8701,7 +8707,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B580" t="s">
         <v>8</v>
@@ -8712,7 +8718,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B581" t="s">
         <v>8</v>
@@ -8723,7 +8729,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B582" t="s">
         <v>8</v>
@@ -8734,7 +8740,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B583" t="s">
         <v>8</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B584" t="s">
         <v>8</v>
@@ -8756,7 +8762,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B585" t="s">
         <v>8</v>
@@ -8767,7 +8773,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B586" t="s">
         <v>8</v>
@@ -8778,7 +8784,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B587" t="s">
         <v>8</v>
@@ -8789,7 +8795,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B588" t="s">
         <v>8</v>
@@ -8800,7 +8806,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B589" t="s">
         <v>8</v>
@@ -8811,7 +8817,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B590" t="s">
         <v>8</v>
@@ -8822,7 +8828,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B591" t="s">
         <v>8</v>
@@ -8833,7 +8839,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B592" t="s">
         <v>8</v>
@@ -8844,7 +8850,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B593" t="s">
         <v>8</v>
@@ -8855,7 +8861,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B594" t="s">
         <v>8</v>
@@ -8866,7 +8872,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B595" t="s">
         <v>8</v>
@@ -8877,7 +8883,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B596" t="s">
         <v>8</v>
@@ -8888,7 +8894,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B597" t="s">
         <v>8</v>
@@ -8899,7 +8905,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B598" t="s">
         <v>8</v>
@@ -8910,7 +8916,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B599" t="s">
         <v>8</v>
@@ -8921,7 +8927,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B600" t="s">
         <v>8</v>
@@ -8932,7 +8938,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B601" t="s">
         <v>8</v>
@@ -8943,7 +8949,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B602" t="s">
         <v>8</v>
@@ -8954,7 +8960,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B603" t="s">
         <v>8</v>
@@ -8965,7 +8971,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B604" t="s">
         <v>8</v>
@@ -8976,7 +8982,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B605" t="s">
         <v>8</v>
@@ -8987,7 +8993,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B606" t="s">
         <v>8</v>
@@ -8998,7 +9004,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B607" t="s">
         <v>8</v>
@@ -9009,7 +9015,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B608" t="s">
         <v>8</v>
@@ -9020,7 +9026,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B609" t="s">
         <v>8</v>
@@ -9031,7 +9037,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B610" t="s">
         <v>8</v>
@@ -9042,7 +9048,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B611" t="s">
         <v>8</v>
@@ -9053,7 +9059,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B612" t="s">
         <v>8</v>
@@ -9064,7 +9070,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B613" t="s">
         <v>8</v>
@@ -9075,7 +9081,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B614" t="s">
         <v>8</v>
@@ -9086,7 +9092,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B615" t="s">
         <v>8</v>
@@ -9097,7 +9103,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B616" t="s">
         <v>8</v>
@@ -9108,7 +9114,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B617" t="s">
         <v>8</v>
@@ -9119,7 +9125,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B618" t="s">
         <v>8</v>
@@ -9130,7 +9136,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B619" t="s">
         <v>8</v>
@@ -9141,7 +9147,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B620" t="s">
         <v>8</v>
@@ -9152,7 +9158,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B621" t="s">
         <v>8</v>
@@ -9163,7 +9169,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B622" t="s">
         <v>8</v>
@@ -9174,7 +9180,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B623" t="s">
         <v>8</v>
@@ -9185,7 +9191,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B624" t="s">
         <v>8</v>
@@ -9196,7 +9202,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B625" t="s">
         <v>8</v>
@@ -9207,7 +9213,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B626" t="s">
         <v>8</v>
@@ -9218,7 +9224,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B627" t="s">
         <v>8</v>
@@ -9229,7 +9235,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B628" t="s">
         <v>8</v>
@@ -9240,7 +9246,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B629" t="s">
         <v>8</v>
@@ -9251,7 +9257,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B630" t="s">
         <v>8</v>
@@ -9262,7 +9268,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B631" t="s">
         <v>8</v>
@@ -9273,7 +9279,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B632" t="s">
         <v>8</v>
@@ -9284,7 +9290,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B633" t="s">
         <v>8</v>
@@ -9295,7 +9301,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B634" t="s">
         <v>8</v>
@@ -9306,7 +9312,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B635" t="s">
         <v>8</v>
@@ -9317,7 +9323,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B636" t="s">
         <v>8</v>
@@ -9328,7 +9334,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B637" t="s">
         <v>8</v>
@@ -9339,7 +9345,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B638" t="s">
         <v>8</v>
@@ -9350,7 +9356,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B639" t="s">
         <v>8</v>
@@ -9361,7 +9367,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B640" t="s">
         <v>8</v>
@@ -9372,7 +9378,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B641" t="s">
         <v>8</v>
@@ -9383,7 +9389,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B642" t="s">
         <v>8</v>
@@ -9394,7 +9400,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B643" t="s">
         <v>8</v>
@@ -9405,7 +9411,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B644" t="s">
         <v>8</v>
@@ -9416,7 +9422,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B645" t="s">
         <v>8</v>
@@ -9427,7 +9433,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B646" t="s">
         <v>8</v>
@@ -9438,7 +9444,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B647" t="s">
         <v>8</v>
@@ -9449,7 +9455,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B648" t="s">
         <v>8</v>
@@ -9460,7 +9466,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B649" t="s">
         <v>8</v>
@@ -9471,7 +9477,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B650" t="s">
         <v>8</v>
@@ -9482,7 +9488,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B651" t="s">
         <v>8</v>
@@ -9493,7 +9499,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B652" t="s">
         <v>8</v>
@@ -9504,7 +9510,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B653" t="s">
         <v>8</v>
@@ -9515,7 +9521,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B654" t="s">
         <v>8</v>
@@ -9526,7 +9532,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B655" t="s">
         <v>8</v>
@@ -9537,7 +9543,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B656" t="s">
         <v>8</v>
@@ -9548,7 +9554,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B657" t="s">
         <v>8</v>
@@ -9559,7 +9565,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B658" t="s">
         <v>8</v>
@@ -9570,7 +9576,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B659" t="s">
         <v>8</v>
@@ -9581,7 +9587,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B660" t="s">
         <v>8</v>
@@ -9592,7 +9598,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B661" t="s">
         <v>8</v>
@@ -9603,7 +9609,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B662" t="s">
         <v>8</v>
@@ -9614,7 +9620,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B663" t="s">
         <v>8</v>
@@ -9625,7 +9631,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B664" t="s">
         <v>8</v>
@@ -9636,7 +9642,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B665" t="s">
         <v>8</v>
@@ -9647,7 +9653,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B666" t="s">
         <v>8</v>
@@ -9658,7 +9664,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B667" t="s">
         <v>8</v>
@@ -9669,7 +9675,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B668" t="s">
         <v>8</v>
@@ -9680,7 +9686,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B669" t="s">
         <v>8</v>
@@ -9691,7 +9697,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B670" t="s">
         <v>8</v>
@@ -9702,7 +9708,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B671" t="s">
         <v>8</v>
@@ -9713,7 +9719,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B672" t="s">
         <v>8</v>
@@ -9724,7 +9730,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B673" t="s">
         <v>8</v>
@@ -9735,7 +9741,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B674" t="s">
         <v>8</v>
@@ -9746,7 +9752,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B675" t="s">
         <v>8</v>
@@ -9757,7 +9763,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B676" t="s">
         <v>8</v>
@@ -9768,7 +9774,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B677" t="s">
         <v>8</v>
@@ -9779,7 +9785,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B678" t="s">
         <v>8</v>
@@ -9790,7 +9796,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B679" t="s">
         <v>8</v>
@@ -9801,7 +9807,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B680" t="s">
         <v>8</v>
@@ -9812,7 +9818,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B681" t="s">
         <v>8</v>
@@ -9823,7 +9829,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B682" t="s">
         <v>8</v>
@@ -9834,7 +9840,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B683" t="s">
         <v>8</v>
@@ -9845,7 +9851,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B684" t="s">
         <v>8</v>
@@ -9856,7 +9862,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B685" t="s">
         <v>8</v>
@@ -9867,7 +9873,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B686" t="s">
         <v>8</v>
@@ -9878,10 +9884,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B687" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C687" t="s">
         <v>8</v>
@@ -9889,7 +9895,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B688" t="s">
         <v>8</v>
@@ -9900,7 +9906,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B689" t="s">
         <v>8</v>
@@ -9911,7 +9917,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B690" t="s">
         <v>8</v>
@@ -9922,7 +9928,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B691" t="s">
         <v>8</v>
@@ -9933,7 +9939,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B692" t="s">
         <v>8</v>
@@ -9944,7 +9950,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B693" t="s">
         <v>8</v>
@@ -9955,7 +9961,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B694" t="s">
         <v>8</v>
@@ -9966,7 +9972,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B695" t="s">
         <v>8</v>
@@ -9977,7 +9983,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B696" t="s">
         <v>8</v>
@@ -9988,7 +9994,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B697" t="s">
         <v>8</v>
@@ -9999,7 +10005,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B698" t="s">
         <v>8</v>
@@ -10010,7 +10016,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B699" t="s">
         <v>8</v>
@@ -10021,7 +10027,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B700" t="s">
         <v>8</v>
@@ -10032,7 +10038,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B701" t="s">
         <v>8</v>

--- a/EulerBenchmark.xlsx
+++ b/EulerBenchmark.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seibel\IdeaProjects\Privat\Euler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1757613B-B1A0-4463-89B4-2DDECA55EA6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="4740" yWindow="1650" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Euler Benchmark" r:id="rId3" sheetId="1"/>
+    <sheet name="Project Euler Benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="759">
   <si>
     <t>Problem</t>
   </si>
@@ -2286,16 +2294,18 @@
   </si>
   <si>
     <t>700</t>
+  </si>
+  <si>
+    <t>C# Times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2307,7 +2317,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2325,18 +2335,331 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C701"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2346,8 +2669,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2357,8 +2683,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2391,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2402,7 +2731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2413,7 +2742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +2753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2435,7 +2764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2446,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2457,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2468,7 +2797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2479,7 +2808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2490,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2501,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2523,7 +2852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2534,7 +2863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2545,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2567,7 +2896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2578,7 +2907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2589,7 +2918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2600,7 +2929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2611,7 +2940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2633,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2644,7 +2973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2655,7 +2984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2666,7 +2995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2677,7 +3006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2688,7 +3017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -2699,7 +3028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -2710,7 +3039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2721,7 +3050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2732,7 +3061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2743,7 +3072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2754,7 +3083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2765,7 +3094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -2776,7 +3105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2787,7 +3116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2798,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2809,7 +3138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -2820,7 +3149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -2831,7 +3160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2842,7 +3171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -2853,7 +3182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2864,7 +3193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -2875,7 +3204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2886,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2897,7 +3226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2908,7 +3237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -2919,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2930,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -2941,7 +3270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -2952,7 +3281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -2963,7 +3292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -2974,7 +3303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -2985,7 +3314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -2996,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -3007,7 +3336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -3018,7 +3347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -3029,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -3040,7 +3369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -3051,7 +3380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -3062,7 +3391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -3073,7 +3402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -3084,7 +3413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -3095,7 +3424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -3106,7 +3435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -3117,7 +3446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -3128,7 +3457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -3139,7 +3468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -3150,7 +3479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -3161,7 +3490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -3172,7 +3501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -3183,7 +3512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -3194,7 +3523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -3205,7 +3534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -3216,7 +3545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>133</v>
       </c>
@@ -3227,7 +3556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -3238,7 +3567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>135</v>
       </c>
@@ -3249,7 +3578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>136</v>
       </c>
@@ -3260,7 +3589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>137</v>
       </c>
@@ -3271,7 +3600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -3282,7 +3611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>139</v>
       </c>
@@ -3293,7 +3622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -3304,7 +3633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>141</v>
       </c>
@@ -3315,7 +3644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -3326,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>143</v>
       </c>
@@ -3337,7 +3666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>144</v>
       </c>
@@ -3348,7 +3677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>145</v>
       </c>
@@ -3359,7 +3688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>146</v>
       </c>
@@ -3370,7 +3699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -3381,7 +3710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>148</v>
       </c>
@@ -3392,7 +3721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -3403,7 +3732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -3414,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -3425,7 +3754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -3436,7 +3765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -3447,7 +3776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>155</v>
       </c>
@@ -3458,7 +3787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -3469,7 +3798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -3480,7 +3809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -3491,7 +3820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -3502,7 +3831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -3513,7 +3842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -3524,7 +3853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>162</v>
       </c>
@@ -3535,7 +3864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -3546,7 +3875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -3557,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -3568,7 +3897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -3579,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -3590,7 +3919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -3601,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>169</v>
       </c>
@@ -3612,7 +3941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>170</v>
       </c>
@@ -3623,7 +3952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>171</v>
       </c>
@@ -3634,7 +3963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -3645,7 +3974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -3656,7 +3985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>174</v>
       </c>
@@ -3667,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>175</v>
       </c>
@@ -3678,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>176</v>
       </c>
@@ -3689,7 +4018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>177</v>
       </c>
@@ -3700,7 +4029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -3711,7 +4040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -3722,7 +4051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -3733,7 +4062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -3744,7 +4073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -3755,7 +4084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -3766,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -3777,7 +4106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>185</v>
       </c>
@@ -3788,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>186</v>
       </c>
@@ -3799,7 +4128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -3810,7 +4139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>188</v>
       </c>
@@ -3821,7 +4150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>189</v>
       </c>
@@ -3832,7 +4161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -3843,7 +4172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -3854,7 +4183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -3865,7 +4194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>193</v>
       </c>
@@ -3876,7 +4205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -3887,7 +4216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -3898,7 +4227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>196</v>
       </c>
@@ -3909,7 +4238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>197</v>
       </c>
@@ -3920,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>198</v>
       </c>
@@ -3931,7 +4260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>199</v>
       </c>
@@ -3942,7 +4271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>200</v>
       </c>
@@ -3953,7 +4282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>201</v>
       </c>
@@ -3964,7 +4293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>202</v>
       </c>
@@ -3975,7 +4304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -3986,7 +4315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>204</v>
       </c>
@@ -3997,7 +4326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>205</v>
       </c>
@@ -4008,7 +4337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>206</v>
       </c>
@@ -4019,7 +4348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>207</v>
       </c>
@@ -4030,7 +4359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>208</v>
       </c>
@@ -4041,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -4052,7 +4381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>210</v>
       </c>
@@ -4063,7 +4392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>211</v>
       </c>
@@ -4074,7 +4403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>212</v>
       </c>
@@ -4085,7 +4414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>213</v>
       </c>
@@ -4096,7 +4425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -4107,7 +4436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>215</v>
       </c>
@@ -4118,7 +4447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -4129,7 +4458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>217</v>
       </c>
@@ -4140,7 +4469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>218</v>
       </c>
@@ -4151,7 +4480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>219</v>
       </c>
@@ -4162,7 +4491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>220</v>
       </c>
@@ -4173,7 +4502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>221</v>
       </c>
@@ -4184,7 +4513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>222</v>
       </c>
@@ -4195,7 +4524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>223</v>
       </c>
@@ -4206,7 +4535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>224</v>
       </c>
@@ -4217,7 +4546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>225</v>
       </c>
@@ -4228,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>226</v>
       </c>
@@ -4239,7 +4568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>227</v>
       </c>
@@ -4250,7 +4579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>228</v>
       </c>
@@ -4261,7 +4590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>229</v>
       </c>
@@ -4272,7 +4601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>230</v>
       </c>
@@ -4283,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>231</v>
       </c>
@@ -4294,7 +4623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>232</v>
       </c>
@@ -4305,7 +4634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>233</v>
       </c>
@@ -4316,7 +4645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>234</v>
       </c>
@@ -4327,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -4338,7 +4667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>236</v>
       </c>
@@ -4349,7 +4678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>237</v>
       </c>
@@ -4360,7 +4689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>238</v>
       </c>
@@ -4371,7 +4700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>239</v>
       </c>
@@ -4382,7 +4711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>240</v>
       </c>
@@ -4393,7 +4722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>241</v>
       </c>
@@ -4404,7 +4733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>242</v>
       </c>
@@ -4415,7 +4744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>243</v>
       </c>
@@ -4426,7 +4755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>244</v>
       </c>
@@ -4437,7 +4766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -4448,7 +4777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>246</v>
       </c>
@@ -4459,7 +4788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>247</v>
       </c>
@@ -4470,7 +4799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>248</v>
       </c>
@@ -4481,7 +4810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>249</v>
       </c>
@@ -4492,7 +4821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>250</v>
       </c>
@@ -4503,7 +4832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>251</v>
       </c>
@@ -4514,7 +4843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -4525,7 +4854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -4536,7 +4865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>254</v>
       </c>
@@ -4547,7 +4876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>255</v>
       </c>
@@ -4558,7 +4887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>256</v>
       </c>
@@ -4569,7 +4898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -4580,7 +4909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -4591,7 +4920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>259</v>
       </c>
@@ -4602,7 +4931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>260</v>
       </c>
@@ -4613,7 +4942,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>263</v>
       </c>
@@ -4624,7 +4953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>264</v>
       </c>
@@ -4635,7 +4964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>265</v>
       </c>
@@ -4646,7 +4975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>266</v>
       </c>
@@ -4657,7 +4986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -4668,7 +4997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>268</v>
       </c>
@@ -4679,7 +5008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -4690,7 +5019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>270</v>
       </c>
@@ -4701,7 +5030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>271</v>
       </c>
@@ -4712,7 +5041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -4723,7 +5052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>273</v>
       </c>
@@ -4734,7 +5063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -4745,7 +5074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>275</v>
       </c>
@@ -4756,7 +5085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>276</v>
       </c>
@@ -4767,7 +5096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>277</v>
       </c>
@@ -4778,7 +5107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>278</v>
       </c>
@@ -4789,7 +5118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>279</v>
       </c>
@@ -4800,7 +5129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>280</v>
       </c>
@@ -4811,7 +5140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>281</v>
       </c>
@@ -4822,7 +5151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>282</v>
       </c>
@@ -4833,7 +5162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>283</v>
       </c>
@@ -4844,7 +5173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>284</v>
       </c>
@@ -4855,7 +5184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>285</v>
       </c>
@@ -4866,7 +5195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>286</v>
       </c>
@@ -4877,7 +5206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>287</v>
       </c>
@@ -4888,7 +5217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>288</v>
       </c>
@@ -4899,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>289</v>
       </c>
@@ -4910,7 +5239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>290</v>
       </c>
@@ -4921,7 +5250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>291</v>
       </c>
@@ -4932,7 +5261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>292</v>
       </c>
@@ -4943,7 +5272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>293</v>
       </c>
@@ -4954,7 +5283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>294</v>
       </c>
@@ -4965,7 +5294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>295</v>
       </c>
@@ -4976,7 +5305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>296</v>
       </c>
@@ -4987,7 +5316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>297</v>
       </c>
@@ -4998,7 +5327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>298</v>
       </c>
@@ -5009,7 +5338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>299</v>
       </c>
@@ -5020,7 +5349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>300</v>
       </c>
@@ -5031,7 +5360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>301</v>
       </c>
@@ -5042,7 +5371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>302</v>
       </c>
@@ -5053,7 +5382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>303</v>
       </c>
@@ -5064,7 +5393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>304</v>
       </c>
@@ -5075,7 +5404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>305</v>
       </c>
@@ -5086,7 +5415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>306</v>
       </c>
@@ -5097,7 +5426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>307</v>
       </c>
@@ -5108,7 +5437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>308</v>
       </c>
@@ -5119,7 +5448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>309</v>
       </c>
@@ -5130,7 +5459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>310</v>
       </c>
@@ -5141,7 +5470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>311</v>
       </c>
@@ -5152,7 +5481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>312</v>
       </c>
@@ -5163,7 +5492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>313</v>
       </c>
@@ -5174,7 +5503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>314</v>
       </c>
@@ -5185,7 +5514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>315</v>
       </c>
@@ -5196,7 +5525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>316</v>
       </c>
@@ -5207,7 +5536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>317</v>
       </c>
@@ -5218,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>318</v>
       </c>
@@ -5229,7 +5558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>319</v>
       </c>
@@ -5240,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -5251,7 +5580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -5262,7 +5591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>322</v>
       </c>
@@ -5273,7 +5602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>323</v>
       </c>
@@ -5284,7 +5613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>324</v>
       </c>
@@ -5295,7 +5624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>325</v>
       </c>
@@ -5306,7 +5635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>326</v>
       </c>
@@ -5317,7 +5646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>327</v>
       </c>
@@ -5328,7 +5657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>328</v>
       </c>
@@ -5339,7 +5668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>329</v>
       </c>
@@ -5350,7 +5679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>330</v>
       </c>
@@ -5361,7 +5690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>331</v>
       </c>
@@ -5372,7 +5701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>332</v>
       </c>
@@ -5383,7 +5712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>333</v>
       </c>
@@ -5394,7 +5723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>334</v>
       </c>
@@ -5405,7 +5734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>335</v>
       </c>
@@ -5416,7 +5745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>336</v>
       </c>
@@ -5427,7 +5756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>337</v>
       </c>
@@ -5438,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>338</v>
       </c>
@@ -5449,7 +5778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>339</v>
       </c>
@@ -5460,7 +5789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>340</v>
       </c>
@@ -5471,7 +5800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>341</v>
       </c>
@@ -5482,7 +5811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>342</v>
       </c>
@@ -5493,7 +5822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>343</v>
       </c>
@@ -5504,7 +5833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>344</v>
       </c>
@@ -5515,7 +5844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>345</v>
       </c>
@@ -5526,7 +5855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>346</v>
       </c>
@@ -5537,7 +5866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>347</v>
       </c>
@@ -5548,7 +5877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>348</v>
       </c>
@@ -5559,7 +5888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>349</v>
       </c>
@@ -5570,7 +5899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>350</v>
       </c>
@@ -5581,7 +5910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>351</v>
       </c>
@@ -5592,7 +5921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>352</v>
       </c>
@@ -5603,7 +5932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>353</v>
       </c>
@@ -5614,7 +5943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>354</v>
       </c>
@@ -5625,7 +5954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>355</v>
       </c>
@@ -5636,7 +5965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>356</v>
       </c>
@@ -5647,7 +5976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>357</v>
       </c>
@@ -5658,7 +5987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>358</v>
       </c>
@@ -5669,7 +5998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>359</v>
       </c>
@@ -5680,7 +6009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>360</v>
       </c>
@@ -5691,7 +6020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>361</v>
       </c>
@@ -5702,7 +6031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>362</v>
       </c>
@@ -5713,7 +6042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>363</v>
       </c>
@@ -5724,7 +6053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>364</v>
       </c>
@@ -5735,7 +6064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>365</v>
       </c>
@@ -5746,7 +6075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>366</v>
       </c>
@@ -5757,7 +6086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>367</v>
       </c>
@@ -5768,7 +6097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>368</v>
       </c>
@@ -5779,7 +6108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>369</v>
       </c>
@@ -5790,7 +6119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>370</v>
       </c>
@@ -5801,7 +6130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>371</v>
       </c>
@@ -5812,7 +6141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>372</v>
       </c>
@@ -5823,7 +6152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>373</v>
       </c>
@@ -5834,7 +6163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>374</v>
       </c>
@@ -5845,7 +6174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>375</v>
       </c>
@@ -5856,7 +6185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>376</v>
       </c>
@@ -5867,7 +6196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>377</v>
       </c>
@@ -5878,7 +6207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>378</v>
       </c>
@@ -5889,7 +6218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>379</v>
       </c>
@@ -5900,7 +6229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>380</v>
       </c>
@@ -5911,7 +6240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>381</v>
       </c>
@@ -5922,7 +6251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>382</v>
       </c>
@@ -5933,7 +6262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>383</v>
       </c>
@@ -5944,7 +6273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>384</v>
       </c>
@@ -5955,7 +6284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>385</v>
       </c>
@@ -5966,7 +6295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>386</v>
       </c>
@@ -5977,7 +6306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>387</v>
       </c>
@@ -5988,7 +6317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>388</v>
       </c>
@@ -5999,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>389</v>
       </c>
@@ -6010,7 +6339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>390</v>
       </c>
@@ -6021,7 +6350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>391</v>
       </c>
@@ -6032,7 +6361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>392</v>
       </c>
@@ -6043,7 +6372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>393</v>
       </c>
@@ -6054,7 +6383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>394</v>
       </c>
@@ -6065,7 +6394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>395</v>
       </c>
@@ -6076,7 +6405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>396</v>
       </c>
@@ -6087,7 +6416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>397</v>
       </c>
@@ -6098,7 +6427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>398</v>
       </c>
@@ -6109,7 +6438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>399</v>
       </c>
@@ -6120,7 +6449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>400</v>
       </c>
@@ -6131,7 +6460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>401</v>
       </c>
@@ -6142,7 +6471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>402</v>
       </c>
@@ -6153,7 +6482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>403</v>
       </c>
@@ -6164,7 +6493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>404</v>
       </c>
@@ -6175,7 +6504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>405</v>
       </c>
@@ -6186,7 +6515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>406</v>
       </c>
@@ -6197,7 +6526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>407</v>
       </c>
@@ -6208,7 +6537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>408</v>
       </c>
@@ -6219,7 +6548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -6230,7 +6559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>410</v>
       </c>
@@ -6241,7 +6570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>411</v>
       </c>
@@ -6252,7 +6581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>412</v>
       </c>
@@ -6263,7 +6592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>413</v>
       </c>
@@ -6274,7 +6603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>414</v>
       </c>
@@ -6285,7 +6614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>415</v>
       </c>
@@ -6296,7 +6625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>416</v>
       </c>
@@ -6307,7 +6636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>417</v>
       </c>
@@ -6318,7 +6647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>418</v>
       </c>
@@ -6329,7 +6658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>419</v>
       </c>
@@ -6340,7 +6669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>420</v>
       </c>
@@ -6351,7 +6680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>421</v>
       </c>
@@ -6362,7 +6691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>422</v>
       </c>
@@ -6373,7 +6702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>423</v>
       </c>
@@ -6384,7 +6713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>424</v>
       </c>
@@ -6395,7 +6724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>425</v>
       </c>
@@ -6406,7 +6735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>426</v>
       </c>
@@ -6417,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>427</v>
       </c>
@@ -6428,7 +6757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>428</v>
       </c>
@@ -6439,7 +6768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>429</v>
       </c>
@@ -6450,7 +6779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>430</v>
       </c>
@@ -6461,7 +6790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>431</v>
       </c>
@@ -6472,7 +6801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>432</v>
       </c>
@@ -6483,7 +6812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>433</v>
       </c>
@@ -6494,7 +6823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>434</v>
       </c>
@@ -6505,7 +6834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>435</v>
       </c>
@@ -6516,7 +6845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>436</v>
       </c>
@@ -6527,7 +6856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>437</v>
       </c>
@@ -6538,7 +6867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>438</v>
       </c>
@@ -6549,7 +6878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>439</v>
       </c>
@@ -6560,7 +6889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>440</v>
       </c>
@@ -6571,7 +6900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>441</v>
       </c>
@@ -6582,7 +6911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>442</v>
       </c>
@@ -6593,7 +6922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>443</v>
       </c>
@@ -6604,7 +6933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>444</v>
       </c>
@@ -6615,7 +6944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>445</v>
       </c>
@@ -6626,7 +6955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>446</v>
       </c>
@@ -6637,7 +6966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>447</v>
       </c>
@@ -6648,7 +6977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>448</v>
       </c>
@@ -6659,7 +6988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>449</v>
       </c>
@@ -6670,7 +6999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>450</v>
       </c>
@@ -6681,7 +7010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>451</v>
       </c>
@@ -6692,7 +7021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>452</v>
       </c>
@@ -6703,7 +7032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>453</v>
       </c>
@@ -6714,7 +7043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>454</v>
       </c>
@@ -6725,7 +7054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>455</v>
       </c>
@@ -6736,7 +7065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>456</v>
       </c>
@@ -6747,7 +7076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>457</v>
       </c>
@@ -6758,7 +7087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>458</v>
       </c>
@@ -6769,7 +7098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>459</v>
       </c>
@@ -6780,7 +7109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>460</v>
       </c>
@@ -6791,7 +7120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>461</v>
       </c>
@@ -6802,7 +7131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>462</v>
       </c>
@@ -6813,7 +7142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>463</v>
       </c>
@@ -6824,7 +7153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>464</v>
       </c>
@@ -6835,7 +7164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>465</v>
       </c>
@@ -6846,7 +7175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>466</v>
       </c>
@@ -6857,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>467</v>
       </c>
@@ -6868,7 +7197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>468</v>
       </c>
@@ -6879,7 +7208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>469</v>
       </c>
@@ -6890,7 +7219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>470</v>
       </c>
@@ -6901,7 +7230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>471</v>
       </c>
@@ -6912,7 +7241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>472</v>
       </c>
@@ -6923,7 +7252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>473</v>
       </c>
@@ -6934,7 +7263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>474</v>
       </c>
@@ -6945,7 +7274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>475</v>
       </c>
@@ -6956,7 +7285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>476</v>
       </c>
@@ -6967,7 +7296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>477</v>
       </c>
@@ -6978,7 +7307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>478</v>
       </c>
@@ -6989,7 +7318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>479</v>
       </c>
@@ -7000,7 +7329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>480</v>
       </c>
@@ -7011,7 +7340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>481</v>
       </c>
@@ -7022,7 +7351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>482</v>
       </c>
@@ -7033,7 +7362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>483</v>
       </c>
@@ -7044,7 +7373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>484</v>
       </c>
@@ -7055,7 +7384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>485</v>
       </c>
@@ -7066,7 +7395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>486</v>
       </c>
@@ -7077,7 +7406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>487</v>
       </c>
@@ -7088,7 +7417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>488</v>
       </c>
@@ -7099,7 +7428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>489</v>
       </c>
@@ -7110,7 +7439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>490</v>
       </c>
@@ -7121,7 +7450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>491</v>
       </c>
@@ -7132,7 +7461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>492</v>
       </c>
@@ -7143,7 +7472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>493</v>
       </c>
@@ -7154,7 +7483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>494</v>
       </c>
@@ -7165,7 +7494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>495</v>
       </c>
@@ -7176,7 +7505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>496</v>
       </c>
@@ -7187,7 +7516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>497</v>
       </c>
@@ -7198,7 +7527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>498</v>
       </c>
@@ -7209,7 +7538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>499</v>
       </c>
@@ -7220,7 +7549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>500</v>
       </c>
@@ -7231,7 +7560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>501</v>
       </c>
@@ -7242,7 +7571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>502</v>
       </c>
@@ -7253,7 +7582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>503</v>
       </c>
@@ -7264,7 +7593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>504</v>
       </c>
@@ -7275,7 +7604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>505</v>
       </c>
@@ -7286,7 +7615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>506</v>
       </c>
@@ -7297,7 +7626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>507</v>
       </c>
@@ -7308,7 +7637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>508</v>
       </c>
@@ -7319,7 +7648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>509</v>
       </c>
@@ -7330,7 +7659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>510</v>
       </c>
@@ -7341,7 +7670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>511</v>
       </c>
@@ -7352,7 +7681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>512</v>
       </c>
@@ -7363,7 +7692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>513</v>
       </c>
@@ -7374,7 +7703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>514</v>
       </c>
@@ -7385,7 +7714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>515</v>
       </c>
@@ -7396,7 +7725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>516</v>
       </c>
@@ -7407,7 +7736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>517</v>
       </c>
@@ -7418,7 +7747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>518</v>
       </c>
@@ -7429,7 +7758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>519</v>
       </c>
@@ -7440,7 +7769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>520</v>
       </c>
@@ -7451,7 +7780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>521</v>
       </c>
@@ -7462,7 +7791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>522</v>
       </c>
@@ -7473,7 +7802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>523</v>
       </c>
@@ -7484,7 +7813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>524</v>
       </c>
@@ -7495,7 +7824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>525</v>
       </c>
@@ -7506,7 +7835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>526</v>
       </c>
@@ -7517,7 +7846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>527</v>
       </c>
@@ -7528,7 +7857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>528</v>
       </c>
@@ -7539,7 +7868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>529</v>
       </c>
@@ -7550,7 +7879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>530</v>
       </c>
@@ -7561,7 +7890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>531</v>
       </c>
@@ -7572,7 +7901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>532</v>
       </c>
@@ -7583,7 +7912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>533</v>
       </c>
@@ -7594,7 +7923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>534</v>
       </c>
@@ -7605,7 +7934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>535</v>
       </c>
@@ -7616,7 +7945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>536</v>
       </c>
@@ -7627,7 +7956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>537</v>
       </c>
@@ -7638,7 +7967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>538</v>
       </c>
@@ -7649,7 +7978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>539</v>
       </c>
@@ -7660,7 +7989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>540</v>
       </c>
@@ -7671,7 +8000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>541</v>
       </c>
@@ -7682,7 +8011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>542</v>
       </c>
@@ -7693,7 +8022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>543</v>
       </c>
@@ -7704,7 +8033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>544</v>
       </c>
@@ -7715,7 +8044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>545</v>
       </c>
@@ -7726,7 +8055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>546</v>
       </c>
@@ -7737,7 +8066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>547</v>
       </c>
@@ -7748,7 +8077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>548</v>
       </c>
@@ -7759,7 +8088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>549</v>
       </c>
@@ -7770,7 +8099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>550</v>
       </c>
@@ -7781,7 +8110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>551</v>
       </c>
@@ -7792,7 +8121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>552</v>
       </c>
@@ -7803,7 +8132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>553</v>
       </c>
@@ -7814,7 +8143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>554</v>
       </c>
@@ -7825,7 +8154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>555</v>
       </c>
@@ -7836,7 +8165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>556</v>
       </c>
@@ -7847,7 +8176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>557</v>
       </c>
@@ -7858,7 +8187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>558</v>
       </c>
@@ -7869,7 +8198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>559</v>
       </c>
@@ -7880,7 +8209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>560</v>
       </c>
@@ -7891,7 +8220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>561</v>
       </c>
@@ -7902,7 +8231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>562</v>
       </c>
@@ -7913,7 +8242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>563</v>
       </c>
@@ -7924,7 +8253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>564</v>
       </c>
@@ -7935,7 +8264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>565</v>
       </c>
@@ -7946,7 +8275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>566</v>
       </c>
@@ -7957,7 +8286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>567</v>
       </c>
@@ -7968,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>568</v>
       </c>
@@ -7979,7 +8308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>569</v>
       </c>
@@ -7990,7 +8319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>570</v>
       </c>
@@ -8001,7 +8330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>571</v>
       </c>
@@ -8012,7 +8341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>572</v>
       </c>
@@ -8023,7 +8352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>573</v>
       </c>
@@ -8034,7 +8363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>574</v>
       </c>
@@ -8045,7 +8374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>575</v>
       </c>
@@ -8056,7 +8385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>576</v>
       </c>
@@ -8067,7 +8396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>577</v>
       </c>
@@ -8078,7 +8407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>578</v>
       </c>
@@ -8089,7 +8418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>579</v>
       </c>
@@ -8100,7 +8429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>580</v>
       </c>
@@ -8111,7 +8440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>581</v>
       </c>
@@ -8122,7 +8451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>582</v>
       </c>
@@ -8133,7 +8462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>583</v>
       </c>
@@ -8144,7 +8473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>584</v>
       </c>
@@ -8155,7 +8484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>585</v>
       </c>
@@ -8166,7 +8495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>586</v>
       </c>
@@ -8177,7 +8506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>587</v>
       </c>
@@ -8188,7 +8517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>588</v>
       </c>
@@ -8199,7 +8528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>589</v>
       </c>
@@ -8210,7 +8539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>590</v>
       </c>
@@ -8221,7 +8550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>591</v>
       </c>
@@ -8232,7 +8561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>592</v>
       </c>
@@ -8243,7 +8572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>593</v>
       </c>
@@ -8254,7 +8583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>594</v>
       </c>
@@ -8265,7 +8594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>595</v>
       </c>
@@ -8276,7 +8605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>596</v>
       </c>
@@ -8287,7 +8616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>597</v>
       </c>
@@ -8298,7 +8627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>598</v>
       </c>
@@ -8309,7 +8638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>599</v>
       </c>
@@ -8320,7 +8649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>600</v>
       </c>
@@ -8331,7 +8660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>601</v>
       </c>
@@ -8342,7 +8671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>602</v>
       </c>
@@ -8353,7 +8682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>603</v>
       </c>
@@ -8364,7 +8693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>604</v>
       </c>
@@ -8375,7 +8704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>605</v>
       </c>
@@ -8386,7 +8715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>606</v>
       </c>
@@ -8397,7 +8726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>607</v>
       </c>
@@ -8408,7 +8737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>608</v>
       </c>
@@ -8419,7 +8748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>609</v>
       </c>
@@ -8430,7 +8759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>610</v>
       </c>
@@ -8441,7 +8770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>611</v>
       </c>
@@ -8452,7 +8781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>612</v>
       </c>
@@ -8463,7 +8792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>613</v>
       </c>
@@ -8474,7 +8803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>614</v>
       </c>
@@ -8485,7 +8814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>615</v>
       </c>
@@ -8496,7 +8825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>616</v>
       </c>
@@ -8507,7 +8836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>617</v>
       </c>
@@ -8518,7 +8847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>618</v>
       </c>
@@ -8529,7 +8858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>619</v>
       </c>
@@ -8540,7 +8869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>620</v>
       </c>
@@ -8551,7 +8880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>621</v>
       </c>
@@ -8562,7 +8891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>622</v>
       </c>
@@ -8573,7 +8902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>623</v>
       </c>
@@ -8584,7 +8913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>624</v>
       </c>
@@ -8595,7 +8924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>625</v>
       </c>
@@ -8606,7 +8935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>626</v>
       </c>
@@ -8617,7 +8946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>627</v>
       </c>
@@ -8628,7 +8957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>628</v>
       </c>
@@ -8639,7 +8968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>629</v>
       </c>
@@ -8650,7 +8979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>630</v>
       </c>
@@ -8661,7 +8990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>631</v>
       </c>
@@ -8672,7 +9001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>632</v>
       </c>
@@ -8683,7 +9012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>633</v>
       </c>
@@ -8694,7 +9023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>634</v>
       </c>
@@ -8705,7 +9034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>635</v>
       </c>
@@ -8716,7 +9045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>636</v>
       </c>
@@ -8727,7 +9056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>637</v>
       </c>
@@ -8738,7 +9067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>638</v>
       </c>
@@ -8749,7 +9078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>639</v>
       </c>
@@ -8760,7 +9089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>640</v>
       </c>
@@ -8771,7 +9100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>641</v>
       </c>
@@ -8782,7 +9111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>642</v>
       </c>
@@ -8793,7 +9122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>643</v>
       </c>
@@ -8804,7 +9133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>644</v>
       </c>
@@ -8815,7 +9144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>645</v>
       </c>
@@ -8826,7 +9155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>646</v>
       </c>
@@ -8837,7 +9166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>647</v>
       </c>
@@ -8848,7 +9177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>648</v>
       </c>
@@ -8859,7 +9188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>649</v>
       </c>
@@ -8870,7 +9199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>650</v>
       </c>
@@ -8881,7 +9210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>651</v>
       </c>
@@ -8892,7 +9221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>652</v>
       </c>
@@ -8903,7 +9232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>653</v>
       </c>
@@ -8914,7 +9243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>654</v>
       </c>
@@ -8925,7 +9254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>655</v>
       </c>
@@ -8936,7 +9265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>656</v>
       </c>
@@ -8947,7 +9276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>657</v>
       </c>
@@ -8958,7 +9287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>658</v>
       </c>
@@ -8969,7 +9298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>659</v>
       </c>
@@ -8980,7 +9309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>660</v>
       </c>
@@ -8991,7 +9320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>661</v>
       </c>
@@ -9002,7 +9331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>662</v>
       </c>
@@ -9013,7 +9342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>663</v>
       </c>
@@ -9024,7 +9353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>664</v>
       </c>
@@ -9035,7 +9364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>665</v>
       </c>
@@ -9046,7 +9375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>666</v>
       </c>
@@ -9057,7 +9386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>667</v>
       </c>
@@ -9068,7 +9397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>668</v>
       </c>
@@ -9079,7 +9408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>669</v>
       </c>
@@ -9090,7 +9419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>670</v>
       </c>
@@ -9101,7 +9430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>671</v>
       </c>
@@ -9112,7 +9441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>672</v>
       </c>
@@ -9123,7 +9452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>673</v>
       </c>
@@ -9134,7 +9463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>674</v>
       </c>
@@ -9145,7 +9474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>675</v>
       </c>
@@ -9156,7 +9485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>676</v>
       </c>
@@ -9167,7 +9496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>677</v>
       </c>
@@ -9178,7 +9507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>678</v>
       </c>
@@ -9189,7 +9518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>679</v>
       </c>
@@ -9200,7 +9529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>680</v>
       </c>
@@ -9211,7 +9540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>681</v>
       </c>
@@ -9222,7 +9551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>682</v>
       </c>
@@ -9233,7 +9562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>683</v>
       </c>
@@ -9244,7 +9573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>684</v>
       </c>
@@ -9255,7 +9584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>685</v>
       </c>
@@ -9266,7 +9595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>686</v>
       </c>
@@ -9277,7 +9606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>687</v>
       </c>
@@ -9288,7 +9617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>688</v>
       </c>
@@ -9299,7 +9628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>689</v>
       </c>
@@ -9310,7 +9639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>690</v>
       </c>
@@ -9321,7 +9650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>691</v>
       </c>
@@ -9332,7 +9661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>692</v>
       </c>
@@ -9343,7 +9672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>693</v>
       </c>
@@ -9354,7 +9683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>694</v>
       </c>
@@ -9365,7 +9694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>695</v>
       </c>
@@ -9376,7 +9705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>696</v>
       </c>
@@ -9387,7 +9716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>697</v>
       </c>
@@ -9398,7 +9727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>698</v>
       </c>
@@ -9409,7 +9738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>699</v>
       </c>
@@ -9420,7 +9749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>700</v>
       </c>
@@ -9431,7 +9760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>701</v>
       </c>
@@ -9442,7 +9771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>702</v>
       </c>
@@ -9453,7 +9782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>703</v>
       </c>
@@ -9464,7 +9793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>704</v>
       </c>
@@ -9475,7 +9804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>705</v>
       </c>
@@ -9486,7 +9815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>706</v>
       </c>
@@ -9497,7 +9826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>707</v>
       </c>
@@ -9508,7 +9837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>708</v>
       </c>
@@ -9519,7 +9848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>709</v>
       </c>
@@ -9530,7 +9859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>710</v>
       </c>
@@ -9541,7 +9870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>711</v>
       </c>
@@ -9552,7 +9881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>712</v>
       </c>
@@ -9563,7 +9892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>713</v>
       </c>
@@ -9574,7 +9903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>714</v>
       </c>
@@ -9585,7 +9914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>715</v>
       </c>
@@ -9596,7 +9925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>716</v>
       </c>
@@ -9607,7 +9936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>717</v>
       </c>
@@ -9618,7 +9947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>718</v>
       </c>
@@ -9629,7 +9958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>719</v>
       </c>
@@ -9640,7 +9969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>720</v>
       </c>
@@ -9651,7 +9980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>721</v>
       </c>
@@ -9662,7 +9991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>722</v>
       </c>
@@ -9673,7 +10002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>723</v>
       </c>
@@ -9684,7 +10013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>724</v>
       </c>
@@ -9695,7 +10024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>725</v>
       </c>
@@ -9706,7 +10035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>726</v>
       </c>
@@ -9717,7 +10046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>727</v>
       </c>
@@ -9728,7 +10057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>728</v>
       </c>
@@ -9739,7 +10068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>729</v>
       </c>
@@ -9750,7 +10079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>730</v>
       </c>
@@ -9761,7 +10090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>731</v>
       </c>
@@ -9772,7 +10101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>732</v>
       </c>
@@ -9783,7 +10112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>733</v>
       </c>
@@ -9794,7 +10123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>734</v>
       </c>
@@ -9805,7 +10134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="680">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>735</v>
       </c>
@@ -9816,7 +10145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>736</v>
       </c>
@@ -9827,7 +10156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>737</v>
       </c>
@@ -9838,7 +10167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="683">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>738</v>
       </c>
@@ -9849,7 +10178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="684">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>739</v>
       </c>
@@ -9860,7 +10189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>740</v>
       </c>
@@ -9871,7 +10200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>741</v>
       </c>
@@ -9882,7 +10211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="687">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>742</v>
       </c>
@@ -9893,7 +10222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>744</v>
       </c>
@@ -9904,7 +10233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>745</v>
       </c>
@@ -9915,7 +10244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>746</v>
       </c>
@@ -9926,7 +10255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>747</v>
       </c>
@@ -9937,7 +10266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="692">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>748</v>
       </c>
@@ -9948,7 +10277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>749</v>
       </c>
@@ -9959,7 +10288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>750</v>
       </c>
@@ -9970,7 +10299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>751</v>
       </c>
@@ -9981,7 +10310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="696">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>752</v>
       </c>
@@ -9992,7 +10321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="697">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>753</v>
       </c>
@@ -10003,7 +10332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="698">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>754</v>
       </c>
@@ -10014,7 +10343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="699">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>755</v>
       </c>
@@ -10025,7 +10354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>756</v>
       </c>
@@ -10036,7 +10365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>757</v>
       </c>
@@ -10048,6 +10377,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EulerBenchmark.xlsx
+++ b/EulerBenchmark.xlsx
@@ -2667,7 +2667,7 @@
       <x:selection activeCell="F5" sqref="F5"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.85125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="10.561875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="2" width="9.85125" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.425781" style="0" customWidth="1"/>
@@ -2699,7 +2699,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0.0079</x:v>
+        <x:v>0.006392000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>100.5651</x:v>
+        <x:v>100.26056800000002</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>30.9171</x:v>
+        <x:v>22.406500000000005</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>275.0704</x:v>
+        <x:v>532.208956</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>18.1341</x:v>
+        <x:v>28.2278</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,7 +3371,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>449.9322</x:v>
+        <x:v>538.609592</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>18.1691</x:v>
+        <x:v>27.207367999999995</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5569,7 +5569,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>539.0043</x:v>
+        <x:v>404.20695600000016</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:6" x14ac:dyDescent="0.25">

--- a/EulerBenchmark.xlsx
+++ b/EulerBenchmark.xlsx
@@ -3,9 +3,9 @@
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programme\IntelliJ Projects\ProjectEulerAnswers\"/>
+      <x15ac:absPath url="G:\Programme\IntelliJ Projects\ProjectEulerAnswers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5A520D-B008-4857-A246-989041686D6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1057">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1062">
   <x:si>
     <x:t>Problem</x:t>
   </x:si>
@@ -38,7 +38,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>0,03476</x:t>
+    <x:t>0,02794</x:t>
   </x:si>
   <x:si>
     <x:t>/</x:t>
@@ -47,282 +47,297 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>0,001516</x:t>
+    <x:t>0,003164</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>0,194464</x:t>
+    <x:t>0,15354</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>21,786308</x:t>
+    <x:t>19,673424</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>0,001224</x:t>
+    <x:t>0,000864</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>0,14764</x:t>
+    <x:t>0,002528</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>15,076888</x:t>
+    <x:t>10,025524</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>0,59372</x:t>
+    <x:t>0,502768</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>7,504296</x:t>
+    <x:t>7,131552</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>11,981</x:t>
+    <x:t>11,130692</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>0,12638</x:t>
+    <x:t>0,107332</x:t>
   </x:si>
   <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>582,465092</x:t>
+    <x:t>532,697012</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>0,021</x:t>
+    <x:t>0,022552</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>26,319512</x:t>
+    <x:t>24,404604</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>0,052644</x:t>
+    <x:t>0,046652</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>0,26958</x:t>
+    <x:t>0,15052</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>0,725724</x:t>
+    <x:t>0,623452</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>0,007324</x:t>
+    <x:t>0,009836</x:t>
   </x:si>
   <x:si>
     <x:t>19</x:t>
   </x:si>
   <x:si>
-    <x:t>0,575944</x:t>
+    <x:t>0,385692</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>0,086036</x:t>
+    <x:t>0,103016</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>7,784816</x:t>
+    <x:t>6,84472</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>4,71964</x:t>
+    <x:t>3,539332</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>46,68294</x:t>
+    <x:t>42,685716</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
   </x:si>
   <x:si>
-    <x:t>269,73558</x:t>
+    <x:t>250,074444</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>121,007828</x:t>
+    <x:t>106,996432</x:t>
   </x:si>
   <x:si>
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>16,706688</x:t>
+    <x:t>15,504084</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>51,971624</x:t>
+    <x:t>43,326764</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>0,042744</x:t>
+    <x:t>0,044584</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>9,946792</x:t>
+    <x:t>8,51788</x:t>
   </x:si>
   <x:si>
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>65,867824</x:t>
+    <x:t>61,865328</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>9,010712</x:t>
+    <x:t>8,52518</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>780,967364</x:t>
+    <x:t>737,8128</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
   </x:si>
   <x:si>
-    <x:t>0,89018</x:t>
+    <x:t>0,862296</x:t>
   </x:si>
   <x:si>
     <x:t>34</x:t>
   </x:si>
   <x:si>
-    <x:t>86,938244</x:t>
+    <x:t>84,488592</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>159,599312</x:t>
+    <x:t>140,97648</x:t>
   </x:si>
   <x:si>
     <x:t>36</x:t>
   </x:si>
   <x:si>
-    <x:t>0,95656</x:t>
+    <x:t>0,721092</x:t>
   </x:si>
   <x:si>
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>7,31304</x:t>
+    <x:t>6,32334</x:t>
   </x:si>
   <x:si>
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>181,1395</x:t>
+    <x:t>154,757992</x:t>
   </x:si>
   <x:si>
     <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>257,78034</x:t>
+    <x:t>250,227308</x:t>
   </x:si>
   <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>2,930656</x:t>
+    <x:t>2,82046</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>3,173292</x:t>
+    <x:t>2,936604</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
   </x:si>
   <x:si>
-    <x:t>0,772276</x:t>
+    <x:t>0,697452</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
   </x:si>
   <x:si>
-    <x:t>947,311136</x:t>
+    <x:t>865,391272</x:t>
   </x:si>
   <x:si>
     <x:t>44</x:t>
   </x:si>
   <x:si>
-    <x:t>71,805008</x:t>
+    <x:t>68,236948</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>1,381204</x:t>
+    <x:t>1,282496</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
   </x:si>
   <x:si>
+    <x:t>6,223508</x:t>
+  </x:si>
+  <x:si>
     <x:t>47</x:t>
   </x:si>
   <x:si>
+    <x:t>1318,06576</x:t>
+  </x:si>
+  <x:si>
     <x:t>48</x:t>
   </x:si>
   <x:si>
+    <x:t>6,799584</x:t>
+  </x:si>
+  <x:si>
     <x:t>49</x:t>
   </x:si>
   <x:si>
+    <x:t>80,962464</x:t>
+  </x:si>
+  <x:si>
     <x:t>50</x:t>
   </x:si>
   <x:si>
+    <x:t>7,681744</x:t>
+  </x:si>
+  <x:si>
     <x:t>51</x:t>
   </x:si>
   <x:si>
@@ -374,7 +389,7 @@
     <x:t>67</x:t>
   </x:si>
   <x:si>
-    <x:t>0,226708</x:t>
+    <x:t>0,196936</x:t>
   </x:si>
   <x:si>
     <x:t>68</x:t>
@@ -383,7 +398,7 @@
     <x:t>69</x:t>
   </x:si>
   <x:si>
-    <x:t>735,55818</x:t>
+    <x:t>688,371848</x:t>
   </x:si>
   <x:si>
     <x:t>70</x:t>
@@ -407,7 +422,7 @@
     <x:t>76</x:t>
   </x:si>
   <x:si>
-    <x:t>0,206568</x:t>
+    <x:t>0,071656</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
@@ -482,7 +497,7 @@
     <x:t>100</x:t>
   </x:si>
   <x:si>
-    <x:t>0,002868</x:t>
+    <x:t>0,001256</x:t>
   </x:si>
   <x:si>
     <x:t>101</x:t>
@@ -803,7 +818,7 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>1964,5478</x:t>
+    <x:t>1812,68648</x:t>
   </x:si>
   <x:si>
     <x:t>207</x:t>
@@ -2246,7 +2261,7 @@
     <x:t>686</x:t>
   </x:si>
   <x:si>
-    <x:t>259,588512</x:t>
+    <x:t>236,972092</x:t>
   </x:si>
   <x:si>
     <x:t>687</x:t>
@@ -2291,7 +2306,7 @@
     <x:t>700</x:t>
   </x:si>
   <x:si>
-    <x:t>0,010136</x:t>
+    <x:t>0,009588</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -3245,10 +3260,10 @@
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+    <x:ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    <x:ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
@@ -3549,7 +3564,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.85125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="10.561875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1" collapsed="1"/>
   </x:cols>
@@ -3576,7 +3591,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>0.006507999999999999</x:v>
+        <x:v>0.007068000000000002</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
@@ -3590,7 +3605,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>0.00047599999999999997</x:v>
+        <x:v>0.0004600000000000001</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>6</x:v>
@@ -3604,7 +3619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>0.07377600000000002</x:v>
+        <x:v>0.152264</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>6</x:v>
@@ -3618,7 +3633,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>116.85706399999998</x:v>
+        <x:v>71.669984</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>6</x:v>
@@ -3632,7 +3647,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>0.004523999999999999</x:v>
+        <x:v>0.0015839999999999993</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>6</x:v>
@@ -3646,7 +3661,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>0.000332</x:v>
+        <x:v>0.00033999999999999997</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>6</x:v>
@@ -3660,7 +3675,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>61.454236</x:v>
+        <x:v>39.558451999999996</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>6</x:v>
@@ -3674,7 +3689,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>0.262864</x:v>
+        <x:v>0.26608</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>6</x:v>
@@ -3688,7 +3703,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>77.91659999999997</x:v>
+        <x:v>48.292132</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>6</x:v>
@@ -3702,7 +3717,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>68.00416799999999</x:v>
+        <x:v>46.89009199999999</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>6</x:v>
@@ -3715,8 +3730,8 @@
       <x:c r="B12" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C12" s="0" t="n">
+        <x:v>0.021712</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>6</x:v>
@@ -3729,8 +3744,8 @@
       <x:c r="B13" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C13" s="0" t="n">
+        <x:v>597.6769360000001</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>6</x:v>
@@ -3743,8 +3758,8 @@
       <x:c r="B14" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C14" s="0" t="n">
+        <x:v>0.008788</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>6</x:v>
@@ -3757,8 +3772,8 @@
       <x:c r="B15" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C15" s="0" t="n">
+        <x:v>114.08627600000001</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>6</x:v>
@@ -3771,8 +3786,8 @@
       <x:c r="B16" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C16" s="0" t="n">
+        <x:v>0.003912</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>6</x:v>
@@ -3785,8 +3800,8 @@
       <x:c r="B17" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C17" s="0" t="n">
+        <x:v>0.0123</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>6</x:v>
@@ -3799,8 +3814,8 @@
       <x:c r="B18" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C18" s="0" t="n">
+        <x:v>0.13113200000000005</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>6</x:v>
@@ -3813,8 +3828,8 @@
       <x:c r="B19" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C19" s="0" t="n">
+        <x:v>0.001668</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>6</x:v>
@@ -3827,8 +3842,8 @@
       <x:c r="B20" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C20" s="0" t="n">
+        <x:v>0.14845999999999995</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>6</x:v>
@@ -3841,8 +3856,8 @@
       <x:c r="B21" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C21" s="0" t="n">
+        <x:v>0.016503999999999998</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>6</x:v>
@@ -3855,8 +3870,8 @@
       <x:c r="B22" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C22" s="0" t="n">
+        <x:v>8.941719999999998</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>6</x:v>
@@ -3869,8 +3884,8 @@
       <x:c r="B23" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C23" s="0" t="n">
+        <x:v>6.982604</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
         <x:v>6</x:v>
@@ -3883,8 +3898,8 @@
       <x:c r="B24" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C24" s="0" t="n">
+        <x:v>257.41610399999996</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>6</x:v>
@@ -3897,8 +3912,8 @@
       <x:c r="B25" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C25" s="0" t="n">
+        <x:v>616.3486680000001</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>6</x:v>
@@ -3911,8 +3926,8 @@
       <x:c r="B26" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C26" s="0" t="n">
+        <x:v>45.356212</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
         <x:v>6</x:v>
@@ -3925,8 +3940,8 @@
       <x:c r="B27" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C27" s="0" t="n">
+        <x:v>9.55706</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>6</x:v>
@@ -3939,8 +3954,8 @@
       <x:c r="B28" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C28" s="0" t="n">
+        <x:v>166.213408</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>6</x:v>
@@ -3953,8 +3968,8 @@
       <x:c r="B29" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C29" s="0" t="n">
+        <x:v>0.006887999999999998</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>6</x:v>
@@ -3967,8 +3982,8 @@
       <x:c r="B30" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C30" s="0" t="n">
+        <x:v>9.721899999999998</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>6</x:v>
@@ -3981,8 +3996,8 @@
       <x:c r="B31" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C31" s="0" t="n">
+        <x:v>319.834924</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>6</x:v>
@@ -3995,8 +4010,8 @@
       <x:c r="B32" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C32" s="0" t="n">
+        <x:v>27.745160000000006</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>6</x:v>
@@ -4009,8 +4024,8 @@
       <x:c r="B33" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C33" s="0" t="n">
+        <x:v>286.530964</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>6</x:v>
@@ -4023,8 +4038,8 @@
       <x:c r="B34" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C34" s="0" t="n">
+        <x:v>0.3493880000000001</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>6</x:v>
@@ -4037,8 +4052,8 @@
       <x:c r="B35" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C35" s="0" t="n">
+        <x:v>330.82488800000004</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>6</x:v>
@@ -4051,8 +4066,8 @@
       <x:c r="B36" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C36" s="0" t="n">
+        <x:v>170.14668399999994</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>6</x:v>
@@ -4065,8 +4080,8 @@
       <x:c r="B37" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C37" s="0" t="n">
+        <x:v>0.967028</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>6</x:v>
@@ -4079,8 +4094,8 @@
       <x:c r="B38" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C38" s="0" t="n">
+        <x:v>8.69742</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>6</x:v>
@@ -4093,8 +4108,8 @@
       <x:c r="B39" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C39" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C39" s="0" t="n">
+        <x:v>84.29561200000002</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
         <x:v>6</x:v>
@@ -4107,8 +4122,8 @@
       <x:c r="B40" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C40" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C40" s="0" t="n">
+        <x:v>244.56662</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>6</x:v>
@@ -4121,8 +4136,8 @@
       <x:c r="B41" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C41" s="0" t="n">
+        <x:v>504.091492</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>6</x:v>
@@ -4135,8 +4150,8 @@
       <x:c r="B42" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C42" s="0" t="n">
+        <x:v>1.133388</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>6</x:v>
@@ -4149,8 +4164,8 @@
       <x:c r="B43" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C43" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C43" s="0" t="n">
+        <x:v>0.286784</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>6</x:v>
@@ -4163,8 +4178,8 @@
       <x:c r="B44" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C44" s="0" t="n">
+        <x:v>871.289572</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
         <x:v>6</x:v>
@@ -4177,8 +4192,8 @@
       <x:c r="B45" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C45" s="0" t="n">
+        <x:v>116.14953600000001</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
         <x:v>6</x:v>
@@ -4191,8 +4206,8 @@
       <x:c r="B46" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C46" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="C46" s="0" t="n">
+        <x:v>12.112392000000002</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
         <x:v>6</x:v>
@@ -4203,10 +4218,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>31.541083999999987</x:v>
+        <x:v>20.295496</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
         <x:v>6</x:v>
@@ -4214,13 +4229,13 @@
     </x:row>
     <x:row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>292.557408</x:v>
+        <x:v>886.6962080000001</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
         <x:v>6</x:v>
@@ -4228,13 +4243,13 @@
     </x:row>
     <x:row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>18.036848000000003</x:v>
+        <x:v>12.297431999999999</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>6</x:v>
@@ -4242,13 +4257,13 @@
     </x:row>
     <x:row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>533.5847079999999</x:v>
+        <x:v>371.22091199999994</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
         <x:v>6</x:v>
@@ -4256,13 +4271,13 @@
     </x:row>
     <x:row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>17.770103999999996</x:v>
+        <x:v>20.289084</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>6</x:v>
@@ -4270,7 +4285,7 @@
     </x:row>
     <x:row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A52" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>6</x:v>
@@ -4284,7 +4299,7 @@
     </x:row>
     <x:row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A53" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>6</x:v>
@@ -4298,7 +4313,7 @@
     </x:row>
     <x:row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A54" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>6</x:v>
@@ -4312,7 +4327,7 @@
     </x:row>
     <x:row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A55" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>6</x:v>
@@ -4326,7 +4341,7 @@
     </x:row>
     <x:row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A56" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>6</x:v>
@@ -4340,7 +4355,7 @@
     </x:row>
     <x:row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A57" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>6</x:v>
@@ -4354,7 +4369,7 @@
     </x:row>
     <x:row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A58" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>6</x:v>
@@ -4368,7 +4383,7 @@
     </x:row>
     <x:row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A59" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>6</x:v>
@@ -4382,7 +4397,7 @@
     </x:row>
     <x:row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A60" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>6</x:v>
@@ -4396,7 +4411,7 @@
     </x:row>
     <x:row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A61" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>6</x:v>
@@ -4410,7 +4425,7 @@
     </x:row>
     <x:row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A62" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>6</x:v>
@@ -4424,7 +4439,7 @@
     </x:row>
     <x:row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A63" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>6</x:v>
@@ -4438,7 +4453,7 @@
     </x:row>
     <x:row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A64" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>6</x:v>
@@ -4452,7 +4467,7 @@
     </x:row>
     <x:row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A65" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>6</x:v>
@@ -4466,7 +4481,7 @@
     </x:row>
     <x:row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A66" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>6</x:v>
@@ -4480,7 +4495,7 @@
     </x:row>
     <x:row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A67" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>6</x:v>
@@ -4494,10 +4509,10 @@
     </x:row>
     <x:row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A68" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>6</x:v>
@@ -4508,7 +4523,7 @@
     </x:row>
     <x:row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A69" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>6</x:v>
@@ -4522,10 +4537,10 @@
     </x:row>
     <x:row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A70" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>6</x:v>
@@ -4536,7 +4551,7 @@
     </x:row>
     <x:row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A71" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>6</x:v>
@@ -4550,7 +4565,7 @@
     </x:row>
     <x:row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A72" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>6</x:v>
@@ -4564,7 +4579,7 @@
     </x:row>
     <x:row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A73" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>6</x:v>
@@ -4578,7 +4593,7 @@
     </x:row>
     <x:row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A74" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>6</x:v>
@@ -4592,7 +4607,7 @@
     </x:row>
     <x:row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A75" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>6</x:v>
@@ -4606,7 +4621,7 @@
     </x:row>
     <x:row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A76" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>6</x:v>
@@ -4620,10 +4635,10 @@
     </x:row>
     <x:row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A77" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>6</x:v>
@@ -4634,7 +4649,7 @@
     </x:row>
     <x:row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A78" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>6</x:v>
@@ -4648,7 +4663,7 @@
     </x:row>
     <x:row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A79" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>6</x:v>
@@ -4662,7 +4677,7 @@
     </x:row>
     <x:row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A80" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>6</x:v>
@@ -4676,7 +4691,7 @@
     </x:row>
     <x:row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A81" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>6</x:v>
@@ -4690,7 +4705,7 @@
     </x:row>
     <x:row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A82" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>6</x:v>
@@ -4704,7 +4719,7 @@
     </x:row>
     <x:row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A83" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>6</x:v>
@@ -4718,7 +4733,7 @@
     </x:row>
     <x:row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A84" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>6</x:v>
@@ -4732,7 +4747,7 @@
     </x:row>
     <x:row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A85" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>6</x:v>
@@ -4746,7 +4761,7 @@
     </x:row>
     <x:row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A86" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>6</x:v>
@@ -4760,7 +4775,7 @@
     </x:row>
     <x:row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A87" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>6</x:v>
@@ -4774,7 +4789,7 @@
     </x:row>
     <x:row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A88" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>6</x:v>
@@ -4788,7 +4803,7 @@
     </x:row>
     <x:row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A89" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>6</x:v>
@@ -4802,7 +4817,7 @@
     </x:row>
     <x:row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A90" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>6</x:v>
@@ -4816,7 +4831,7 @@
     </x:row>
     <x:row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A91" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>6</x:v>
@@ -4830,7 +4845,7 @@
     </x:row>
     <x:row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A92" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>6</x:v>
@@ -4844,7 +4859,7 @@
     </x:row>
     <x:row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A93" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>6</x:v>
@@ -4858,7 +4873,7 @@
     </x:row>
     <x:row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A94" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>6</x:v>
@@ -4872,7 +4887,7 @@
     </x:row>
     <x:row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A95" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>6</x:v>
@@ -4886,7 +4901,7 @@
     </x:row>
     <x:row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A96" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>6</x:v>
@@ -4900,7 +4915,7 @@
     </x:row>
     <x:row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A97" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>6</x:v>
@@ -4914,7 +4929,7 @@
     </x:row>
     <x:row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A98" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>6</x:v>
@@ -4928,7 +4943,7 @@
     </x:row>
     <x:row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A99" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>6</x:v>
@@ -4942,7 +4957,7 @@
     </x:row>
     <x:row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A100" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>6</x:v>
@@ -4956,10 +4971,10 @@
     </x:row>
     <x:row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A101" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>6</x:v>
@@ -4970,7 +4985,7 @@
     </x:row>
     <x:row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A102" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>6</x:v>
@@ -4984,7 +4999,7 @@
     </x:row>
     <x:row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A103" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>6</x:v>
@@ -4998,7 +5013,7 @@
     </x:row>
     <x:row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A104" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>6</x:v>
@@ -5012,7 +5027,7 @@
     </x:row>
     <x:row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A105" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>6</x:v>
@@ -5026,7 +5041,7 @@
     </x:row>
     <x:row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A106" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>6</x:v>
@@ -5040,7 +5055,7 @@
     </x:row>
     <x:row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A107" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>6</x:v>
@@ -5054,7 +5069,7 @@
     </x:row>
     <x:row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A108" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>6</x:v>
@@ -5068,7 +5083,7 @@
     </x:row>
     <x:row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A109" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>6</x:v>
@@ -5082,7 +5097,7 @@
     </x:row>
     <x:row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A110" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>6</x:v>
@@ -5096,7 +5111,7 @@
     </x:row>
     <x:row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A111" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>6</x:v>
@@ -5110,7 +5125,7 @@
     </x:row>
     <x:row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A112" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>6</x:v>
@@ -5124,7 +5139,7 @@
     </x:row>
     <x:row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A113" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>6</x:v>
@@ -5138,7 +5153,7 @@
     </x:row>
     <x:row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A114" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>6</x:v>
@@ -5152,7 +5167,7 @@
     </x:row>
     <x:row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A115" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>6</x:v>
@@ -5166,7 +5181,7 @@
     </x:row>
     <x:row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A116" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>6</x:v>
@@ -5180,7 +5195,7 @@
     </x:row>
     <x:row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A117" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>6</x:v>
@@ -5194,7 +5209,7 @@
     </x:row>
     <x:row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A118" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>6</x:v>
@@ -5208,7 +5223,7 @@
     </x:row>
     <x:row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A119" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>6</x:v>
@@ -5222,7 +5237,7 @@
     </x:row>
     <x:row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A120" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>6</x:v>
@@ -5236,7 +5251,7 @@
     </x:row>
     <x:row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A121" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>6</x:v>
@@ -5250,7 +5265,7 @@
     </x:row>
     <x:row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A122" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>6</x:v>
@@ -5264,7 +5279,7 @@
     </x:row>
     <x:row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A123" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>6</x:v>
@@ -5278,7 +5293,7 @@
     </x:row>
     <x:row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A124" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>6</x:v>
@@ -5292,7 +5307,7 @@
     </x:row>
     <x:row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A125" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>6</x:v>
@@ -5306,7 +5321,7 @@
     </x:row>
     <x:row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A126" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>6</x:v>
@@ -5320,7 +5335,7 @@
     </x:row>
     <x:row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A127" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>6</x:v>
@@ -5334,7 +5349,7 @@
     </x:row>
     <x:row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A128" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>6</x:v>
@@ -5348,7 +5363,7 @@
     </x:row>
     <x:row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A129" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>6</x:v>
@@ -5362,7 +5377,7 @@
     </x:row>
     <x:row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A130" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>6</x:v>
@@ -5376,7 +5391,7 @@
     </x:row>
     <x:row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A131" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>6</x:v>
@@ -5390,7 +5405,7 @@
     </x:row>
     <x:row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A132" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>6</x:v>
@@ -5404,7 +5419,7 @@
     </x:row>
     <x:row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A133" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>6</x:v>
@@ -5418,7 +5433,7 @@
     </x:row>
     <x:row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A134" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>6</x:v>
@@ -5432,7 +5447,7 @@
     </x:row>
     <x:row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A135" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>6</x:v>
@@ -5446,7 +5461,7 @@
     </x:row>
     <x:row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A136" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>6</x:v>
@@ -5460,7 +5475,7 @@
     </x:row>
     <x:row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A137" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>6</x:v>
@@ -5474,7 +5489,7 @@
     </x:row>
     <x:row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A138" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>6</x:v>
@@ -5488,7 +5503,7 @@
     </x:row>
     <x:row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A139" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>6</x:v>
@@ -5502,7 +5517,7 @@
     </x:row>
     <x:row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A140" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>6</x:v>
@@ -5516,7 +5531,7 @@
     </x:row>
     <x:row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A141" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>6</x:v>
@@ -5530,7 +5545,7 @@
     </x:row>
     <x:row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A142" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>6</x:v>
@@ -5544,7 +5559,7 @@
     </x:row>
     <x:row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A143" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>6</x:v>
@@ -5558,7 +5573,7 @@
     </x:row>
     <x:row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A144" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>6</x:v>
@@ -5572,7 +5587,7 @@
     </x:row>
     <x:row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A145" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>6</x:v>
@@ -5586,7 +5601,7 @@
     </x:row>
     <x:row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A146" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>6</x:v>
@@ -5600,7 +5615,7 @@
     </x:row>
     <x:row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A147" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>6</x:v>
@@ -5614,7 +5629,7 @@
     </x:row>
     <x:row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A148" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>6</x:v>
@@ -5628,7 +5643,7 @@
     </x:row>
     <x:row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A149" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>6</x:v>
@@ -5642,7 +5657,7 @@
     </x:row>
     <x:row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A150" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>6</x:v>
@@ -5656,7 +5671,7 @@
     </x:row>
     <x:row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A151" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>6</x:v>
@@ -5670,7 +5685,7 @@
     </x:row>
     <x:row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A152" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>6</x:v>
@@ -5684,7 +5699,7 @@
     </x:row>
     <x:row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A153" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>6</x:v>
@@ -5698,7 +5713,7 @@
     </x:row>
     <x:row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A154" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>6</x:v>
@@ -5712,7 +5727,7 @@
     </x:row>
     <x:row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A155" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
         <x:v>6</x:v>
@@ -5726,7 +5741,7 @@
     </x:row>
     <x:row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A156" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>6</x:v>
@@ -5740,7 +5755,7 @@
     </x:row>
     <x:row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A157" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>6</x:v>
@@ -5754,7 +5769,7 @@
     </x:row>
     <x:row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A158" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>6</x:v>
@@ -5768,7 +5783,7 @@
     </x:row>
     <x:row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A159" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>6</x:v>
@@ -5782,7 +5797,7 @@
     </x:row>
     <x:row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A160" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>6</x:v>
@@ -5796,7 +5811,7 @@
     </x:row>
     <x:row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A161" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>6</x:v>
@@ -5810,7 +5825,7 @@
     </x:row>
     <x:row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A162" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>6</x:v>
@@ -5824,7 +5839,7 @@
     </x:row>
     <x:row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A163" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>6</x:v>
@@ -5838,7 +5853,7 @@
     </x:row>
     <x:row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A164" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>6</x:v>
@@ -5852,7 +5867,7 @@
     </x:row>
     <x:row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A165" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>6</x:v>
@@ -5866,7 +5881,7 @@
     </x:row>
     <x:row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A166" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
         <x:v>6</x:v>
@@ -5880,7 +5895,7 @@
     </x:row>
     <x:row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A167" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
         <x:v>6</x:v>
@@ -5894,7 +5909,7 @@
     </x:row>
     <x:row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A168" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>6</x:v>
@@ -5908,7 +5923,7 @@
     </x:row>
     <x:row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A169" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>6</x:v>
@@ -5922,7 +5937,7 @@
     </x:row>
     <x:row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A170" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>6</x:v>
@@ -5936,7 +5951,7 @@
     </x:row>
     <x:row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A171" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>6</x:v>
@@ -5950,7 +5965,7 @@
     </x:row>
     <x:row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A172" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>6</x:v>
@@ -5964,7 +5979,7 @@
     </x:row>
     <x:row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A173" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>6</x:v>
@@ -5978,7 +5993,7 @@
     </x:row>
     <x:row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A174" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>6</x:v>
@@ -5992,7 +6007,7 @@
     </x:row>
     <x:row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A175" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>6</x:v>
@@ -6006,7 +6021,7 @@
     </x:row>
     <x:row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A176" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>6</x:v>
@@ -6020,7 +6035,7 @@
     </x:row>
     <x:row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A177" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>6</x:v>
@@ -6034,7 +6049,7 @@
     </x:row>
     <x:row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A178" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>6</x:v>
@@ -6048,7 +6063,7 @@
     </x:row>
     <x:row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A179" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>6</x:v>
@@ -6062,7 +6077,7 @@
     </x:row>
     <x:row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A180" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
         <x:v>6</x:v>
@@ -6076,7 +6091,7 @@
     </x:row>
     <x:row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A181" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
         <x:v>6</x:v>
@@ -6090,7 +6105,7 @@
     </x:row>
     <x:row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A182" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
         <x:v>6</x:v>
@@ -6104,7 +6119,7 @@
     </x:row>
     <x:row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A183" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
         <x:v>6</x:v>
@@ -6118,7 +6133,7 @@
     </x:row>
     <x:row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A184" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>6</x:v>
@@ -6132,7 +6147,7 @@
     </x:row>
     <x:row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A185" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>6</x:v>
@@ -6146,7 +6161,7 @@
     </x:row>
     <x:row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A186" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>6</x:v>
@@ -6160,7 +6175,7 @@
     </x:row>
     <x:row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A187" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
         <x:v>6</x:v>
@@ -6174,7 +6189,7 @@
     </x:row>
     <x:row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A188" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
         <x:v>6</x:v>
@@ -6188,7 +6203,7 @@
     </x:row>
     <x:row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A189" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>6</x:v>
@@ -6202,7 +6217,7 @@
     </x:row>
     <x:row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A190" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>6</x:v>
@@ -6216,7 +6231,7 @@
     </x:row>
     <x:row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A191" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>6</x:v>
@@ -6230,7 +6245,7 @@
     </x:row>
     <x:row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A192" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>6</x:v>
@@ -6244,7 +6259,7 @@
     </x:row>
     <x:row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A193" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>6</x:v>
@@ -6258,7 +6273,7 @@
     </x:row>
     <x:row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A194" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>6</x:v>
@@ -6272,7 +6287,7 @@
     </x:row>
     <x:row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A195" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>6</x:v>
@@ -6286,7 +6301,7 @@
     </x:row>
     <x:row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A196" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>6</x:v>
@@ -6300,7 +6315,7 @@
     </x:row>
     <x:row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A197" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>6</x:v>
@@ -6314,7 +6329,7 @@
     </x:row>
     <x:row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A198" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>6</x:v>
@@ -6328,7 +6343,7 @@
     </x:row>
     <x:row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A199" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
         <x:v>6</x:v>
@@ -6342,7 +6357,7 @@
     </x:row>
     <x:row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A200" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
         <x:v>6</x:v>
@@ -6356,7 +6371,7 @@
     </x:row>
     <x:row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A201" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>6</x:v>
@@ -6370,7 +6385,7 @@
     </x:row>
     <x:row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A202" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>6</x:v>
@@ -6384,7 +6399,7 @@
     </x:row>
     <x:row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A203" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>6</x:v>
@@ -6398,7 +6413,7 @@
     </x:row>
     <x:row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A204" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>6</x:v>
@@ -6412,7 +6427,7 @@
     </x:row>
     <x:row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A205" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>6</x:v>
@@ -6426,7 +6441,7 @@
     </x:row>
     <x:row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A206" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>6</x:v>
@@ -6440,13 +6455,13 @@
     </x:row>
     <x:row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A207" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C207" s="0" t="n">
-        <x:v>308.077788</x:v>
+        <x:v>844.195036</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
         <x:v>6</x:v>
@@ -6454,7 +6469,7 @@
     </x:row>
     <x:row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A208" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>6</x:v>
@@ -6468,7 +6483,7 @@
     </x:row>
     <x:row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A209" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>6</x:v>
@@ -6482,7 +6497,7 @@
     </x:row>
     <x:row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A210" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
         <x:v>6</x:v>
@@ -6496,7 +6511,7 @@
     </x:row>
     <x:row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A211" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
         <x:v>6</x:v>
@@ -6510,7 +6525,7 @@
     </x:row>
     <x:row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A212" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>6</x:v>
@@ -6524,7 +6539,7 @@
     </x:row>
     <x:row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A213" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>6</x:v>
@@ -6538,7 +6553,7 @@
     </x:row>
     <x:row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A214" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>6</x:v>
@@ -6552,7 +6567,7 @@
     </x:row>
     <x:row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A215" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>6</x:v>
@@ -6566,7 +6581,7 @@
     </x:row>
     <x:row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A216" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>6</x:v>
@@ -6580,7 +6595,7 @@
     </x:row>
     <x:row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A217" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>6</x:v>
@@ -6594,7 +6609,7 @@
     </x:row>
     <x:row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A218" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>6</x:v>
@@ -6608,7 +6623,7 @@
     </x:row>
     <x:row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A219" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
         <x:v>6</x:v>
@@ -6622,7 +6637,7 @@
     </x:row>
     <x:row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A220" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
         <x:v>6</x:v>
@@ -6636,7 +6651,7 @@
     </x:row>
     <x:row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A221" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>6</x:v>
@@ -6650,7 +6665,7 @@
     </x:row>
     <x:row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A222" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>6</x:v>
@@ -6664,7 +6679,7 @@
     </x:row>
     <x:row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A223" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>6</x:v>
@@ -6678,7 +6693,7 @@
     </x:row>
     <x:row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A224" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>6</x:v>
@@ -6692,7 +6707,7 @@
     </x:row>
     <x:row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A225" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>6</x:v>
@@ -6706,7 +6721,7 @@
     </x:row>
     <x:row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A226" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>6</x:v>
@@ -6720,7 +6735,7 @@
     </x:row>
     <x:row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A227" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>6</x:v>
@@ -6734,7 +6749,7 @@
     </x:row>
     <x:row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A228" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>6</x:v>
@@ -6748,7 +6763,7 @@
     </x:row>
     <x:row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A229" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>6</x:v>
@@ -6762,7 +6777,7 @@
     </x:row>
     <x:row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A230" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>6</x:v>
@@ -6776,7 +6791,7 @@
     </x:row>
     <x:row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A231" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>6</x:v>
@@ -6790,7 +6805,7 @@
     </x:row>
     <x:row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A232" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>6</x:v>
@@ -6804,7 +6819,7 @@
     </x:row>
     <x:row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A233" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>6</x:v>
@@ -6818,7 +6833,7 @@
     </x:row>
     <x:row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A234" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>6</x:v>
@@ -6832,7 +6847,7 @@
     </x:row>
     <x:row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A235" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>6</x:v>
@@ -6846,7 +6861,7 @@
     </x:row>
     <x:row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A236" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>6</x:v>
@@ -6860,7 +6875,7 @@
     </x:row>
     <x:row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A237" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>6</x:v>
@@ -6874,7 +6889,7 @@
     </x:row>
     <x:row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A238" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>6</x:v>
@@ -6888,7 +6903,7 @@
     </x:row>
     <x:row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A239" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>6</x:v>
@@ -6902,7 +6917,7 @@
     </x:row>
     <x:row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A240" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>6</x:v>
@@ -6916,7 +6931,7 @@
     </x:row>
     <x:row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A241" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>6</x:v>
@@ -6930,7 +6945,7 @@
     </x:row>
     <x:row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A242" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
         <x:v>6</x:v>
@@ -6944,7 +6959,7 @@
     </x:row>
     <x:row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A243" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
         <x:v>6</x:v>
@@ -6958,7 +6973,7 @@
     </x:row>
     <x:row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A244" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
         <x:v>6</x:v>
@@ -6972,7 +6987,7 @@
     </x:row>
     <x:row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A245" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
         <x:v>6</x:v>
@@ -6986,7 +7001,7 @@
     </x:row>
     <x:row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A246" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
         <x:v>6</x:v>
@@ -7000,7 +7015,7 @@
     </x:row>
     <x:row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A247" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
         <x:v>6</x:v>
@@ -7014,7 +7029,7 @@
     </x:row>
     <x:row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A248" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
         <x:v>6</x:v>
@@ -7028,7 +7043,7 @@
     </x:row>
     <x:row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A249" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>6</x:v>
@@ -7042,7 +7057,7 @@
     </x:row>
     <x:row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A250" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
         <x:v>6</x:v>
@@ -7056,7 +7071,7 @@
     </x:row>
     <x:row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A251" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
         <x:v>6</x:v>
@@ -7070,7 +7085,7 @@
     </x:row>
     <x:row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A252" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
         <x:v>6</x:v>
@@ -7084,7 +7099,7 @@
     </x:row>
     <x:row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A253" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
         <x:v>6</x:v>
@@ -7098,7 +7113,7 @@
     </x:row>
     <x:row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A254" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
         <x:v>6</x:v>
@@ -7112,7 +7127,7 @@
     </x:row>
     <x:row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A255" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
         <x:v>6</x:v>
@@ -7126,7 +7141,7 @@
     </x:row>
     <x:row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A256" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
         <x:v>6</x:v>
@@ -7140,7 +7155,7 @@
     </x:row>
     <x:row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A257" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
         <x:v>6</x:v>
@@ -7154,7 +7169,7 @@
     </x:row>
     <x:row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A258" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
         <x:v>6</x:v>
@@ -7168,7 +7183,7 @@
     </x:row>
     <x:row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A259" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
         <x:v>6</x:v>
@@ -7182,7 +7197,7 @@
     </x:row>
     <x:row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A260" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
         <x:v>6</x:v>
@@ -7196,7 +7211,7 @@
     </x:row>
     <x:row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A261" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
         <x:v>6</x:v>
@@ -7210,7 +7225,7 @@
     </x:row>
     <x:row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A262" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
         <x:v>6</x:v>
@@ -7224,7 +7239,7 @@
     </x:row>
     <x:row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A263" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
         <x:v>6</x:v>
@@ -7238,7 +7253,7 @@
     </x:row>
     <x:row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A264" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
         <x:v>6</x:v>
@@ -7252,7 +7267,7 @@
     </x:row>
     <x:row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A265" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
         <x:v>6</x:v>
@@ -7266,7 +7281,7 @@
     </x:row>
     <x:row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A266" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
         <x:v>6</x:v>
@@ -7280,7 +7295,7 @@
     </x:row>
     <x:row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A267" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
         <x:v>6</x:v>
@@ -7294,7 +7309,7 @@
     </x:row>
     <x:row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A268" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
         <x:v>6</x:v>
@@ -7308,7 +7323,7 @@
     </x:row>
     <x:row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A269" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
         <x:v>6</x:v>
@@ -7322,7 +7337,7 @@
     </x:row>
     <x:row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A270" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
         <x:v>6</x:v>
@@ -7336,7 +7351,7 @@
     </x:row>
     <x:row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A271" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
         <x:v>6</x:v>
@@ -7350,7 +7365,7 @@
     </x:row>
     <x:row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A272" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
         <x:v>6</x:v>
@@ -7364,7 +7379,7 @@
     </x:row>
     <x:row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A273" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
         <x:v>6</x:v>
@@ -7378,7 +7393,7 @@
     </x:row>
     <x:row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A274" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
         <x:v>6</x:v>
@@ -7392,7 +7407,7 @@
     </x:row>
     <x:row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A275" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
         <x:v>6</x:v>
@@ -7406,7 +7421,7 @@
     </x:row>
     <x:row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A276" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
         <x:v>6</x:v>
@@ -7420,7 +7435,7 @@
     </x:row>
     <x:row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A277" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
         <x:v>6</x:v>
@@ -7434,7 +7449,7 @@
     </x:row>
     <x:row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A278" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
         <x:v>6</x:v>
@@ -7448,7 +7463,7 @@
     </x:row>
     <x:row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A279" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
         <x:v>6</x:v>
@@ -7462,7 +7477,7 @@
     </x:row>
     <x:row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A280" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
         <x:v>6</x:v>
@@ -7476,7 +7491,7 @@
     </x:row>
     <x:row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A281" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
         <x:v>6</x:v>
@@ -7490,7 +7505,7 @@
     </x:row>
     <x:row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A282" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
         <x:v>6</x:v>
@@ -7504,7 +7519,7 @@
     </x:row>
     <x:row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A283" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
         <x:v>6</x:v>
@@ -7518,7 +7533,7 @@
     </x:row>
     <x:row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A284" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
         <x:v>6</x:v>
@@ -7532,7 +7547,7 @@
     </x:row>
     <x:row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A285" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
         <x:v>6</x:v>
@@ -7546,7 +7561,7 @@
     </x:row>
     <x:row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A286" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
         <x:v>6</x:v>
@@ -7560,7 +7575,7 @@
     </x:row>
     <x:row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A287" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
         <x:v>6</x:v>
@@ -7574,7 +7589,7 @@
     </x:row>
     <x:row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A288" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
         <x:v>6</x:v>
@@ -7588,7 +7603,7 @@
     </x:row>
     <x:row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A289" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
         <x:v>6</x:v>
@@ -7602,7 +7617,7 @@
     </x:row>
     <x:row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A290" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
         <x:v>6</x:v>
@@ -7616,7 +7631,7 @@
     </x:row>
     <x:row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A291" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
         <x:v>6</x:v>
@@ -7630,7 +7645,7 @@
     </x:row>
     <x:row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A292" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
         <x:v>6</x:v>
@@ -7644,7 +7659,7 @@
     </x:row>
     <x:row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A293" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
         <x:v>6</x:v>
@@ -7658,7 +7673,7 @@
     </x:row>
     <x:row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A294" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
         <x:v>6</x:v>
@@ -7672,7 +7687,7 @@
     </x:row>
     <x:row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A295" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
         <x:v>6</x:v>
@@ -7686,7 +7701,7 @@
     </x:row>
     <x:row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A296" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
         <x:v>6</x:v>
@@ -7700,7 +7715,7 @@
     </x:row>
     <x:row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A297" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
         <x:v>6</x:v>
@@ -7714,7 +7729,7 @@
     </x:row>
     <x:row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A298" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
         <x:v>6</x:v>
@@ -7728,7 +7743,7 @@
     </x:row>
     <x:row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A299" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
         <x:v>6</x:v>
@@ -7742,7 +7757,7 @@
     </x:row>
     <x:row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A300" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
         <x:v>6</x:v>
@@ -7756,7 +7771,7 @@
     </x:row>
     <x:row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A301" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
         <x:v>6</x:v>
@@ -7770,7 +7785,7 @@
     </x:row>
     <x:row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A302" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
         <x:v>6</x:v>
@@ -7784,7 +7799,7 @@
     </x:row>
     <x:row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A303" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
         <x:v>6</x:v>
@@ -7798,7 +7813,7 @@
     </x:row>
     <x:row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A304" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
         <x:v>6</x:v>
@@ -7812,7 +7827,7 @@
     </x:row>
     <x:row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A305" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
         <x:v>6</x:v>
@@ -7826,7 +7841,7 @@
     </x:row>
     <x:row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A306" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
         <x:v>6</x:v>
@@ -7840,7 +7855,7 @@
     </x:row>
     <x:row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A307" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
         <x:v>6</x:v>
@@ -7854,7 +7869,7 @@
     </x:row>
     <x:row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A308" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
         <x:v>6</x:v>
@@ -7868,7 +7883,7 @@
     </x:row>
     <x:row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A309" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
         <x:v>6</x:v>
@@ -7882,7 +7897,7 @@
     </x:row>
     <x:row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A310" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
         <x:v>6</x:v>
@@ -7896,7 +7911,7 @@
     </x:row>
     <x:row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A311" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
         <x:v>6</x:v>
@@ -7910,7 +7925,7 @@
     </x:row>
     <x:row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A312" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
         <x:v>6</x:v>
@@ -7924,7 +7939,7 @@
     </x:row>
     <x:row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A313" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
         <x:v>6</x:v>
@@ -7938,7 +7953,7 @@
     </x:row>
     <x:row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A314" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
         <x:v>6</x:v>
@@ -7952,7 +7967,7 @@
     </x:row>
     <x:row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A315" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
         <x:v>6</x:v>
@@ -7966,7 +7981,7 @@
     </x:row>
     <x:row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A316" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
         <x:v>6</x:v>
@@ -7980,7 +7995,7 @@
     </x:row>
     <x:row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A317" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
         <x:v>6</x:v>
@@ -7994,7 +8009,7 @@
     </x:row>
     <x:row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A318" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
         <x:v>6</x:v>
@@ -8008,7 +8023,7 @@
     </x:row>
     <x:row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A319" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
         <x:v>6</x:v>
@@ -8022,7 +8037,7 @@
     </x:row>
     <x:row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A320" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B320" s="0" t="s">
         <x:v>6</x:v>
@@ -8036,7 +8051,7 @@
     </x:row>
     <x:row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A321" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B321" s="0" t="s">
         <x:v>6</x:v>
@@ -8050,7 +8065,7 @@
     </x:row>
     <x:row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A322" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B322" s="0" t="s">
         <x:v>6</x:v>
@@ -8064,7 +8079,7 @@
     </x:row>
     <x:row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A323" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B323" s="0" t="s">
         <x:v>6</x:v>
@@ -8078,7 +8093,7 @@
     </x:row>
     <x:row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A324" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B324" s="0" t="s">
         <x:v>6</x:v>
@@ -8092,7 +8107,7 @@
     </x:row>
     <x:row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A325" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
         <x:v>6</x:v>
@@ -8106,7 +8121,7 @@
     </x:row>
     <x:row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A326" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B326" s="0" t="s">
         <x:v>6</x:v>
@@ -8120,7 +8135,7 @@
     </x:row>
     <x:row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A327" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B327" s="0" t="s">
         <x:v>6</x:v>
@@ -8134,7 +8149,7 @@
     </x:row>
     <x:row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A328" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B328" s="0" t="s">
         <x:v>6</x:v>
@@ -8148,7 +8163,7 @@
     </x:row>
     <x:row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A329" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
         <x:v>6</x:v>
@@ -8162,7 +8177,7 @@
     </x:row>
     <x:row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A330" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B330" s="0" t="s">
         <x:v>6</x:v>
@@ -8176,7 +8191,7 @@
     </x:row>
     <x:row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A331" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B331" s="0" t="s">
         <x:v>6</x:v>
@@ -8190,7 +8205,7 @@
     </x:row>
     <x:row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A332" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
         <x:v>6</x:v>
@@ -8204,7 +8219,7 @@
     </x:row>
     <x:row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A333" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B333" s="0" t="s">
         <x:v>6</x:v>
@@ -8218,7 +8233,7 @@
     </x:row>
     <x:row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A334" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B334" s="0" t="s">
         <x:v>6</x:v>
@@ -8232,7 +8247,7 @@
     </x:row>
     <x:row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A335" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B335" s="0" t="s">
         <x:v>6</x:v>
@@ -8246,7 +8261,7 @@
     </x:row>
     <x:row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A336" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B336" s="0" t="s">
         <x:v>6</x:v>
@@ -8260,7 +8275,7 @@
     </x:row>
     <x:row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A337" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
         <x:v>6</x:v>
@@ -8274,7 +8289,7 @@
     </x:row>
     <x:row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A338" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B338" s="0" t="s">
         <x:v>6</x:v>
@@ -8288,7 +8303,7 @@
     </x:row>
     <x:row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A339" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B339" s="0" t="s">
         <x:v>6</x:v>
@@ -8302,7 +8317,7 @@
     </x:row>
     <x:row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A340" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B340" s="0" t="s">
         <x:v>6</x:v>
@@ -8316,7 +8331,7 @@
     </x:row>
     <x:row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A341" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B341" s="0" t="s">
         <x:v>6</x:v>
@@ -8330,7 +8345,7 @@
     </x:row>
     <x:row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A342" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B342" s="0" t="s">
         <x:v>6</x:v>
@@ -8344,7 +8359,7 @@
     </x:row>
     <x:row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A343" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B343" s="0" t="s">
         <x:v>6</x:v>
@@ -8358,7 +8373,7 @@
     </x:row>
     <x:row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A344" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B344" s="0" t="s">
         <x:v>6</x:v>
@@ -8372,7 +8387,7 @@
     </x:row>
     <x:row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A345" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B345" s="0" t="s">
         <x:v>6</x:v>
@@ -8386,7 +8401,7 @@
     </x:row>
     <x:row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A346" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B346" s="0" t="s">
         <x:v>6</x:v>
@@ -8400,7 +8415,7 @@
     </x:row>
     <x:row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A347" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B347" s="0" t="s">
         <x:v>6</x:v>
@@ -8414,7 +8429,7 @@
     </x:row>
     <x:row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A348" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B348" s="0" t="s">
         <x:v>6</x:v>
@@ -8428,7 +8443,7 @@
     </x:row>
     <x:row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A349" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B349" s="0" t="s">
         <x:v>6</x:v>
@@ -8442,7 +8457,7 @@
     </x:row>
     <x:row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A350" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B350" s="0" t="s">
         <x:v>6</x:v>
@@ -8456,7 +8471,7 @@
     </x:row>
     <x:row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A351" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B351" s="0" t="s">
         <x:v>6</x:v>
@@ -8470,7 +8485,7 @@
     </x:row>
     <x:row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A352" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B352" s="0" t="s">
         <x:v>6</x:v>
@@ -8484,7 +8499,7 @@
     </x:row>
     <x:row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A353" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B353" s="0" t="s">
         <x:v>6</x:v>
@@ -8498,7 +8513,7 @@
     </x:row>
     <x:row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A354" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B354" s="0" t="s">
         <x:v>6</x:v>
@@ -8512,7 +8527,7 @@
     </x:row>
     <x:row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A355" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B355" s="0" t="s">
         <x:v>6</x:v>
@@ -8526,7 +8541,7 @@
     </x:row>
     <x:row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A356" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="B356" s="0" t="s">
         <x:v>6</x:v>
@@ -8540,7 +8555,7 @@
     </x:row>
     <x:row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A357" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B357" s="0" t="s">
         <x:v>6</x:v>
@@ -8554,7 +8569,7 @@
     </x:row>
     <x:row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A358" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B358" s="0" t="s">
         <x:v>6</x:v>
@@ -8568,7 +8583,7 @@
     </x:row>
     <x:row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A359" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B359" s="0" t="s">
         <x:v>6</x:v>
@@ -8582,7 +8597,7 @@
     </x:row>
     <x:row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A360" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B360" s="0" t="s">
         <x:v>6</x:v>
@@ -8596,7 +8611,7 @@
     </x:row>
     <x:row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A361" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B361" s="0" t="s">
         <x:v>6</x:v>
@@ -8610,7 +8625,7 @@
     </x:row>
     <x:row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A362" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B362" s="0" t="s">
         <x:v>6</x:v>
@@ -8624,7 +8639,7 @@
     </x:row>
     <x:row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A363" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B363" s="0" t="s">
         <x:v>6</x:v>
@@ -8638,7 +8653,7 @@
     </x:row>
     <x:row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A364" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B364" s="0" t="s">
         <x:v>6</x:v>
@@ -8652,7 +8667,7 @@
     </x:row>
     <x:row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A365" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B365" s="0" t="s">
         <x:v>6</x:v>
@@ -8666,7 +8681,7 @@
     </x:row>
     <x:row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A366" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B366" s="0" t="s">
         <x:v>6</x:v>
@@ -8680,7 +8695,7 @@
     </x:row>
     <x:row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A367" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B367" s="0" t="s">
         <x:v>6</x:v>
@@ -8694,7 +8709,7 @@
     </x:row>
     <x:row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A368" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B368" s="0" t="s">
         <x:v>6</x:v>
@@ -8708,7 +8723,7 @@
     </x:row>
     <x:row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A369" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B369" s="0" t="s">
         <x:v>6</x:v>
@@ -8722,7 +8737,7 @@
     </x:row>
     <x:row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A370" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B370" s="0" t="s">
         <x:v>6</x:v>
@@ -8736,7 +8751,7 @@
     </x:row>
     <x:row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A371" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="B371" s="0" t="s">
         <x:v>6</x:v>
@@ -8750,7 +8765,7 @@
     </x:row>
     <x:row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A372" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B372" s="0" t="s">
         <x:v>6</x:v>
@@ -8764,7 +8779,7 @@
     </x:row>
     <x:row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A373" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B373" s="0" t="s">
         <x:v>6</x:v>
@@ -8778,7 +8793,7 @@
     </x:row>
     <x:row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A374" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B374" s="0" t="s">
         <x:v>6</x:v>
@@ -8792,7 +8807,7 @@
     </x:row>
     <x:row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A375" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B375" s="0" t="s">
         <x:v>6</x:v>
@@ -8806,7 +8821,7 @@
     </x:row>
     <x:row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A376" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B376" s="0" t="s">
         <x:v>6</x:v>
@@ -8820,7 +8835,7 @@
     </x:row>
     <x:row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A377" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B377" s="0" t="s">
         <x:v>6</x:v>
@@ -8834,7 +8849,7 @@
     </x:row>
     <x:row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A378" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B378" s="0" t="s">
         <x:v>6</x:v>
@@ -8848,7 +8863,7 @@
     </x:row>
     <x:row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A379" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B379" s="0" t="s">
         <x:v>6</x:v>
@@ -8862,7 +8877,7 @@
     </x:row>
     <x:row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A380" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B380" s="0" t="s">
         <x:v>6</x:v>
@@ -8876,7 +8891,7 @@
     </x:row>
     <x:row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A381" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B381" s="0" t="s">
         <x:v>6</x:v>
@@ -8890,7 +8905,7 @@
     </x:row>
     <x:row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A382" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B382" s="0" t="s">
         <x:v>6</x:v>
@@ -8904,7 +8919,7 @@
     </x:row>
     <x:row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A383" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="B383" s="0" t="s">
         <x:v>6</x:v>
@@ -8918,7 +8933,7 @@
     </x:row>
     <x:row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A384" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B384" s="0" t="s">
         <x:v>6</x:v>
@@ -8932,7 +8947,7 @@
     </x:row>
     <x:row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A385" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B385" s="0" t="s">
         <x:v>6</x:v>
@@ -8946,7 +8961,7 @@
     </x:row>
     <x:row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A386" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="B386" s="0" t="s">
         <x:v>6</x:v>
@@ -8960,7 +8975,7 @@
     </x:row>
     <x:row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A387" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B387" s="0" t="s">
         <x:v>6</x:v>
@@ -8974,7 +8989,7 @@
     </x:row>
     <x:row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A388" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="B388" s="0" t="s">
         <x:v>6</x:v>
@@ -8988,7 +9003,7 @@
     </x:row>
     <x:row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A389" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B389" s="0" t="s">
         <x:v>6</x:v>
@@ -9002,7 +9017,7 @@
     </x:row>
     <x:row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A390" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="B390" s="0" t="s">
         <x:v>6</x:v>
@@ -9016,7 +9031,7 @@
     </x:row>
     <x:row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A391" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B391" s="0" t="s">
         <x:v>6</x:v>
@@ -9030,7 +9045,7 @@
     </x:row>
     <x:row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A392" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="B392" s="0" t="s">
         <x:v>6</x:v>
@@ -9044,7 +9059,7 @@
     </x:row>
     <x:row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A393" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B393" s="0" t="s">
         <x:v>6</x:v>
@@ -9058,7 +9073,7 @@
     </x:row>
     <x:row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A394" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B394" s="0" t="s">
         <x:v>6</x:v>
@@ -9072,7 +9087,7 @@
     </x:row>
     <x:row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A395" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B395" s="0" t="s">
         <x:v>6</x:v>
@@ -9086,7 +9101,7 @@
     </x:row>
     <x:row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A396" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B396" s="0" t="s">
         <x:v>6</x:v>
@@ -9100,7 +9115,7 @@
     </x:row>
     <x:row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A397" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B397" s="0" t="s">
         <x:v>6</x:v>
@@ -9114,7 +9129,7 @@
     </x:row>
     <x:row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A398" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B398" s="0" t="s">
         <x:v>6</x:v>
@@ -9128,7 +9143,7 @@
     </x:row>
     <x:row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A399" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B399" s="0" t="s">
         <x:v>6</x:v>
@@ -9142,7 +9157,7 @@
     </x:row>
     <x:row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A400" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B400" s="0" t="s">
         <x:v>6</x:v>
@@ -9156,7 +9171,7 @@
     </x:row>
     <x:row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A401" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B401" s="0" t="s">
         <x:v>6</x:v>
@@ -9170,7 +9185,7 @@
     </x:row>
     <x:row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A402" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B402" s="0" t="s">
         <x:v>6</x:v>
@@ -9184,7 +9199,7 @@
     </x:row>
     <x:row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A403" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B403" s="0" t="s">
         <x:v>6</x:v>
@@ -9198,7 +9213,7 @@
     </x:row>
     <x:row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A404" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B404" s="0" t="s">
         <x:v>6</x:v>
@@ -9212,7 +9227,7 @@
     </x:row>
     <x:row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A405" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B405" s="0" t="s">
         <x:v>6</x:v>
@@ -9226,7 +9241,7 @@
     </x:row>
     <x:row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A406" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B406" s="0" t="s">
         <x:v>6</x:v>
@@ -9240,7 +9255,7 @@
     </x:row>
     <x:row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A407" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B407" s="0" t="s">
         <x:v>6</x:v>
@@ -9254,7 +9269,7 @@
     </x:row>
     <x:row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A408" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B408" s="0" t="s">
         <x:v>6</x:v>
@@ -9268,7 +9283,7 @@
     </x:row>
     <x:row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A409" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B409" s="0" t="s">
         <x:v>6</x:v>
@@ -9282,7 +9297,7 @@
     </x:row>
     <x:row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A410" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B410" s="0" t="s">
         <x:v>6</x:v>
@@ -9296,7 +9311,7 @@
     </x:row>
     <x:row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A411" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B411" s="0" t="s">
         <x:v>6</x:v>
@@ -9310,7 +9325,7 @@
     </x:row>
     <x:row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A412" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B412" s="0" t="s">
         <x:v>6</x:v>
@@ -9324,7 +9339,7 @@
     </x:row>
     <x:row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A413" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="B413" s="0" t="s">
         <x:v>6</x:v>
@@ -9338,7 +9353,7 @@
     </x:row>
     <x:row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A414" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B414" s="0" t="s">
         <x:v>6</x:v>
@@ -9352,7 +9367,7 @@
     </x:row>
     <x:row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A415" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B415" s="0" t="s">
         <x:v>6</x:v>
@@ -9366,7 +9381,7 @@
     </x:row>
     <x:row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A416" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B416" s="0" t="s">
         <x:v>6</x:v>
@@ -9380,7 +9395,7 @@
     </x:row>
     <x:row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A417" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B417" s="0" t="s">
         <x:v>6</x:v>
@@ -9394,7 +9409,7 @@
     </x:row>
     <x:row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A418" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>6</x:v>
@@ -9408,7 +9423,7 @@
     </x:row>
     <x:row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A419" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>6</x:v>
@@ -9422,7 +9437,7 @@
     </x:row>
     <x:row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A420" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>6</x:v>
@@ -9436,7 +9451,7 @@
     </x:row>
     <x:row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A421" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="B421" s="0" t="s">
         <x:v>6</x:v>
@@ -9450,7 +9465,7 @@
     </x:row>
     <x:row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A422" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="B422" s="0" t="s">
         <x:v>6</x:v>
@@ -9464,7 +9479,7 @@
     </x:row>
     <x:row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A423" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="B423" s="0" t="s">
         <x:v>6</x:v>
@@ -9478,7 +9493,7 @@
     </x:row>
     <x:row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A424" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B424" s="0" t="s">
         <x:v>6</x:v>
@@ -9492,7 +9507,7 @@
     </x:row>
     <x:row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A425" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="B425" s="0" t="s">
         <x:v>6</x:v>
@@ -9506,7 +9521,7 @@
     </x:row>
     <x:row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A426" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B426" s="0" t="s">
         <x:v>6</x:v>
@@ -9520,7 +9535,7 @@
     </x:row>
     <x:row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A427" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="B427" s="0" t="s">
         <x:v>6</x:v>
@@ -9534,7 +9549,7 @@
     </x:row>
     <x:row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A428" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B428" s="0" t="s">
         <x:v>6</x:v>
@@ -9548,7 +9563,7 @@
     </x:row>
     <x:row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A429" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B429" s="0" t="s">
         <x:v>6</x:v>
@@ -9562,7 +9577,7 @@
     </x:row>
     <x:row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A430" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="B430" s="0" t="s">
         <x:v>6</x:v>
@@ -9576,7 +9591,7 @@
     </x:row>
     <x:row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A431" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="B431" s="0" t="s">
         <x:v>6</x:v>
@@ -9590,7 +9605,7 @@
     </x:row>
     <x:row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A432" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="B432" s="0" t="s">
         <x:v>6</x:v>
@@ -9604,7 +9619,7 @@
     </x:row>
     <x:row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A433" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>6</x:v>
@@ -9618,7 +9633,7 @@
     </x:row>
     <x:row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A434" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>6</x:v>
@@ -9632,7 +9647,7 @@
     </x:row>
     <x:row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A435" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>6</x:v>
@@ -9646,7 +9661,7 @@
     </x:row>
     <x:row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A436" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>6</x:v>
@@ -9660,7 +9675,7 @@
     </x:row>
     <x:row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A437" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>6</x:v>
@@ -9674,7 +9689,7 @@
     </x:row>
     <x:row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A438" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>6</x:v>
@@ -9688,7 +9703,7 @@
     </x:row>
     <x:row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A439" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>6</x:v>
@@ -9702,7 +9717,7 @@
     </x:row>
     <x:row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A440" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>6</x:v>
@@ -9716,7 +9731,7 @@
     </x:row>
     <x:row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A441" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>6</x:v>
@@ -9730,7 +9745,7 @@
     </x:row>
     <x:row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A442" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>6</x:v>
@@ -9744,7 +9759,7 @@
     </x:row>
     <x:row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A443" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>6</x:v>
@@ -9758,7 +9773,7 @@
     </x:row>
     <x:row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A444" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>6</x:v>
@@ -9772,7 +9787,7 @@
     </x:row>
     <x:row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A445" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>6</x:v>
@@ -9786,7 +9801,7 @@
     </x:row>
     <x:row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A446" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>6</x:v>
@@ -9800,7 +9815,7 @@
     </x:row>
     <x:row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A447" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>6</x:v>
@@ -9814,7 +9829,7 @@
     </x:row>
     <x:row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A448" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>6</x:v>
@@ -9828,7 +9843,7 @@
     </x:row>
     <x:row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A449" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>6</x:v>
@@ -9842,7 +9857,7 @@
     </x:row>
     <x:row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A450" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>6</x:v>
@@ -9856,7 +9871,7 @@
     </x:row>
     <x:row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A451" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>6</x:v>
@@ -9870,7 +9885,7 @@
     </x:row>
     <x:row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A452" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>6</x:v>
@@ -9884,7 +9899,7 @@
     </x:row>
     <x:row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A453" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>6</x:v>
@@ -9898,7 +9913,7 @@
     </x:row>
     <x:row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A454" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>6</x:v>
@@ -9912,7 +9927,7 @@
     </x:row>
     <x:row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A455" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>6</x:v>
@@ -9926,7 +9941,7 @@
     </x:row>
     <x:row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A456" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>6</x:v>
@@ -9940,7 +9955,7 @@
     </x:row>
     <x:row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A457" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>6</x:v>
@@ -9954,7 +9969,7 @@
     </x:row>
     <x:row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A458" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>6</x:v>
@@ -9968,7 +9983,7 @@
     </x:row>
     <x:row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A459" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>6</x:v>
@@ -9982,7 +9997,7 @@
     </x:row>
     <x:row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A460" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>6</x:v>
@@ -9996,7 +10011,7 @@
     </x:row>
     <x:row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A461" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>6</x:v>
@@ -10010,7 +10025,7 @@
     </x:row>
     <x:row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A462" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>6</x:v>
@@ -10024,7 +10039,7 @@
     </x:row>
     <x:row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A463" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>6</x:v>
@@ -10038,7 +10053,7 @@
     </x:row>
     <x:row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A464" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>6</x:v>
@@ -10052,7 +10067,7 @@
     </x:row>
     <x:row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A465" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>6</x:v>
@@ -10066,7 +10081,7 @@
     </x:row>
     <x:row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A466" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>6</x:v>
@@ -10080,7 +10095,7 @@
     </x:row>
     <x:row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A467" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>6</x:v>
@@ -10094,7 +10109,7 @@
     </x:row>
     <x:row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A468" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>6</x:v>
@@ -10108,7 +10123,7 @@
     </x:row>
     <x:row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A469" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>6</x:v>
@@ -10122,7 +10137,7 @@
     </x:row>
     <x:row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A470" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>6</x:v>
@@ -10136,7 +10151,7 @@
     </x:row>
     <x:row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A471" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>6</x:v>
@@ -10150,7 +10165,7 @@
     </x:row>
     <x:row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A472" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>6</x:v>
@@ -10164,7 +10179,7 @@
     </x:row>
     <x:row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A473" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>6</x:v>
@@ -10178,7 +10193,7 @@
     </x:row>
     <x:row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A474" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>6</x:v>
@@ -10192,7 +10207,7 @@
     </x:row>
     <x:row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A475" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>6</x:v>
@@ -10206,7 +10221,7 @@
     </x:row>
     <x:row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A476" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>6</x:v>
@@ -10220,7 +10235,7 @@
     </x:row>
     <x:row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A477" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>6</x:v>
@@ -10234,7 +10249,7 @@
     </x:row>
     <x:row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A478" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>6</x:v>
@@ -10248,7 +10263,7 @@
     </x:row>
     <x:row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A479" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>6</x:v>
@@ -10262,7 +10277,7 @@
     </x:row>
     <x:row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A480" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>6</x:v>
@@ -10276,7 +10291,7 @@
     </x:row>
     <x:row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A481" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>6</x:v>
@@ -10290,7 +10305,7 @@
     </x:row>
     <x:row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A482" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>6</x:v>
@@ -10304,7 +10319,7 @@
     </x:row>
     <x:row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A483" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>6</x:v>
@@ -10318,7 +10333,7 @@
     </x:row>
     <x:row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A484" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>6</x:v>
@@ -10332,7 +10347,7 @@
     </x:row>
     <x:row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A485" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>6</x:v>
@@ -10346,7 +10361,7 @@
     </x:row>
     <x:row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A486" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>6</x:v>
@@ -10360,7 +10375,7 @@
     </x:row>
     <x:row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A487" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>6</x:v>
@@ -10374,7 +10389,7 @@
     </x:row>
     <x:row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A488" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>6</x:v>
@@ -10388,7 +10403,7 @@
     </x:row>
     <x:row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A489" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>6</x:v>
@@ -10402,7 +10417,7 @@
     </x:row>
     <x:row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A490" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>6</x:v>
@@ -10416,7 +10431,7 @@
     </x:row>
     <x:row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A491" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>6</x:v>
@@ -10430,7 +10445,7 @@
     </x:row>
     <x:row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A492" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>6</x:v>
@@ -10444,7 +10459,7 @@
     </x:row>
     <x:row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A493" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>6</x:v>
@@ -10458,7 +10473,7 @@
     </x:row>
     <x:row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A494" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>6</x:v>
@@ -10472,7 +10487,7 @@
     </x:row>
     <x:row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A495" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>6</x:v>
@@ -10486,7 +10501,7 @@
     </x:row>
     <x:row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A496" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>6</x:v>
@@ -10500,7 +10515,7 @@
     </x:row>
     <x:row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A497" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>6</x:v>
@@ -10514,7 +10529,7 @@
     </x:row>
     <x:row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A498" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>6</x:v>
@@ -10528,7 +10543,7 @@
     </x:row>
     <x:row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A499" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>6</x:v>
@@ -10542,7 +10557,7 @@
     </x:row>
     <x:row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A500" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>6</x:v>
@@ -10556,7 +10571,7 @@
     </x:row>
     <x:row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A501" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>6</x:v>
@@ -10570,7 +10585,7 @@
     </x:row>
     <x:row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A502" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>6</x:v>
@@ -10584,7 +10599,7 @@
     </x:row>
     <x:row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A503" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>6</x:v>
@@ -10598,7 +10613,7 @@
     </x:row>
     <x:row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A504" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>6</x:v>
@@ -10612,7 +10627,7 @@
     </x:row>
     <x:row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A505" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>6</x:v>
@@ -10626,7 +10641,7 @@
     </x:row>
     <x:row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A506" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>6</x:v>
@@ -10640,7 +10655,7 @@
     </x:row>
     <x:row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A507" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>6</x:v>
@@ -10654,7 +10669,7 @@
     </x:row>
     <x:row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A508" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>6</x:v>
@@ -10668,7 +10683,7 @@
     </x:row>
     <x:row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A509" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>6</x:v>
@@ -10682,7 +10697,7 @@
     </x:row>
     <x:row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A510" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>6</x:v>
@@ -10696,7 +10711,7 @@
     </x:row>
     <x:row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A511" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>6</x:v>
@@ -10710,7 +10725,7 @@
     </x:row>
     <x:row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A512" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>6</x:v>
@@ -10724,7 +10739,7 @@
     </x:row>
     <x:row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A513" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>6</x:v>
@@ -10738,7 +10753,7 @@
     </x:row>
     <x:row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A514" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>6</x:v>
@@ -10752,7 +10767,7 @@
     </x:row>
     <x:row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A515" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>6</x:v>
@@ -10766,7 +10781,7 @@
     </x:row>
     <x:row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A516" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>6</x:v>
@@ -10780,7 +10795,7 @@
     </x:row>
     <x:row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A517" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>6</x:v>
@@ -10794,7 +10809,7 @@
     </x:row>
     <x:row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A518" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>6</x:v>
@@ -10808,7 +10823,7 @@
     </x:row>
     <x:row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A519" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>6</x:v>
@@ -10822,7 +10837,7 @@
     </x:row>
     <x:row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A520" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>6</x:v>
@@ -10836,7 +10851,7 @@
     </x:row>
     <x:row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A521" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>6</x:v>
@@ -10850,7 +10865,7 @@
     </x:row>
     <x:row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A522" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>6</x:v>
@@ -10864,7 +10879,7 @@
     </x:row>
     <x:row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A523" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>6</x:v>
@@ -10878,7 +10893,7 @@
     </x:row>
     <x:row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A524" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>6</x:v>
@@ -10892,7 +10907,7 @@
     </x:row>
     <x:row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A525" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
         <x:v>6</x:v>
@@ -10906,7 +10921,7 @@
     </x:row>
     <x:row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A526" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
         <x:v>6</x:v>
@@ -10920,7 +10935,7 @@
     </x:row>
     <x:row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A527" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>6</x:v>
@@ -10934,7 +10949,7 @@
     </x:row>
     <x:row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A528" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>6</x:v>
@@ -10948,7 +10963,7 @@
     </x:row>
     <x:row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A529" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>6</x:v>
@@ -10962,7 +10977,7 @@
     </x:row>
     <x:row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A530" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>6</x:v>
@@ -10976,7 +10991,7 @@
     </x:row>
     <x:row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A531" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>6</x:v>
@@ -10990,7 +11005,7 @@
     </x:row>
     <x:row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A532" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>6</x:v>
@@ -11004,7 +11019,7 @@
     </x:row>
     <x:row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A533" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>6</x:v>
@@ -11018,7 +11033,7 @@
     </x:row>
     <x:row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A534" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>6</x:v>
@@ -11032,7 +11047,7 @@
     </x:row>
     <x:row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A535" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>6</x:v>
@@ -11046,7 +11061,7 @@
     </x:row>
     <x:row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A536" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>6</x:v>
@@ -11060,7 +11075,7 @@
     </x:row>
     <x:row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A537" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>6</x:v>
@@ -11074,7 +11089,7 @@
     </x:row>
     <x:row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A538" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>6</x:v>
@@ -11088,7 +11103,7 @@
     </x:row>
     <x:row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A539" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>6</x:v>
@@ -11102,7 +11117,7 @@
     </x:row>
     <x:row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A540" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>6</x:v>
@@ -11116,7 +11131,7 @@
     </x:row>
     <x:row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A541" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>6</x:v>
@@ -11130,7 +11145,7 @@
     </x:row>
     <x:row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A542" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>6</x:v>
@@ -11144,7 +11159,7 @@
     </x:row>
     <x:row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A543" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>6</x:v>
@@ -11158,7 +11173,7 @@
     </x:row>
     <x:row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A544" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>6</x:v>
@@ -11172,7 +11187,7 @@
     </x:row>
     <x:row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A545" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>6</x:v>
@@ -11186,7 +11201,7 @@
     </x:row>
     <x:row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A546" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>6</x:v>
@@ -11200,7 +11215,7 @@
     </x:row>
     <x:row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A547" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>6</x:v>
@@ -11214,7 +11229,7 @@
     </x:row>
     <x:row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A548" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>6</x:v>
@@ -11228,7 +11243,7 @@
     </x:row>
     <x:row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A549" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>6</x:v>
@@ -11242,7 +11257,7 @@
     </x:row>
     <x:row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A550" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>6</x:v>
@@ -11256,7 +11271,7 @@
     </x:row>
     <x:row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A551" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>6</x:v>
@@ -11270,7 +11285,7 @@
     </x:row>
     <x:row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A552" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>6</x:v>
@@ -11284,7 +11299,7 @@
     </x:row>
     <x:row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A553" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>6</x:v>
@@ -11298,7 +11313,7 @@
     </x:row>
     <x:row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A554" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>6</x:v>
@@ -11312,7 +11327,7 @@
     </x:row>
     <x:row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A555" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>6</x:v>
@@ -11326,7 +11341,7 @@
     </x:row>
     <x:row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A556" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>6</x:v>
@@ -11340,7 +11355,7 @@
     </x:row>
     <x:row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A557" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>6</x:v>
@@ -11354,7 +11369,7 @@
     </x:row>
     <x:row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A558" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>6</x:v>
@@ -11368,7 +11383,7 @@
     </x:row>
     <x:row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A559" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>6</x:v>
@@ -11382,7 +11397,7 @@
     </x:row>
     <x:row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A560" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>6</x:v>
@@ -11396,7 +11411,7 @@
     </x:row>
     <x:row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A561" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>6</x:v>
@@ -11410,7 +11425,7 @@
     </x:row>
     <x:row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A562" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>6</x:v>
@@ -11424,7 +11439,7 @@
     </x:row>
     <x:row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A563" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>6</x:v>
@@ -11438,7 +11453,7 @@
     </x:row>
     <x:row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A564" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>6</x:v>
@@ -11452,7 +11467,7 @@
     </x:row>
     <x:row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A565" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>6</x:v>
@@ -11466,7 +11481,7 @@
     </x:row>
     <x:row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A566" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>6</x:v>
@@ -11480,7 +11495,7 @@
     </x:row>
     <x:row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A567" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>6</x:v>
@@ -11494,7 +11509,7 @@
     </x:row>
     <x:row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A568" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>6</x:v>
@@ -11508,7 +11523,7 @@
     </x:row>
     <x:row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A569" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>6</x:v>
@@ -11522,7 +11537,7 @@
     </x:row>
     <x:row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A570" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>6</x:v>
@@ -11536,7 +11551,7 @@
     </x:row>
     <x:row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A571" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>6</x:v>
@@ -11550,7 +11565,7 @@
     </x:row>
     <x:row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A572" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>6</x:v>
@@ -11564,7 +11579,7 @@
     </x:row>
     <x:row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A573" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>6</x:v>
@@ -11578,7 +11593,7 @@
     </x:row>
     <x:row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A574" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>6</x:v>
@@ -11592,7 +11607,7 @@
     </x:row>
     <x:row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A575" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>6</x:v>
@@ -11606,7 +11621,7 @@
     </x:row>
     <x:row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A576" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>6</x:v>
@@ -11620,7 +11635,7 @@
     </x:row>
     <x:row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A577" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>6</x:v>
@@ -11634,7 +11649,7 @@
     </x:row>
     <x:row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A578" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>6</x:v>
@@ -11648,7 +11663,7 @@
     </x:row>
     <x:row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A579" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>6</x:v>
@@ -11662,7 +11677,7 @@
     </x:row>
     <x:row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A580" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>6</x:v>
@@ -11676,7 +11691,7 @@
     </x:row>
     <x:row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A581" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>6</x:v>
@@ -11690,7 +11705,7 @@
     </x:row>
     <x:row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A582" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>6</x:v>
@@ -11704,7 +11719,7 @@
     </x:row>
     <x:row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A583" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>6</x:v>
@@ -11718,7 +11733,7 @@
     </x:row>
     <x:row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A584" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>6</x:v>
@@ -11732,7 +11747,7 @@
     </x:row>
     <x:row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A585" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>6</x:v>
@@ -11746,7 +11761,7 @@
     </x:row>
     <x:row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A586" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>6</x:v>
@@ -11760,7 +11775,7 @@
     </x:row>
     <x:row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A587" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>6</x:v>
@@ -11774,7 +11789,7 @@
     </x:row>
     <x:row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A588" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>6</x:v>
@@ -11788,7 +11803,7 @@
     </x:row>
     <x:row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A589" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>6</x:v>
@@ -11802,7 +11817,7 @@
     </x:row>
     <x:row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A590" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>6</x:v>
@@ -11816,7 +11831,7 @@
     </x:row>
     <x:row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A591" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>6</x:v>
@@ -11830,7 +11845,7 @@
     </x:row>
     <x:row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A592" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>6</x:v>
@@ -11844,7 +11859,7 @@
     </x:row>
     <x:row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A593" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>6</x:v>
@@ -11858,7 +11873,7 @@
     </x:row>
     <x:row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A594" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>6</x:v>
@@ -11872,7 +11887,7 @@
     </x:row>
     <x:row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A595" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>6</x:v>
@@ -11886,7 +11901,7 @@
     </x:row>
     <x:row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A596" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>6</x:v>
@@ -11900,7 +11915,7 @@
     </x:row>
     <x:row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A597" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>6</x:v>
@@ -11914,7 +11929,7 @@
     </x:row>
     <x:row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A598" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>6</x:v>
@@ -11928,7 +11943,7 @@
     </x:row>
     <x:row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A599" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>6</x:v>
@@ -11942,7 +11957,7 @@
     </x:row>
     <x:row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A600" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>6</x:v>
@@ -11956,7 +11971,7 @@
     </x:row>
     <x:row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A601" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>6</x:v>
@@ -11970,7 +11985,7 @@
     </x:row>
     <x:row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A602" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>6</x:v>
@@ -11984,7 +11999,7 @@
     </x:row>
     <x:row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A603" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>6</x:v>
@@ -11998,7 +12013,7 @@
     </x:row>
     <x:row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A604" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>6</x:v>
@@ -12012,7 +12027,7 @@
     </x:row>
     <x:row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A605" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>6</x:v>
@@ -12026,7 +12041,7 @@
     </x:row>
     <x:row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A606" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>6</x:v>
@@ -12040,7 +12055,7 @@
     </x:row>
     <x:row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A607" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>6</x:v>
@@ -12054,7 +12069,7 @@
     </x:row>
     <x:row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A608" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>6</x:v>
@@ -12068,7 +12083,7 @@
     </x:row>
     <x:row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A609" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>6</x:v>
@@ -12082,7 +12097,7 @@
     </x:row>
     <x:row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A610" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>6</x:v>
@@ -12096,7 +12111,7 @@
     </x:row>
     <x:row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A611" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>6</x:v>
@@ -12110,7 +12125,7 @@
     </x:row>
     <x:row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A612" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>6</x:v>
@@ -12124,7 +12139,7 @@
     </x:row>
     <x:row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A613" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>6</x:v>
@@ -12138,7 +12153,7 @@
     </x:row>
     <x:row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A614" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>6</x:v>
@@ -12152,7 +12167,7 @@
     </x:row>
     <x:row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A615" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>6</x:v>
@@ -12166,7 +12181,7 @@
     </x:row>
     <x:row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A616" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>6</x:v>
@@ -12180,7 +12195,7 @@
     </x:row>
     <x:row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A617" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
         <x:v>6</x:v>
@@ -12194,7 +12209,7 @@
     </x:row>
     <x:row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A618" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>6</x:v>
@@ -12208,7 +12223,7 @@
     </x:row>
     <x:row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A619" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>6</x:v>
@@ -12222,7 +12237,7 @@
     </x:row>
     <x:row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A620" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>6</x:v>
@@ -12236,7 +12251,7 @@
     </x:row>
     <x:row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A621" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>6</x:v>
@@ -12250,7 +12265,7 @@
     </x:row>
     <x:row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A622" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>6</x:v>
@@ -12264,7 +12279,7 @@
     </x:row>
     <x:row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A623" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>6</x:v>
@@ -12278,7 +12293,7 @@
     </x:row>
     <x:row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A624" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>6</x:v>
@@ -12292,7 +12307,7 @@
     </x:row>
     <x:row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A625" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>6</x:v>
@@ -12306,7 +12321,7 @@
     </x:row>
     <x:row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A626" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>6</x:v>
@@ -12320,7 +12335,7 @@
     </x:row>
     <x:row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A627" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>6</x:v>
@@ -12334,7 +12349,7 @@
     </x:row>
     <x:row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A628" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>6</x:v>
@@ -12348,7 +12363,7 @@
     </x:row>
     <x:row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A629" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>6</x:v>
@@ -12362,7 +12377,7 @@
     </x:row>
     <x:row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A630" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>6</x:v>
@@ -12376,7 +12391,7 @@
     </x:row>
     <x:row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A631" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>6</x:v>
@@ -12390,7 +12405,7 @@
     </x:row>
     <x:row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A632" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>6</x:v>
@@ -12404,7 +12419,7 @@
     </x:row>
     <x:row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A633" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>6</x:v>
@@ -12418,7 +12433,7 @@
     </x:row>
     <x:row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A634" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>6</x:v>
@@ -12432,7 +12447,7 @@
     </x:row>
     <x:row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A635" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>6</x:v>
@@ -12446,7 +12461,7 @@
     </x:row>
     <x:row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A636" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>6</x:v>
@@ -12460,7 +12475,7 @@
     </x:row>
     <x:row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A637" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>6</x:v>
@@ -12474,7 +12489,7 @@
     </x:row>
     <x:row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A638" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>6</x:v>
@@ -12488,7 +12503,7 @@
     </x:row>
     <x:row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A639" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>6</x:v>
@@ -12502,7 +12517,7 @@
     </x:row>
     <x:row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A640" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>6</x:v>
@@ -12516,7 +12531,7 @@
     </x:row>
     <x:row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A641" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>6</x:v>
@@ -12530,7 +12545,7 @@
     </x:row>
     <x:row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A642" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>6</x:v>
@@ -12544,7 +12559,7 @@
     </x:row>
     <x:row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A643" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>6</x:v>
@@ -12558,7 +12573,7 @@
     </x:row>
     <x:row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A644" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>6</x:v>
@@ -12572,7 +12587,7 @@
     </x:row>
     <x:row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A645" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>6</x:v>
@@ -12586,7 +12601,7 @@
     </x:row>
     <x:row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A646" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>6</x:v>
@@ -12600,7 +12615,7 @@
     </x:row>
     <x:row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A647" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>6</x:v>
@@ -12614,7 +12629,7 @@
     </x:row>
     <x:row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A648" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>6</x:v>
@@ -12628,7 +12643,7 @@
     </x:row>
     <x:row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A649" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>6</x:v>
@@ -12642,7 +12657,7 @@
     </x:row>
     <x:row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A650" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>6</x:v>
@@ -12656,7 +12671,7 @@
     </x:row>
     <x:row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A651" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>6</x:v>
@@ -12670,7 +12685,7 @@
     </x:row>
     <x:row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A652" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>6</x:v>
@@ -12684,7 +12699,7 @@
     </x:row>
     <x:row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A653" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>6</x:v>
@@ -12698,7 +12713,7 @@
     </x:row>
     <x:row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A654" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>6</x:v>
@@ -12712,7 +12727,7 @@
     </x:row>
     <x:row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A655" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>6</x:v>
@@ -12726,7 +12741,7 @@
     </x:row>
     <x:row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A656" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>6</x:v>
@@ -12740,7 +12755,7 @@
     </x:row>
     <x:row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A657" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>6</x:v>
@@ -12754,7 +12769,7 @@
     </x:row>
     <x:row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A658" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>6</x:v>
@@ -12768,7 +12783,7 @@
     </x:row>
     <x:row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A659" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>6</x:v>
@@ -12782,7 +12797,7 @@
     </x:row>
     <x:row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A660" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>6</x:v>
@@ -12796,7 +12811,7 @@
     </x:row>
     <x:row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A661" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>6</x:v>
@@ -12810,7 +12825,7 @@
     </x:row>
     <x:row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A662" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>6</x:v>
@@ -12824,7 +12839,7 @@
     </x:row>
     <x:row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A663" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>6</x:v>
@@ -12838,7 +12853,7 @@
     </x:row>
     <x:row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A664" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>6</x:v>
@@ -12852,7 +12867,7 @@
     </x:row>
     <x:row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A665" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>6</x:v>
@@ -12866,7 +12881,7 @@
     </x:row>
     <x:row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A666" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>6</x:v>
@@ -12880,7 +12895,7 @@
     </x:row>
     <x:row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A667" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>6</x:v>
@@ -12894,7 +12909,7 @@
     </x:row>
     <x:row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A668" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>6</x:v>
@@ -12908,7 +12923,7 @@
     </x:row>
     <x:row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A669" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>6</x:v>
@@ -12922,7 +12937,7 @@
     </x:row>
     <x:row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A670" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>6</x:v>
@@ -12936,7 +12951,7 @@
     </x:row>
     <x:row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A671" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>6</x:v>
@@ -12950,7 +12965,7 @@
     </x:row>
     <x:row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A672" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>6</x:v>
@@ -12964,7 +12979,7 @@
     </x:row>
     <x:row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A673" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>6</x:v>
@@ -12978,7 +12993,7 @@
     </x:row>
     <x:row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A674" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>6</x:v>
@@ -12992,7 +13007,7 @@
     </x:row>
     <x:row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A675" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>6</x:v>
@@ -13006,7 +13021,7 @@
     </x:row>
     <x:row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A676" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>6</x:v>
@@ -13020,7 +13035,7 @@
     </x:row>
     <x:row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A677" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>6</x:v>
@@ -13034,7 +13049,7 @@
     </x:row>
     <x:row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A678" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>6</x:v>
@@ -13048,7 +13063,7 @@
     </x:row>
     <x:row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A679" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>6</x:v>
@@ -13062,7 +13077,7 @@
     </x:row>
     <x:row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A680" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>6</x:v>
@@ -13076,7 +13091,7 @@
     </x:row>
     <x:row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A681" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>6</x:v>
@@ -13090,7 +13105,7 @@
     </x:row>
     <x:row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A682" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>6</x:v>
@@ -13104,7 +13119,7 @@
     </x:row>
     <x:row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A683" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>6</x:v>
@@ -13118,7 +13133,7 @@
     </x:row>
     <x:row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A684" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>6</x:v>
@@ -13132,7 +13147,7 @@
     </x:row>
     <x:row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A685" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>6</x:v>
@@ -13146,7 +13161,7 @@
     </x:row>
     <x:row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A686" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>6</x:v>
@@ -13160,10 +13175,10 @@
     </x:row>
     <x:row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A687" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="C687" s="0" t="s">
         <x:v>6</x:v>
@@ -13174,7 +13189,7 @@
     </x:row>
     <x:row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A688" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>6</x:v>
@@ -13188,7 +13203,7 @@
     </x:row>
     <x:row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A689" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>6</x:v>
@@ -13202,7 +13217,7 @@
     </x:row>
     <x:row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A690" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>6</x:v>
@@ -13216,7 +13231,7 @@
     </x:row>
     <x:row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A691" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>6</x:v>
@@ -13230,7 +13245,7 @@
     </x:row>
     <x:row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A692" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>6</x:v>
@@ -13244,7 +13259,7 @@
     </x:row>
     <x:row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A693" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>6</x:v>
@@ -13258,7 +13273,7 @@
     </x:row>
     <x:row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A694" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>6</x:v>
@@ -13272,7 +13287,7 @@
     </x:row>
     <x:row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A695" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>6</x:v>
@@ -13286,7 +13301,7 @@
     </x:row>
     <x:row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A696" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>6</x:v>
@@ -13300,7 +13315,7 @@
     </x:row>
     <x:row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A697" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>6</x:v>
@@ -13314,7 +13329,7 @@
     </x:row>
     <x:row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A698" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>6</x:v>
@@ -13328,7 +13343,7 @@
     </x:row>
     <x:row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A699" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>6</x:v>
@@ -13342,7 +13357,7 @@
     </x:row>
     <x:row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A700" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>6</x:v>
@@ -13356,10 +13371,10 @@
     </x:row>
     <x:row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A701" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="C701" s="0" t="s">
         <x:v>6</x:v>
@@ -13370,7 +13385,7 @@
     </x:row>
     <x:row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A702" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>6</x:v>
@@ -13384,7 +13399,7 @@
     </x:row>
     <x:row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A703" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
         <x:v>6</x:v>
@@ -13398,7 +13413,7 @@
     </x:row>
     <x:row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A704" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
         <x:v>6</x:v>
@@ -13412,7 +13427,7 @@
     </x:row>
     <x:row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A705" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
         <x:v>6</x:v>
@@ -13426,7 +13441,7 @@
     </x:row>
     <x:row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A706" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
         <x:v>6</x:v>
@@ -13440,7 +13455,7 @@
     </x:row>
     <x:row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A707" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
         <x:v>6</x:v>
@@ -13454,7 +13469,7 @@
     </x:row>
     <x:row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A708" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
         <x:v>6</x:v>
@@ -13468,7 +13483,7 @@
     </x:row>
     <x:row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A709" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
         <x:v>6</x:v>
@@ -13482,7 +13497,7 @@
     </x:row>
     <x:row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A710" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
         <x:v>6</x:v>
@@ -13496,7 +13511,7 @@
     </x:row>
     <x:row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A711" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>6</x:v>
@@ -13510,7 +13525,7 @@
     </x:row>
     <x:row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A712" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>6</x:v>
@@ -13524,7 +13539,7 @@
     </x:row>
     <x:row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A713" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>6</x:v>
@@ -13538,7 +13553,7 @@
     </x:row>
     <x:row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A714" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>6</x:v>
@@ -13552,7 +13567,7 @@
     </x:row>
     <x:row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A715" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>6</x:v>
@@ -13566,7 +13581,7 @@
     </x:row>
     <x:row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A716" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>6</x:v>
@@ -13580,7 +13595,7 @@
     </x:row>
     <x:row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A717" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>6</x:v>
@@ -13594,7 +13609,7 @@
     </x:row>
     <x:row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A718" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>6</x:v>
@@ -13608,7 +13623,7 @@
     </x:row>
     <x:row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A719" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>6</x:v>
@@ -13622,7 +13637,7 @@
     </x:row>
     <x:row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A720" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>6</x:v>
@@ -13636,7 +13651,7 @@
     </x:row>
     <x:row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A721" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>6</x:v>
@@ -13650,7 +13665,7 @@
     </x:row>
     <x:row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A722" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>6</x:v>
@@ -13664,7 +13679,7 @@
     </x:row>
     <x:row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A723" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>6</x:v>
@@ -13678,7 +13693,7 @@
     </x:row>
     <x:row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A724" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>6</x:v>
@@ -13692,7 +13707,7 @@
     </x:row>
     <x:row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A725" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>6</x:v>
@@ -13706,7 +13721,7 @@
     </x:row>
     <x:row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A726" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>6</x:v>
@@ -13720,7 +13735,7 @@
     </x:row>
     <x:row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A727" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>6</x:v>
@@ -13734,7 +13749,7 @@
     </x:row>
     <x:row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A728" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>6</x:v>
@@ -13748,7 +13763,7 @@
     </x:row>
     <x:row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A729" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>6</x:v>
@@ -13762,7 +13777,7 @@
     </x:row>
     <x:row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A730" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>6</x:v>
@@ -13776,7 +13791,7 @@
     </x:row>
     <x:row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A731" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>6</x:v>
@@ -13790,7 +13805,7 @@
     </x:row>
     <x:row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A732" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>6</x:v>
@@ -13804,7 +13819,7 @@
     </x:row>
     <x:row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A733" s="0" t="s">
-        <x:v>788</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>6</x:v>
@@ -13818,7 +13833,7 @@
     </x:row>
     <x:row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A734" s="0" t="s">
-        <x:v>789</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>6</x:v>
@@ -13832,7 +13847,7 @@
     </x:row>
     <x:row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A735" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>6</x:v>
@@ -13846,7 +13861,7 @@
     </x:row>
     <x:row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A736" s="0" t="s">
-        <x:v>791</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>6</x:v>
@@ -13860,7 +13875,7 @@
     </x:row>
     <x:row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A737" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>6</x:v>
@@ -13874,7 +13889,7 @@
     </x:row>
     <x:row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A738" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
         <x:v>6</x:v>
@@ -13888,7 +13903,7 @@
     </x:row>
     <x:row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A739" s="0" t="s">
-        <x:v>794</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
         <x:v>6</x:v>
@@ -13902,7 +13917,7 @@
     </x:row>
     <x:row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A740" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>6</x:v>
@@ -13916,7 +13931,7 @@
     </x:row>
     <x:row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A741" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>6</x:v>
@@ -13930,7 +13945,7 @@
     </x:row>
     <x:row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A742" s="0" t="s">
-        <x:v>797</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>6</x:v>
@@ -13944,7 +13959,7 @@
     </x:row>
     <x:row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A743" s="0" t="s">
-        <x:v>798</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>6</x:v>
@@ -13958,7 +13973,7 @@
     </x:row>
     <x:row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A744" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>6</x:v>
@@ -13972,7 +13987,7 @@
     </x:row>
     <x:row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A745" s="0" t="s">
-        <x:v>800</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>6</x:v>
@@ -13986,7 +14001,7 @@
     </x:row>
     <x:row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A746" s="0" t="s">
-        <x:v>801</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>6</x:v>
@@ -14000,7 +14015,7 @@
     </x:row>
     <x:row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A747" s="0" t="s">
-        <x:v>802</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>6</x:v>
@@ -14014,7 +14029,7 @@
     </x:row>
     <x:row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A748" s="0" t="s">
-        <x:v>803</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>6</x:v>
@@ -14028,7 +14043,7 @@
     </x:row>
     <x:row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A749" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>6</x:v>
@@ -14042,7 +14057,7 @@
     </x:row>
     <x:row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A750" s="0" t="s">
-        <x:v>805</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>6</x:v>
@@ -14056,7 +14071,7 @@
     </x:row>
     <x:row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A751" s="0" t="s">
-        <x:v>806</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>6</x:v>
@@ -14070,7 +14085,7 @@
     </x:row>
     <x:row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A752" s="0" t="s">
-        <x:v>807</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>6</x:v>
@@ -14084,7 +14099,7 @@
     </x:row>
     <x:row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A753" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>6</x:v>
@@ -14098,7 +14113,7 @@
     </x:row>
     <x:row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A754" s="0" t="s">
-        <x:v>809</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>6</x:v>
@@ -14112,7 +14127,7 @@
     </x:row>
     <x:row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A755" s="0" t="s">
-        <x:v>810</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>6</x:v>
@@ -14126,7 +14141,7 @@
     </x:row>
     <x:row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A756" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>6</x:v>
@@ -14140,7 +14155,7 @@
     </x:row>
     <x:row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A757" s="0" t="s">
-        <x:v>812</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>6</x:v>
@@ -14154,7 +14169,7 @@
     </x:row>
     <x:row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A758" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>6</x:v>
@@ -14168,7 +14183,7 @@
     </x:row>
     <x:row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A759" s="0" t="s">
-        <x:v>814</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>6</x:v>
@@ -14182,7 +14197,7 @@
     </x:row>
     <x:row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A760" s="0" t="s">
-        <x:v>815</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>6</x:v>
@@ -14196,7 +14211,7 @@
     </x:row>
     <x:row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A761" s="0" t="s">
-        <x:v>816</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>6</x:v>
@@ -14210,7 +14225,7 @@
     </x:row>
     <x:row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A762" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>6</x:v>
@@ -14224,7 +14239,7 @@
     </x:row>
     <x:row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A763" s="0" t="s">
-        <x:v>818</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>6</x:v>
@@ -14238,7 +14253,7 @@
     </x:row>
     <x:row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A764" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>6</x:v>
@@ -14252,7 +14267,7 @@
     </x:row>
     <x:row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A765" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>6</x:v>
@@ -14266,7 +14281,7 @@
     </x:row>
     <x:row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A766" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>6</x:v>
@@ -14280,7 +14295,7 @@
     </x:row>
     <x:row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A767" s="0" t="s">
-        <x:v>822</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>6</x:v>
@@ -14294,7 +14309,7 @@
     </x:row>
     <x:row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A768" s="0" t="s">
-        <x:v>823</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>6</x:v>
@@ -14308,7 +14323,7 @@
     </x:row>
     <x:row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A769" s="0" t="s">
-        <x:v>824</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="B769" s="0" t="s">
         <x:v>6</x:v>
@@ -14322,7 +14337,7 @@
     </x:row>
     <x:row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A770" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="B770" s="0" t="s">
         <x:v>6</x:v>
@@ -14336,7 +14351,7 @@
     </x:row>
     <x:row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A771" s="0" t="s">
-        <x:v>826</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="B771" s="0" t="s">
         <x:v>6</x:v>
@@ -14350,7 +14365,7 @@
     </x:row>
     <x:row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A772" s="0" t="s">
-        <x:v>827</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="B772" s="0" t="s">
         <x:v>6</x:v>
@@ -14364,7 +14379,7 @@
     </x:row>
     <x:row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A773" s="0" t="s">
-        <x:v>828</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
         <x:v>6</x:v>
@@ -14378,7 +14393,7 @@
     </x:row>
     <x:row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A774" s="0" t="s">
-        <x:v>829</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B774" s="0" t="s">
         <x:v>6</x:v>
@@ -14392,7 +14407,7 @@
     </x:row>
     <x:row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A775" s="0" t="s">
-        <x:v>830</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="B775" s="0" t="s">
         <x:v>6</x:v>
@@ -14406,7 +14421,7 @@
     </x:row>
     <x:row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A776" s="0" t="s">
-        <x:v>831</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
         <x:v>6</x:v>
@@ -14420,7 +14435,7 @@
     </x:row>
     <x:row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A777" s="0" t="s">
-        <x:v>832</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B777" s="0" t="s">
         <x:v>6</x:v>
@@ -14434,7 +14449,7 @@
     </x:row>
     <x:row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A778" s="0" t="s">
-        <x:v>833</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="B778" s="0" t="s">
         <x:v>6</x:v>
@@ -14448,7 +14463,7 @@
     </x:row>
     <x:row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A779" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
         <x:v>6</x:v>
@@ -14462,7 +14477,7 @@
     </x:row>
     <x:row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A780" s="0" t="s">
-        <x:v>835</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="B780" s="0" t="s">
         <x:v>6</x:v>
@@ -14476,7 +14491,7 @@
     </x:row>
     <x:row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A781" s="0" t="s">
-        <x:v>836</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
         <x:v>6</x:v>
@@ -14490,7 +14505,7 @@
     </x:row>
     <x:row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A782" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="B782" s="0" t="s">
         <x:v>6</x:v>
@@ -14504,7 +14519,7 @@
     </x:row>
     <x:row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A783" s="0" t="s">
-        <x:v>838</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="B783" s="0" t="s">
         <x:v>6</x:v>
@@ -14518,7 +14533,7 @@
     </x:row>
     <x:row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A784" s="0" t="s">
-        <x:v>839</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
         <x:v>6</x:v>
@@ -14532,7 +14547,7 @@
     </x:row>
     <x:row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A785" s="0" t="s">
-        <x:v>840</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="B785" s="0" t="s">
         <x:v>6</x:v>
@@ -14546,7 +14561,7 @@
     </x:row>
     <x:row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A786" s="0" t="s">
-        <x:v>841</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
         <x:v>6</x:v>
@@ -14560,7 +14575,7 @@
     </x:row>
     <x:row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A787" s="0" t="s">
-        <x:v>842</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="B787" s="0" t="s">
         <x:v>6</x:v>
@@ -14574,7 +14589,7 @@
     </x:row>
     <x:row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A788" s="0" t="s">
-        <x:v>843</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="B788" s="0" t="s">
         <x:v>6</x:v>
@@ -14588,7 +14603,7 @@
     </x:row>
     <x:row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A789" s="0" t="s">
-        <x:v>844</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
         <x:v>6</x:v>
@@ -14602,7 +14617,7 @@
     </x:row>
     <x:row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A790" s="0" t="s">
-        <x:v>845</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="B790" s="0" t="s">
         <x:v>6</x:v>
@@ -14616,7 +14631,7 @@
     </x:row>
     <x:row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A791" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="B791" s="0" t="s">
         <x:v>6</x:v>
@@ -14630,7 +14645,7 @@
     </x:row>
     <x:row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A792" s="0" t="s">
-        <x:v>847</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
         <x:v>6</x:v>
@@ -14644,7 +14659,7 @@
     </x:row>
     <x:row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A793" s="0" t="s">
-        <x:v>848</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="B793" s="0" t="s">
         <x:v>6</x:v>
@@ -14658,7 +14673,7 @@
     </x:row>
     <x:row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A794" s="0" t="s">
-        <x:v>849</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="B794" s="0" t="s">
         <x:v>6</x:v>
@@ -14672,7 +14687,7 @@
     </x:row>
     <x:row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A795" s="0" t="s">
-        <x:v>850</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
         <x:v>6</x:v>
@@ -14686,7 +14701,7 @@
     </x:row>
     <x:row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A796" s="0" t="s">
-        <x:v>851</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="B796" s="0" t="s">
         <x:v>6</x:v>
@@ -14700,7 +14715,7 @@
     </x:row>
     <x:row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A797" s="0" t="s">
-        <x:v>852</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="B797" s="0" t="s">
         <x:v>6</x:v>
@@ -14714,7 +14729,7 @@
     </x:row>
     <x:row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A798" s="0" t="s">
-        <x:v>853</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
         <x:v>6</x:v>
@@ -14728,7 +14743,7 @@
     </x:row>
     <x:row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A799" s="0" t="s">
-        <x:v>854</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="B799" s="0" t="s">
         <x:v>6</x:v>
@@ -14742,7 +14757,7 @@
     </x:row>
     <x:row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A800" s="0" t="s">
-        <x:v>855</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="B800" s="0" t="s">
         <x:v>6</x:v>
@@ -14756,7 +14771,7 @@
     </x:row>
     <x:row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A801" s="0" t="s">
-        <x:v>856</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
         <x:v>6</x:v>
@@ -14770,7 +14785,7 @@
     </x:row>
     <x:row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A802" s="0" t="s">
-        <x:v>857</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="B802" s="0" t="s">
         <x:v>6</x:v>
@@ -14784,7 +14799,7 @@
     </x:row>
     <x:row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A803" s="0" t="s">
-        <x:v>858</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="B803" s="0" t="s">
         <x:v>6</x:v>
@@ -14798,7 +14813,7 @@
     </x:row>
     <x:row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A804" s="0" t="s">
-        <x:v>859</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
         <x:v>6</x:v>
@@ -14812,7 +14827,7 @@
     </x:row>
     <x:row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A805" s="0" t="s">
-        <x:v>860</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="B805" s="0" t="s">
         <x:v>6</x:v>
@@ -14826,7 +14841,7 @@
     </x:row>
     <x:row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A806" s="0" t="s">
-        <x:v>861</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="B806" s="0" t="s">
         <x:v>6</x:v>
@@ -14840,7 +14855,7 @@
     </x:row>
     <x:row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A807" s="0" t="s">
-        <x:v>862</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
         <x:v>6</x:v>
@@ -14854,7 +14869,7 @@
     </x:row>
     <x:row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A808" s="0" t="s">
-        <x:v>863</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="B808" s="0" t="s">
         <x:v>6</x:v>
@@ -14868,7 +14883,7 @@
     </x:row>
     <x:row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A809" s="0" t="s">
-        <x:v>864</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="B809" s="0" t="s">
         <x:v>6</x:v>
@@ -14882,7 +14897,7 @@
     </x:row>
     <x:row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A810" s="0" t="s">
-        <x:v>865</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
         <x:v>6</x:v>
@@ -14896,7 +14911,7 @@
     </x:row>
     <x:row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A811" s="0" t="s">
-        <x:v>866</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="B811" s="0" t="s">
         <x:v>6</x:v>
@@ -14910,7 +14925,7 @@
     </x:row>
     <x:row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A812" s="0" t="s">
-        <x:v>867</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="B812" s="0" t="s">
         <x:v>6</x:v>
@@ -14924,7 +14939,7 @@
     </x:row>
     <x:row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A813" s="0" t="s">
-        <x:v>868</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="B813" s="0" t="s">
         <x:v>6</x:v>
@@ -14938,7 +14953,7 @@
     </x:row>
     <x:row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A814" s="0" t="s">
-        <x:v>869</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="B814" s="0" t="s">
         <x:v>6</x:v>
@@ -14952,7 +14967,7 @@
     </x:row>
     <x:row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A815" s="0" t="s">
-        <x:v>870</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="B815" s="0" t="s">
         <x:v>6</x:v>
@@ -14966,7 +14981,7 @@
     </x:row>
     <x:row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A816" s="0" t="s">
-        <x:v>871</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="B816" s="0" t="s">
         <x:v>6</x:v>
@@ -14980,7 +14995,7 @@
     </x:row>
     <x:row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A817" s="0" t="s">
-        <x:v>872</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="B817" s="0" t="s">
         <x:v>6</x:v>
@@ -14994,7 +15009,7 @@
     </x:row>
     <x:row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A818" s="0" t="s">
-        <x:v>873</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="B818" s="0" t="s">
         <x:v>6</x:v>
@@ -15008,7 +15023,7 @@
     </x:row>
     <x:row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A819" s="0" t="s">
-        <x:v>874</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="B819" s="0" t="s">
         <x:v>6</x:v>
@@ -15022,7 +15037,7 @@
     </x:row>
     <x:row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A820" s="0" t="s">
-        <x:v>875</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="B820" s="0" t="s">
         <x:v>6</x:v>
@@ -15036,7 +15051,7 @@
     </x:row>
     <x:row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A821" s="0" t="s">
-        <x:v>876</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="B821" s="0" t="s">
         <x:v>6</x:v>
@@ -15050,7 +15065,7 @@
     </x:row>
     <x:row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A822" s="0" t="s">
-        <x:v>877</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
         <x:v>6</x:v>
@@ -15064,7 +15079,7 @@
     </x:row>
     <x:row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A823" s="0" t="s">
-        <x:v>878</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="B823" s="0" t="s">
         <x:v>6</x:v>
@@ -15078,7 +15093,7 @@
     </x:row>
     <x:row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A824" s="0" t="s">
-        <x:v>879</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="B824" s="0" t="s">
         <x:v>6</x:v>
@@ -15092,7 +15107,7 @@
     </x:row>
     <x:row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A825" s="0" t="s">
-        <x:v>880</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
         <x:v>6</x:v>
@@ -15106,7 +15121,7 @@
     </x:row>
     <x:row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A826" s="0" t="s">
-        <x:v>881</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="B826" s="0" t="s">
         <x:v>6</x:v>
@@ -15120,7 +15135,7 @@
     </x:row>
     <x:row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A827" s="0" t="s">
-        <x:v>882</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="B827" s="0" t="s">
         <x:v>6</x:v>
@@ -15134,7 +15149,7 @@
     </x:row>
     <x:row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A828" s="0" t="s">
-        <x:v>883</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
         <x:v>6</x:v>
@@ -15148,7 +15163,7 @@
     </x:row>
     <x:row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A829" s="0" t="s">
-        <x:v>884</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="B829" s="0" t="s">
         <x:v>6</x:v>
@@ -15162,7 +15177,7 @@
     </x:row>
     <x:row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A830" s="0" t="s">
-        <x:v>885</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="B830" s="0" t="s">
         <x:v>6</x:v>
@@ -15176,7 +15191,7 @@
     </x:row>
     <x:row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A831" s="0" t="s">
-        <x:v>886</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
         <x:v>6</x:v>
@@ -15190,7 +15205,7 @@
     </x:row>
     <x:row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A832" s="0" t="s">
-        <x:v>887</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="B832" s="0" t="s">
         <x:v>6</x:v>
@@ -15204,7 +15219,7 @@
     </x:row>
     <x:row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A833" s="0" t="s">
-        <x:v>888</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="B833" s="0" t="s">
         <x:v>6</x:v>
@@ -15218,7 +15233,7 @@
     </x:row>
     <x:row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A834" s="0" t="s">
-        <x:v>889</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
         <x:v>6</x:v>
@@ -15232,7 +15247,7 @@
     </x:row>
     <x:row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A835" s="0" t="s">
-        <x:v>890</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="B835" s="0" t="s">
         <x:v>6</x:v>
@@ -15246,7 +15261,7 @@
     </x:row>
     <x:row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A836" s="0" t="s">
-        <x:v>891</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="B836" s="0" t="s">
         <x:v>6</x:v>
@@ -15260,7 +15275,7 @@
     </x:row>
     <x:row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A837" s="0" t="s">
-        <x:v>892</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
         <x:v>6</x:v>
@@ -15274,7 +15289,7 @@
     </x:row>
     <x:row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A838" s="0" t="s">
-        <x:v>893</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="B838" s="0" t="s">
         <x:v>6</x:v>
@@ -15288,7 +15303,7 @@
     </x:row>
     <x:row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A839" s="0" t="s">
-        <x:v>894</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="B839" s="0" t="s">
         <x:v>6</x:v>
@@ -15302,7 +15317,7 @@
     </x:row>
     <x:row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A840" s="0" t="s">
-        <x:v>895</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
         <x:v>6</x:v>
@@ -15316,7 +15331,7 @@
     </x:row>
     <x:row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A841" s="0" t="s">
-        <x:v>896</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="B841" s="0" t="s">
         <x:v>6</x:v>
@@ -15330,7 +15345,7 @@
     </x:row>
     <x:row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A842" s="0" t="s">
-        <x:v>897</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
         <x:v>6</x:v>
@@ -15344,7 +15359,7 @@
     </x:row>
     <x:row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A843" s="0" t="s">
-        <x:v>898</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
         <x:v>6</x:v>
@@ -15358,7 +15373,7 @@
     </x:row>
     <x:row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A844" s="0" t="s">
-        <x:v>899</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="B844" s="0" t="s">
         <x:v>6</x:v>
@@ -15372,7 +15387,7 @@
     </x:row>
     <x:row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A845" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="B845" s="0" t="s">
         <x:v>6</x:v>
@@ -15386,7 +15401,7 @@
     </x:row>
     <x:row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A846" s="0" t="s">
-        <x:v>901</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
         <x:v>6</x:v>
@@ -15400,7 +15415,7 @@
     </x:row>
     <x:row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A847" s="0" t="s">
-        <x:v>902</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="B847" s="0" t="s">
         <x:v>6</x:v>
@@ -15414,7 +15429,7 @@
     </x:row>
     <x:row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A848" s="0" t="s">
-        <x:v>903</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B848" s="0" t="s">
         <x:v>6</x:v>
@@ -15428,7 +15443,7 @@
     </x:row>
     <x:row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A849" s="0" t="s">
-        <x:v>904</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
         <x:v>6</x:v>
@@ -15442,7 +15457,7 @@
     </x:row>
     <x:row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A850" s="0" t="s">
-        <x:v>905</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="B850" s="0" t="s">
         <x:v>6</x:v>
@@ -15456,7 +15471,7 @@
     </x:row>
     <x:row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A851" s="0" t="s">
-        <x:v>906</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
         <x:v>6</x:v>
@@ -15470,7 +15485,7 @@
     </x:row>
     <x:row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A852" s="0" t="s">
-        <x:v>907</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
         <x:v>6</x:v>
@@ -15484,7 +15499,7 @@
     </x:row>
     <x:row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A853" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="B853" s="0" t="s">
         <x:v>6</x:v>
@@ -15498,7 +15513,7 @@
     </x:row>
     <x:row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A854" s="0" t="s">
-        <x:v>909</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
         <x:v>6</x:v>
@@ -15512,7 +15527,7 @@
     </x:row>
     <x:row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A855" s="0" t="s">
-        <x:v>910</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
         <x:v>6</x:v>
@@ -15526,7 +15541,7 @@
     </x:row>
     <x:row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A856" s="0" t="s">
-        <x:v>911</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="B856" s="0" t="s">
         <x:v>6</x:v>
@@ -15540,7 +15555,7 @@
     </x:row>
     <x:row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A857" s="0" t="s">
-        <x:v>912</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
         <x:v>6</x:v>
@@ -15554,7 +15569,7 @@
     </x:row>
     <x:row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A858" s="0" t="s">
-        <x:v>913</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="B858" s="0" t="s">
         <x:v>6</x:v>
@@ -15568,7 +15583,7 @@
     </x:row>
     <x:row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A859" s="0" t="s">
-        <x:v>914</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="B859" s="0" t="s">
         <x:v>6</x:v>
@@ -15582,7 +15597,7 @@
     </x:row>
     <x:row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A860" s="0" t="s">
-        <x:v>915</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
         <x:v>6</x:v>
@@ -15596,7 +15611,7 @@
     </x:row>
     <x:row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A861" s="0" t="s">
-        <x:v>916</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
         <x:v>6</x:v>
@@ -15610,7 +15625,7 @@
     </x:row>
     <x:row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A862" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
         <x:v>6</x:v>
@@ -15624,7 +15639,7 @@
     </x:row>
     <x:row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A863" s="0" t="s">
-        <x:v>918</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
         <x:v>6</x:v>
@@ -15638,7 +15653,7 @@
     </x:row>
     <x:row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A864" s="0" t="s">
-        <x:v>919</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
         <x:v>6</x:v>
@@ -15652,7 +15667,7 @@
     </x:row>
     <x:row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A865" s="0" t="s">
-        <x:v>920</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
         <x:v>6</x:v>
@@ -15666,7 +15681,7 @@
     </x:row>
     <x:row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A866" s="0" t="s">
-        <x:v>921</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
         <x:v>6</x:v>
@@ -15680,7 +15695,7 @@
     </x:row>
     <x:row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A867" s="0" t="s">
-        <x:v>922</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="B867" s="0" t="s">
         <x:v>6</x:v>
@@ -15694,7 +15709,7 @@
     </x:row>
     <x:row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A868" s="0" t="s">
-        <x:v>923</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
         <x:v>6</x:v>
@@ -15708,7 +15723,7 @@
     </x:row>
     <x:row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A869" s="0" t="s">
-        <x:v>924</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
         <x:v>6</x:v>
@@ -15722,7 +15737,7 @@
     </x:row>
     <x:row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A870" s="0" t="s">
-        <x:v>925</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
         <x:v>6</x:v>
@@ -15736,7 +15751,7 @@
     </x:row>
     <x:row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A871" s="0" t="s">
-        <x:v>926</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
         <x:v>6</x:v>
@@ -15750,7 +15765,7 @@
     </x:row>
     <x:row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A872" s="0" t="s">
-        <x:v>927</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="B872" s="0" t="s">
         <x:v>6</x:v>
@@ -15764,7 +15779,7 @@
     </x:row>
     <x:row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A873" s="0" t="s">
-        <x:v>928</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
         <x:v>6</x:v>
@@ -15778,7 +15793,7 @@
     </x:row>
     <x:row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A874" s="0" t="s">
-        <x:v>929</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="B874" s="0" t="s">
         <x:v>6</x:v>
@@ -15792,7 +15807,7 @@
     </x:row>
     <x:row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A875" s="0" t="s">
-        <x:v>930</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
         <x:v>6</x:v>
@@ -15806,7 +15821,7 @@
     </x:row>
     <x:row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A876" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
         <x:v>6</x:v>
@@ -15820,7 +15835,7 @@
     </x:row>
     <x:row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A877" s="0" t="s">
-        <x:v>932</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
         <x:v>6</x:v>
@@ -15834,7 +15849,7 @@
     </x:row>
     <x:row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A878" s="0" t="s">
-        <x:v>933</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
         <x:v>6</x:v>
@@ -15848,7 +15863,7 @@
     </x:row>
     <x:row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A879" s="0" t="s">
-        <x:v>934</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
         <x:v>6</x:v>
@@ -15862,7 +15877,7 @@
     </x:row>
     <x:row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A880" s="0" t="s">
-        <x:v>935</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
         <x:v>6</x:v>
@@ -15876,7 +15891,7 @@
     </x:row>
     <x:row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A881" s="0" t="s">
-        <x:v>936</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
         <x:v>6</x:v>
@@ -15890,7 +15905,7 @@
     </x:row>
     <x:row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A882" s="0" t="s">
-        <x:v>937</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
         <x:v>6</x:v>
@@ -15904,7 +15919,7 @@
     </x:row>
     <x:row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A883" s="0" t="s">
-        <x:v>938</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
         <x:v>6</x:v>
@@ -15918,7 +15933,7 @@
     </x:row>
     <x:row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A884" s="0" t="s">
-        <x:v>939</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
         <x:v>6</x:v>
@@ -15932,7 +15947,7 @@
     </x:row>
     <x:row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A885" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
         <x:v>6</x:v>
@@ -15946,7 +15961,7 @@
     </x:row>
     <x:row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A886" s="0" t="s">
-        <x:v>941</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
         <x:v>6</x:v>
@@ -15960,7 +15975,7 @@
     </x:row>
     <x:row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A887" s="0" t="s">
-        <x:v>942</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
         <x:v>6</x:v>
@@ -15974,7 +15989,7 @@
     </x:row>
     <x:row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A888" s="0" t="s">
-        <x:v>943</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
         <x:v>6</x:v>
@@ -15988,7 +16003,7 @@
     </x:row>
     <x:row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A889" s="0" t="s">
-        <x:v>944</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
         <x:v>6</x:v>
@@ -16002,7 +16017,7 @@
     </x:row>
     <x:row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A890" s="0" t="s">
-        <x:v>945</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
         <x:v>6</x:v>
@@ -16016,7 +16031,7 @@
     </x:row>
     <x:row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A891" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
         <x:v>6</x:v>
@@ -16030,7 +16045,7 @@
     </x:row>
     <x:row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A892" s="0" t="s">
-        <x:v>947</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>6</x:v>
@@ -16044,7 +16059,7 @@
     </x:row>
     <x:row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A893" s="0" t="s">
-        <x:v>948</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>6</x:v>
@@ -16058,7 +16073,7 @@
     </x:row>
     <x:row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A894" s="0" t="s">
-        <x:v>949</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>6</x:v>
@@ -16072,7 +16087,7 @@
     </x:row>
     <x:row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A895" s="0" t="s">
-        <x:v>950</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>6</x:v>
@@ -16086,7 +16101,7 @@
     </x:row>
     <x:row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A896" s="0" t="s">
-        <x:v>951</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>6</x:v>
@@ -16100,7 +16115,7 @@
     </x:row>
     <x:row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A897" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>6</x:v>
@@ -16114,7 +16129,7 @@
     </x:row>
     <x:row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A898" s="0" t="s">
-        <x:v>953</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>6</x:v>
@@ -16128,7 +16143,7 @@
     </x:row>
     <x:row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A899" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>6</x:v>
@@ -16142,7 +16157,7 @@
     </x:row>
     <x:row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A900" s="0" t="s">
-        <x:v>955</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>6</x:v>
@@ -16156,7 +16171,7 @@
     </x:row>
     <x:row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A901" s="0" t="s">
-        <x:v>956</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>6</x:v>
@@ -16170,7 +16185,7 @@
     </x:row>
     <x:row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A902" s="0" t="s">
-        <x:v>957</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>6</x:v>
@@ -16184,7 +16199,7 @@
     </x:row>
     <x:row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A903" s="0" t="s">
-        <x:v>958</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>6</x:v>
@@ -16198,7 +16213,7 @@
     </x:row>
     <x:row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A904" s="0" t="s">
-        <x:v>959</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>6</x:v>
@@ -16212,7 +16227,7 @@
     </x:row>
     <x:row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A905" s="0" t="s">
-        <x:v>960</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>6</x:v>
@@ -16226,7 +16241,7 @@
     </x:row>
     <x:row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A906" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>6</x:v>
@@ -16240,7 +16255,7 @@
     </x:row>
     <x:row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A907" s="0" t="s">
-        <x:v>962</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>6</x:v>
@@ -16254,7 +16269,7 @@
     </x:row>
     <x:row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A908" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>6</x:v>
@@ -16268,7 +16283,7 @@
     </x:row>
     <x:row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A909" s="0" t="s">
-        <x:v>964</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>6</x:v>
@@ -16282,7 +16297,7 @@
     </x:row>
     <x:row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A910" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>6</x:v>
@@ -16296,7 +16311,7 @@
     </x:row>
     <x:row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A911" s="0" t="s">
-        <x:v>966</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>6</x:v>
@@ -16310,7 +16325,7 @@
     </x:row>
     <x:row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A912" s="0" t="s">
-        <x:v>967</x:v>
+        <x:v>972</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>6</x:v>
@@ -16324,7 +16339,7 @@
     </x:row>
     <x:row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A913" s="0" t="s">
-        <x:v>968</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>6</x:v>
@@ -16338,7 +16353,7 @@
     </x:row>
     <x:row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A914" s="0" t="s">
-        <x:v>969</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>6</x:v>
@@ -16352,7 +16367,7 @@
     </x:row>
     <x:row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A915" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>6</x:v>
@@ -16366,7 +16381,7 @@
     </x:row>
     <x:row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A916" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>6</x:v>
@@ -16380,7 +16395,7 @@
     </x:row>
     <x:row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A917" s="0" t="s">
-        <x:v>972</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>6</x:v>
@@ -16394,7 +16409,7 @@
     </x:row>
     <x:row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A918" s="0" t="s">
-        <x:v>973</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>6</x:v>
@@ -16408,7 +16423,7 @@
     </x:row>
     <x:row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A919" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>979</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>6</x:v>
@@ -16422,7 +16437,7 @@
     </x:row>
     <x:row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A920" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>6</x:v>
@@ -16436,7 +16451,7 @@
     </x:row>
     <x:row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A921" s="0" t="s">
-        <x:v>976</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>6</x:v>
@@ -16450,7 +16465,7 @@
     </x:row>
     <x:row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A922" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>6</x:v>
@@ -16464,7 +16479,7 @@
     </x:row>
     <x:row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A923" s="0" t="s">
-        <x:v>978</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>6</x:v>
@@ -16478,7 +16493,7 @@
     </x:row>
     <x:row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A924" s="0" t="s">
-        <x:v>979</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>6</x:v>
@@ -16492,7 +16507,7 @@
     </x:row>
     <x:row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A925" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>6</x:v>
@@ -16506,7 +16521,7 @@
     </x:row>
     <x:row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A926" s="0" t="s">
-        <x:v>981</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>6</x:v>
@@ -16520,7 +16535,7 @@
     </x:row>
     <x:row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A927" s="0" t="s">
-        <x:v>982</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>6</x:v>
@@ -16534,7 +16549,7 @@
     </x:row>
     <x:row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A928" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>6</x:v>
@@ -16548,7 +16563,7 @@
     </x:row>
     <x:row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A929" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>6</x:v>
@@ -16562,7 +16577,7 @@
     </x:row>
     <x:row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A930" s="0" t="s">
-        <x:v>985</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>6</x:v>
@@ -16576,7 +16591,7 @@
     </x:row>
     <x:row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A931" s="0" t="s">
-        <x:v>986</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>6</x:v>
@@ -16590,7 +16605,7 @@
     </x:row>
     <x:row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A932" s="0" t="s">
-        <x:v>987</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>6</x:v>
@@ -16604,7 +16619,7 @@
     </x:row>
     <x:row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A933" s="0" t="s">
-        <x:v>988</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>6</x:v>
@@ -16618,7 +16633,7 @@
     </x:row>
     <x:row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A934" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>6</x:v>
@@ -16632,7 +16647,7 @@
     </x:row>
     <x:row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A935" s="0" t="s">
-        <x:v>990</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>6</x:v>
@@ -16646,7 +16661,7 @@
     </x:row>
     <x:row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A936" s="0" t="s">
-        <x:v>991</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>6</x:v>
@@ -16660,7 +16675,7 @@
     </x:row>
     <x:row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A937" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>6</x:v>
@@ -16674,7 +16689,7 @@
     </x:row>
     <x:row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A938" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>6</x:v>
@@ -16688,7 +16703,7 @@
     </x:row>
     <x:row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A939" s="0" t="s">
-        <x:v>994</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>6</x:v>
@@ -16702,7 +16717,7 @@
     </x:row>
     <x:row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A940" s="0" t="s">
-        <x:v>995</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>6</x:v>
@@ -16716,7 +16731,7 @@
     </x:row>
     <x:row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A941" s="0" t="s">
-        <x:v>996</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>6</x:v>
@@ -16730,7 +16745,7 @@
     </x:row>
     <x:row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A942" s="0" t="s">
-        <x:v>997</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>6</x:v>
@@ -16744,7 +16759,7 @@
     </x:row>
     <x:row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A943" s="0" t="s">
-        <x:v>998</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>6</x:v>
@@ -16758,7 +16773,7 @@
     </x:row>
     <x:row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A944" s="0" t="s">
-        <x:v>999</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>6</x:v>
@@ -16772,7 +16787,7 @@
     </x:row>
     <x:row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A945" s="0" t="s">
-        <x:v>1000</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>6</x:v>
@@ -16786,7 +16801,7 @@
     </x:row>
     <x:row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A946" s="0" t="s">
-        <x:v>1001</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>6</x:v>
@@ -16800,7 +16815,7 @@
     </x:row>
     <x:row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A947" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>6</x:v>
@@ -16814,7 +16829,7 @@
     </x:row>
     <x:row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A948" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>6</x:v>
@@ -16828,7 +16843,7 @@
     </x:row>
     <x:row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A949" s="0" t="s">
-        <x:v>1004</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>6</x:v>
@@ -16842,7 +16857,7 @@
     </x:row>
     <x:row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A950" s="0" t="s">
-        <x:v>1005</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>6</x:v>
@@ -16856,7 +16871,7 @@
     </x:row>
     <x:row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A951" s="0" t="s">
-        <x:v>1006</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>6</x:v>
@@ -16870,7 +16885,7 @@
     </x:row>
     <x:row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A952" s="0" t="s">
-        <x:v>1007</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>6</x:v>
@@ -16884,7 +16899,7 @@
     </x:row>
     <x:row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A953" s="0" t="s">
-        <x:v>1008</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>6</x:v>
@@ -16898,7 +16913,7 @@
     </x:row>
     <x:row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A954" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>6</x:v>
@@ -16912,7 +16927,7 @@
     </x:row>
     <x:row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A955" s="0" t="s">
-        <x:v>1010</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>6</x:v>
@@ -16926,7 +16941,7 @@
     </x:row>
     <x:row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A956" s="0" t="s">
-        <x:v>1011</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>6</x:v>
@@ -16940,7 +16955,7 @@
     </x:row>
     <x:row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A957" s="0" t="s">
-        <x:v>1012</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>6</x:v>
@@ -16954,7 +16969,7 @@
     </x:row>
     <x:row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A958" s="0" t="s">
-        <x:v>1013</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>6</x:v>
@@ -16968,7 +16983,7 @@
     </x:row>
     <x:row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A959" s="0" t="s">
-        <x:v>1014</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>6</x:v>
@@ -16982,7 +16997,7 @@
     </x:row>
     <x:row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A960" s="0" t="s">
-        <x:v>1015</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>6</x:v>
@@ -16996,7 +17011,7 @@
     </x:row>
     <x:row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A961" s="0" t="s">
-        <x:v>1016</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>6</x:v>
@@ -17010,7 +17025,7 @@
     </x:row>
     <x:row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A962" s="0" t="s">
-        <x:v>1017</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>6</x:v>
@@ -17024,7 +17039,7 @@
     </x:row>
     <x:row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A963" s="0" t="s">
-        <x:v>1018</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>6</x:v>
@@ -17038,7 +17053,7 @@
     </x:row>
     <x:row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A964" s="0" t="s">
-        <x:v>1019</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>6</x:v>
@@ -17052,7 +17067,7 @@
     </x:row>
     <x:row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A965" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>6</x:v>
@@ -17066,7 +17081,7 @@
     </x:row>
     <x:row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A966" s="0" t="s">
-        <x:v>1021</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>6</x:v>
@@ -17080,7 +17095,7 @@
     </x:row>
     <x:row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A967" s="0" t="s">
-        <x:v>1022</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>6</x:v>
@@ -17094,7 +17109,7 @@
     </x:row>
     <x:row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A968" s="0" t="s">
-        <x:v>1023</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>6</x:v>
@@ -17108,7 +17123,7 @@
     </x:row>
     <x:row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A969" s="0" t="s">
-        <x:v>1024</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>6</x:v>
@@ -17122,7 +17137,7 @@
     </x:row>
     <x:row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A970" s="0" t="s">
-        <x:v>1025</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>6</x:v>
@@ -17136,7 +17151,7 @@
     </x:row>
     <x:row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A971" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>6</x:v>
@@ -17150,7 +17165,7 @@
     </x:row>
     <x:row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A972" s="0" t="s">
-        <x:v>1027</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>6</x:v>
@@ -17164,7 +17179,7 @@
     </x:row>
     <x:row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A973" s="0" t="s">
-        <x:v>1028</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>6</x:v>
@@ -17178,7 +17193,7 @@
     </x:row>
     <x:row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A974" s="0" t="s">
-        <x:v>1029</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>6</x:v>
@@ -17192,7 +17207,7 @@
     </x:row>
     <x:row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A975" s="0" t="s">
-        <x:v>1030</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>6</x:v>
@@ -17206,7 +17221,7 @@
     </x:row>
     <x:row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A976" s="0" t="s">
-        <x:v>1031</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>6</x:v>
@@ -17220,7 +17235,7 @@
     </x:row>
     <x:row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A977" s="0" t="s">
-        <x:v>1032</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>6</x:v>
@@ -17234,7 +17249,7 @@
     </x:row>
     <x:row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A978" s="0" t="s">
-        <x:v>1033</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>6</x:v>
@@ -17248,7 +17263,7 @@
     </x:row>
     <x:row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A979" s="0" t="s">
-        <x:v>1034</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>6</x:v>
@@ -17262,7 +17277,7 @@
     </x:row>
     <x:row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A980" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>6</x:v>
@@ -17276,7 +17291,7 @@
     </x:row>
     <x:row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A981" s="0" t="s">
-        <x:v>1036</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>6</x:v>
@@ -17290,7 +17305,7 @@
     </x:row>
     <x:row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A982" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>6</x:v>
@@ -17304,7 +17319,7 @@
     </x:row>
     <x:row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A983" s="0" t="s">
-        <x:v>1038</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>6</x:v>
@@ -17318,7 +17333,7 @@
     </x:row>
     <x:row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A984" s="0" t="s">
-        <x:v>1039</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>6</x:v>
@@ -17332,7 +17347,7 @@
     </x:row>
     <x:row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A985" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>6</x:v>
@@ -17346,7 +17361,7 @@
     </x:row>
     <x:row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A986" s="0" t="s">
-        <x:v>1041</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>6</x:v>
@@ -17360,7 +17375,7 @@
     </x:row>
     <x:row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A987" s="0" t="s">
-        <x:v>1042</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>6</x:v>
@@ -17374,7 +17389,7 @@
     </x:row>
     <x:row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A988" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>6</x:v>
@@ -17388,7 +17403,7 @@
     </x:row>
     <x:row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A989" s="0" t="s">
-        <x:v>1044</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>6</x:v>
@@ -17402,7 +17417,7 @@
     </x:row>
     <x:row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A990" s="0" t="s">
-        <x:v>1045</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>6</x:v>
@@ -17416,7 +17431,7 @@
     </x:row>
     <x:row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A991" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>6</x:v>
@@ -17430,7 +17445,7 @@
     </x:row>
     <x:row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A992" s="0" t="s">
-        <x:v>1047</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>6</x:v>
@@ -17444,7 +17459,7 @@
     </x:row>
     <x:row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A993" s="0" t="s">
-        <x:v>1048</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>6</x:v>
@@ -17458,7 +17473,7 @@
     </x:row>
     <x:row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A994" s="0" t="s">
-        <x:v>1049</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>6</x:v>
@@ -17472,7 +17487,7 @@
     </x:row>
     <x:row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A995" s="0" t="s">
-        <x:v>1050</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>6</x:v>
@@ -17486,7 +17501,7 @@
     </x:row>
     <x:row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A996" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>6</x:v>
@@ -17500,7 +17515,7 @@
     </x:row>
     <x:row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A997" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
         <x:v>6</x:v>
@@ -17514,7 +17529,7 @@
     </x:row>
     <x:row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A998" s="0" t="s">
-        <x:v>1053</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
         <x:v>6</x:v>
@@ -17528,7 +17543,7 @@
     </x:row>
     <x:row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A999" s="0" t="s">
-        <x:v>1054</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>6</x:v>
@@ -17542,7 +17557,7 @@
     </x:row>
     <x:row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1000" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>6</x:v>
@@ -17556,7 +17571,7 @@
     </x:row>
     <x:row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1001" s="0" t="s">
-        <x:v>1056</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>6</x:v>
